--- a/export.xlsx
+++ b/export.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="119">
   <si>
     <t>Word</t>
   </si>
@@ -32,12 +32,24 @@
     <t>Created at</t>
   </si>
   <si>
+    <t>condescending</t>
+  </si>
+  <si>
+    <t>having or showing an attitude of patronizing superiority</t>
+  </si>
+  <si>
+    <t>patronizing</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2021-10-28 00:12:08.521439</t>
+  </si>
+  <si>
     <t>debacle</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>fiasco</t>
   </si>
   <si>
@@ -80,6 +92,9 @@
     <t>onerous</t>
   </si>
   <si>
+    <t>involving a great deal of effort, trouble or difficulty</t>
+  </si>
+  <si>
     <t>burdensome</t>
   </si>
   <si>
@@ -149,18 +164,6 @@
     <t>2021-10-28 00:31:41.851617</t>
   </si>
   <si>
-    <t>condescending</t>
-  </si>
-  <si>
-    <t>having or showing an attitude of patronizing superiority</t>
-  </si>
-  <si>
-    <t>patronizing</t>
-  </si>
-  <si>
-    <t>2021-10-28 00:12:08.521439</t>
-  </si>
-  <si>
     <t>unhinged</t>
   </si>
   <si>
@@ -171,6 +174,201 @@
   </si>
   <si>
     <t>2021-11-05 22:58:27.652222</t>
+  </si>
+  <si>
+    <t>perpetrate</t>
+  </si>
+  <si>
+    <t>carry out or commit (a harmful, illegal, or immoral action)</t>
+  </si>
+  <si>
+    <t>commit</t>
+  </si>
+  <si>
+    <t>2021-11-05 23:09:26.006923</t>
+  </si>
+  <si>
+    <t>incentive</t>
+  </si>
+  <si>
+    <t>a thing that motivates or encourages someone to do something</t>
+  </si>
+  <si>
+    <t>inducement</t>
+  </si>
+  <si>
+    <t>2021-11-05 23:10:54.925723</t>
+  </si>
+  <si>
+    <t>ramification</t>
+  </si>
+  <si>
+    <t>consequence</t>
+  </si>
+  <si>
+    <t>2021-11-05 23:12:12.541448</t>
+  </si>
+  <si>
+    <t>apoptosis</t>
+  </si>
+  <si>
+    <t>the death of cells which occurs as a normal and controlled part of an organism's growth or development</t>
+  </si>
+  <si>
+    <t>2021-11-05 23:13:34.20914</t>
+  </si>
+  <si>
+    <t>recuperate</t>
+  </si>
+  <si>
+    <t>recover from illness or exertion</t>
+  </si>
+  <si>
+    <t>2021-11-05 23:14:29.445691</t>
+  </si>
+  <si>
+    <t>felony</t>
+  </si>
+  <si>
+    <t>a violent and terrible crime</t>
+  </si>
+  <si>
+    <t>2021-11-05 23:17:05.669846</t>
+  </si>
+  <si>
+    <t>peddle</t>
+  </si>
+  <si>
+    <t>sell;advocate</t>
+  </si>
+  <si>
+    <t>2021-11-05 23:18:45.861368</t>
+  </si>
+  <si>
+    <t>fallacy</t>
+  </si>
+  <si>
+    <t>a mistaken belief, especially one based on unsound arguments</t>
+  </si>
+  <si>
+    <t>misconception</t>
+  </si>
+  <si>
+    <t>2021-11-05 23:19:33.647009</t>
+  </si>
+  <si>
+    <t>stupor</t>
+  </si>
+  <si>
+    <t>a state of near-unconsciousness or insensibility</t>
+  </si>
+  <si>
+    <t>daze</t>
+  </si>
+  <si>
+    <t>2021-11-05 23:20:57.383103</t>
+  </si>
+  <si>
+    <t>foyer</t>
+  </si>
+  <si>
+    <t>entrance hall</t>
+  </si>
+  <si>
+    <t>2021-11-05 23:21:33.130184</t>
+  </si>
+  <si>
+    <t>pundit</t>
+  </si>
+  <si>
+    <t>expert</t>
+  </si>
+  <si>
+    <t>2021-11-05 23:23:13.008626</t>
+  </si>
+  <si>
+    <t>lambast</t>
+  </si>
+  <si>
+    <t>criticize harshly</t>
+  </si>
+  <si>
+    <t>2021-11-05 23:26:18.659339</t>
+  </si>
+  <si>
+    <t>soar</t>
+  </si>
+  <si>
+    <t>increasing rapidly above the usual level</t>
+  </si>
+  <si>
+    <t>fly up</t>
+  </si>
+  <si>
+    <t>2021-11-05 23:27:02.200839</t>
+  </si>
+  <si>
+    <t>intact</t>
+  </si>
+  <si>
+    <t>not damaged or impaired in any way; complete</t>
+  </si>
+  <si>
+    <t>whole</t>
+  </si>
+  <si>
+    <t>2021-11-05 23:27:50.644715</t>
+  </si>
+  <si>
+    <t>shoddy</t>
+  </si>
+  <si>
+    <t>careless;poor-quality</t>
+  </si>
+  <si>
+    <t>2021-11-05 23:28:42.360492</t>
+  </si>
+  <si>
+    <t>tattered</t>
+  </si>
+  <si>
+    <t>old and torn; in poor condition</t>
+  </si>
+  <si>
+    <t>2021-11-05 23:30:10.930195</t>
+  </si>
+  <si>
+    <t>inherent</t>
+  </si>
+  <si>
+    <t>existing in something as a permanent, essential, or characteristic attribute</t>
+  </si>
+  <si>
+    <t>intrinsic</t>
+  </si>
+  <si>
+    <t>2021-11-05 23:31:22.01212</t>
+  </si>
+  <si>
+    <t>decry</t>
+  </si>
+  <si>
+    <t>denounce</t>
+  </si>
+  <si>
+    <t>2021-11-05 23:32:11.165969</t>
+  </si>
+  <si>
+    <t>frenetic</t>
+  </si>
+  <si>
+    <t>fast and energetic in a rather wild and uncontrolled way</t>
+  </si>
+  <si>
+    <t>frantic</t>
+  </si>
+  <si>
+    <t>2021-11-05 23:32:57.751058</t>
   </si>
 </sst>
 </file>
@@ -215,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -252,293 +450,673 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" t="n">
         <v>0.0</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E3" t="n">
         <v>0.0</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E4" t="n">
         <v>0.0</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E5" t="n">
         <v>0.0</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E6" t="n">
         <v>0.0</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E7" t="n">
         <v>0.0</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E8" t="n">
         <v>0.0</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E9" t="n">
         <v>0.0</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E10" t="n">
         <v>0.0</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E11" t="n">
         <v>0.0</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E12" t="n">
         <v>0.0</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E13" t="n">
         <v>0.0</v>
       </c>
       <c r="F13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E14" t="n">
         <v>0.0</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E15" t="n">
         <v>0.0</v>
       </c>
       <c r="F15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E16" t="n">
         <v>0.0</v>
       </c>
       <c r="F16" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>103</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>112</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>113</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>115</v>
+      </c>
+      <c r="B35" t="s">
+        <v>116</v>
+      </c>
+      <c r="C35" t="s">
+        <v>117</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F35" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/export.xlsx
+++ b/export.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="295">
   <si>
     <t>Word</t>
   </si>
@@ -771,6 +771,60 @@
     <t>2021-11-14 00:25:37.291554</t>
   </si>
   <si>
+    <t>erratic</t>
+  </si>
+  <si>
+    <t>unpredictable</t>
+  </si>
+  <si>
+    <t>2021-11-14 16:37:51.305571</t>
+  </si>
+  <si>
+    <t>entail</t>
+  </si>
+  <si>
+    <t>involve (smth) as a necessary or inevitable part or consequence</t>
+  </si>
+  <si>
+    <t>necessitate</t>
+  </si>
+  <si>
+    <t>2021-11-14 16:39:12.99207</t>
+  </si>
+  <si>
+    <t>disengage</t>
+  </si>
+  <si>
+    <t>remove;withdraw</t>
+  </si>
+  <si>
+    <t>2021-11-14 16:45:31.492612</t>
+  </si>
+  <si>
+    <t>recuperation</t>
+  </si>
+  <si>
+    <t>recovery from illness or exertion</t>
+  </si>
+  <si>
+    <t>recovery</t>
+  </si>
+  <si>
+    <t>2021-11-14 16:46:27.758408</t>
+  </si>
+  <si>
+    <t>nurture</t>
+  </si>
+  <si>
+    <t>care for and protect (someone or smth) while they are growing</t>
+  </si>
+  <si>
+    <t>cultivate</t>
+  </si>
+  <si>
+    <t>2021-11-14 16:48:04.864399</t>
+  </si>
+  <si>
     <t>content</t>
   </si>
   <si>
@@ -829,6 +883,21 @@
   </si>
   <si>
     <t>Saying what you mean and meaning what you say</t>
+  </si>
+  <si>
+    <t>Each night, when I go to sleep, I die. And the next morning, when I wake up, I am reborn</t>
+  </si>
+  <si>
+    <t>If the answer isn't a definite yes then it should be a no</t>
+  </si>
+  <si>
+    <t>If it isn't a clear yes, then it's a clear no</t>
+  </si>
+  <si>
+    <t>To follow, without halt, one aim: there is the secret to success</t>
+  </si>
+  <si>
+    <t>Half of the troubles of this life can be traced to saying yes too quickly and not saying no soon enough</t>
   </si>
 </sst>
 </file>
@@ -873,7 +942,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:F80"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2379,6 +2448,106 @@
         <v>251</v>
       </c>
     </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>252</v>
+      </c>
+      <c r="B76" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" t="s">
+        <v>253</v>
+      </c>
+      <c r="D76" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F76" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>255</v>
+      </c>
+      <c r="B77" t="s">
+        <v>256</v>
+      </c>
+      <c r="C77" t="s">
+        <v>257</v>
+      </c>
+      <c r="D77" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F77" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>259</v>
+      </c>
+      <c r="B78" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" t="s">
+        <v>260</v>
+      </c>
+      <c r="D78" t="s">
+        <v>9</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F78" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>262</v>
+      </c>
+      <c r="B79" t="s">
+        <v>263</v>
+      </c>
+      <c r="C79" t="s">
+        <v>264</v>
+      </c>
+      <c r="D79" t="s">
+        <v>9</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F79" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>266</v>
+      </c>
+      <c r="B80" t="s">
+        <v>267</v>
+      </c>
+      <c r="C80" t="s">
+        <v>268</v>
+      </c>
+      <c r="D80" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F80" t="s">
+        <v>269</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -2386,7 +2555,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2394,102 +2563,127 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>266</v>
+        <v>284</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>269</v>
+        <v>287</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>271</v>
+        <v>289</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>

--- a/export.xlsx
+++ b/export.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="345">
   <si>
     <t>Word</t>
   </si>
@@ -823,6 +823,156 @@
   </si>
   <si>
     <t>2021-11-14 16:48:04.864399</t>
+  </si>
+  <si>
+    <t>fatigue</t>
+  </si>
+  <si>
+    <t>tiredness</t>
+  </si>
+  <si>
+    <t>2021-11-14 20:15:38.955425</t>
+  </si>
+  <si>
+    <t>cumulatively</t>
+  </si>
+  <si>
+    <t>in a way that increases in quantity, degree, or force by successive addition</t>
+  </si>
+  <si>
+    <t>2021-11-14 20:16:29.606448</t>
+  </si>
+  <si>
+    <t>ample</t>
+  </si>
+  <si>
+    <t>enough;plentiful</t>
+  </si>
+  <si>
+    <t>2021-11-14 20:17:00.34091</t>
+  </si>
+  <si>
+    <t>pernicious</t>
+  </si>
+  <si>
+    <t>harmful</t>
+  </si>
+  <si>
+    <t>2021-11-14 20:17:55.875123</t>
+  </si>
+  <si>
+    <t>liken</t>
+  </si>
+  <si>
+    <t>point out the resemblance of someone or smth to</t>
+  </si>
+  <si>
+    <t>compare</t>
+  </si>
+  <si>
+    <t>2021-11-14 20:18:50.405149</t>
+  </si>
+  <si>
+    <t>machismo</t>
+  </si>
+  <si>
+    <t>aggresive masculinity</t>
+  </si>
+  <si>
+    <t>2021-11-15 14:49:54.205507</t>
+  </si>
+  <si>
+    <t>stigma</t>
+  </si>
+  <si>
+    <t>a mark of disgrace associated with a particular circumstance, quality, or person</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>2021-11-15 14:50:45.332093</t>
+  </si>
+  <si>
+    <t>commodity</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>2021-11-15 14:51:17.949615</t>
+  </si>
+  <si>
+    <t>deride</t>
+  </si>
+  <si>
+    <t>express contempt for</t>
+  </si>
+  <si>
+    <t>ridicule</t>
+  </si>
+  <si>
+    <t>2021-11-15 14:51:56.068144</t>
+  </si>
+  <si>
+    <t>wimpish</t>
+  </si>
+  <si>
+    <t>weak and cowardly or unadventurous</t>
+  </si>
+  <si>
+    <t>2021-11-15 14:52:35.494874</t>
+  </si>
+  <si>
+    <t>tout</t>
+  </si>
+  <si>
+    <t>attempt to sell smth, typically by a direct or persistent approach</t>
+  </si>
+  <si>
+    <t>peddle;solicit</t>
+  </si>
+  <si>
+    <t>2021-11-15 14:53:45.152971</t>
+  </si>
+  <si>
+    <t>discerning</t>
+  </si>
+  <si>
+    <t>having or showing good judgement</t>
+  </si>
+  <si>
+    <t>2021-11-15 14:54:30.922667</t>
+  </si>
+  <si>
+    <t>mediocre</t>
+  </si>
+  <si>
+    <t>of only average quality; not very good</t>
+  </si>
+  <si>
+    <t>ordinary</t>
+  </si>
+  <si>
+    <t>2021-11-15 14:55:50.807842</t>
+  </si>
+  <si>
+    <t>utter</t>
+  </si>
+  <si>
+    <t>absolute;complete</t>
+  </si>
+  <si>
+    <t>2021-11-15 14:56:38.984503</t>
+  </si>
+  <si>
+    <t>conviction</t>
+  </si>
+  <si>
+    <t>belief</t>
+  </si>
+  <si>
+    <t>2021-11-15 14:57:11.455154</t>
   </si>
   <si>
     <t>content</t>
@@ -942,7 +1092,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F80"/>
+  <dimension ref="A1:F95"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2546,6 +2696,306 @@
       </c>
       <c r="F80" t="s">
         <v>269</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>270</v>
+      </c>
+      <c r="B81" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" t="s">
+        <v>271</v>
+      </c>
+      <c r="D81" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F81" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>273</v>
+      </c>
+      <c r="B82" t="s">
+        <v>274</v>
+      </c>
+      <c r="C82" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F82" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>276</v>
+      </c>
+      <c r="B83" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" t="s">
+        <v>277</v>
+      </c>
+      <c r="D83" t="s">
+        <v>9</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F83" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>279</v>
+      </c>
+      <c r="B84" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" t="s">
+        <v>280</v>
+      </c>
+      <c r="D84" t="s">
+        <v>9</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F84" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>282</v>
+      </c>
+      <c r="B85" t="s">
+        <v>283</v>
+      </c>
+      <c r="C85" t="s">
+        <v>284</v>
+      </c>
+      <c r="D85" t="s">
+        <v>9</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>286</v>
+      </c>
+      <c r="B86" t="s">
+        <v>287</v>
+      </c>
+      <c r="C86" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" t="s">
+        <v>9</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F86" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>289</v>
+      </c>
+      <c r="B87" t="s">
+        <v>290</v>
+      </c>
+      <c r="C87" t="s">
+        <v>291</v>
+      </c>
+      <c r="D87" t="s">
+        <v>9</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F87" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>293</v>
+      </c>
+      <c r="B88" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" t="s">
+        <v>294</v>
+      </c>
+      <c r="D88" t="s">
+        <v>9</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F88" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>296</v>
+      </c>
+      <c r="B89" t="s">
+        <v>297</v>
+      </c>
+      <c r="C89" t="s">
+        <v>298</v>
+      </c>
+      <c r="D89" t="s">
+        <v>9</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F89" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>300</v>
+      </c>
+      <c r="B90" t="s">
+        <v>301</v>
+      </c>
+      <c r="C90" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" t="s">
+        <v>9</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F90" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>303</v>
+      </c>
+      <c r="B91" t="s">
+        <v>304</v>
+      </c>
+      <c r="C91" t="s">
+        <v>305</v>
+      </c>
+      <c r="D91" t="s">
+        <v>9</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F91" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>307</v>
+      </c>
+      <c r="B92" t="s">
+        <v>308</v>
+      </c>
+      <c r="C92" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" t="s">
+        <v>9</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F92" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>310</v>
+      </c>
+      <c r="B93" t="s">
+        <v>311</v>
+      </c>
+      <c r="C93" t="s">
+        <v>312</v>
+      </c>
+      <c r="D93" t="s">
+        <v>9</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F93" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>314</v>
+      </c>
+      <c r="B94" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94" t="s">
+        <v>315</v>
+      </c>
+      <c r="D94" t="s">
+        <v>9</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F94" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>317</v>
+      </c>
+      <c r="B95" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95" t="s">
+        <v>318</v>
+      </c>
+      <c r="D95" t="s">
+        <v>9</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F95" t="s">
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -2563,127 +3013,127 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>270</v>
+        <v>320</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>271</v>
+        <v>321</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>272</v>
+        <v>322</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>273</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>274</v>
+        <v>324</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>275</v>
+        <v>325</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>276</v>
+        <v>326</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>277</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>278</v>
+        <v>328</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>279</v>
+        <v>329</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>280</v>
+        <v>330</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>281</v>
+        <v>331</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>282</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>283</v>
+        <v>333</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>284</v>
+        <v>334</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>285</v>
+        <v>335</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>286</v>
+        <v>336</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>287</v>
+        <v>337</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>288</v>
+        <v>338</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>289</v>
+        <v>339</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>290</v>
+        <v>340</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>291</v>
+        <v>341</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>292</v>
+        <v>342</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>293</v>
+        <v>343</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>294</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>

--- a/export.xlsx
+++ b/export.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="377">
   <si>
     <t>Word</t>
   </si>
@@ -975,6 +975,99 @@
     <t>2021-11-15 14:57:11.455154</t>
   </si>
   <si>
+    <t>unenviable</t>
+  </si>
+  <si>
+    <t>unpleasant;difficult;undesirable</t>
+  </si>
+  <si>
+    <t>2021-11-16 12:53:53.320239</t>
+  </si>
+  <si>
+    <t>vigilant</t>
+  </si>
+  <si>
+    <t>watchful</t>
+  </si>
+  <si>
+    <t>2021-11-16 12:54:22.449368</t>
+  </si>
+  <si>
+    <t>amplify</t>
+  </si>
+  <si>
+    <t>expand;louden</t>
+  </si>
+  <si>
+    <t>2021-11-16 12:54:56.705918</t>
+  </si>
+  <si>
+    <t>notorious</t>
+  </si>
+  <si>
+    <t>well known, typically for some bad quality or deed</t>
+  </si>
+  <si>
+    <t>infamous</t>
+  </si>
+  <si>
+    <t>2021-11-16 12:55:49.850794</t>
+  </si>
+  <si>
+    <t>epitomize</t>
+  </si>
+  <si>
+    <t>summarize;embody</t>
+  </si>
+  <si>
+    <t>2021-11-16 12:56:33.27447</t>
+  </si>
+  <si>
+    <t>rigorous</t>
+  </si>
+  <si>
+    <t>extremely thorough and careful</t>
+  </si>
+  <si>
+    <t>strict;meticulous</t>
+  </si>
+  <si>
+    <t>2021-11-16 12:57:47.829373</t>
+  </si>
+  <si>
+    <t>weed out</t>
+  </si>
+  <si>
+    <t>isolate</t>
+  </si>
+  <si>
+    <t>2021-11-16 12:59:23.223598</t>
+  </si>
+  <si>
+    <t>debrief</t>
+  </si>
+  <si>
+    <t>question (someone, typically a soldier or spy) about a completed mission</t>
+  </si>
+  <si>
+    <t>question</t>
+  </si>
+  <si>
+    <t>2021-11-16 13:00:53.826091</t>
+  </si>
+  <si>
+    <t>infraction</t>
+  </si>
+  <si>
+    <t>a violation of a law or agreement</t>
+  </si>
+  <si>
+    <t>infringement</t>
+  </si>
+  <si>
+    <t>2021-11-16 13:01:47.533568</t>
+  </si>
+  <si>
     <t>content</t>
   </si>
   <si>
@@ -1048,6 +1141,9 @@
   </si>
   <si>
     <t>Half of the troubles of this life can be traced to saying yes too quickly and not saying no soon enough</t>
+  </si>
+  <si>
+    <t>Less but better</t>
   </si>
 </sst>
 </file>
@@ -1092,7 +1188,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F95"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2998,6 +3094,186 @@
         <v>319</v>
       </c>
     </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>320</v>
+      </c>
+      <c r="B96" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96" t="s">
+        <v>321</v>
+      </c>
+      <c r="D96" t="s">
+        <v>9</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F96" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>323</v>
+      </c>
+      <c r="B97" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97" t="s">
+        <v>324</v>
+      </c>
+      <c r="D97" t="s">
+        <v>9</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F97" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>326</v>
+      </c>
+      <c r="B98" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98" t="s">
+        <v>327</v>
+      </c>
+      <c r="D98" t="s">
+        <v>9</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F98" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>329</v>
+      </c>
+      <c r="B99" t="s">
+        <v>330</v>
+      </c>
+      <c r="C99" t="s">
+        <v>331</v>
+      </c>
+      <c r="D99" t="s">
+        <v>9</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F99" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>333</v>
+      </c>
+      <c r="B100" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100" t="s">
+        <v>334</v>
+      </c>
+      <c r="D100" t="s">
+        <v>9</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F100" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>336</v>
+      </c>
+      <c r="B101" t="s">
+        <v>337</v>
+      </c>
+      <c r="C101" t="s">
+        <v>338</v>
+      </c>
+      <c r="D101" t="s">
+        <v>9</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F101" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>340</v>
+      </c>
+      <c r="B102" t="s">
+        <v>9</v>
+      </c>
+      <c r="C102" t="s">
+        <v>341</v>
+      </c>
+      <c r="D102" t="s">
+        <v>9</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F102" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>343</v>
+      </c>
+      <c r="B103" t="s">
+        <v>344</v>
+      </c>
+      <c r="C103" t="s">
+        <v>345</v>
+      </c>
+      <c r="D103" t="s">
+        <v>9</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F103" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>347</v>
+      </c>
+      <c r="B104" t="s">
+        <v>348</v>
+      </c>
+      <c r="C104" t="s">
+        <v>349</v>
+      </c>
+      <c r="D104" t="s">
+        <v>9</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F104" t="s">
+        <v>350</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -3005,7 +3281,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A25"/>
+  <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3013,127 +3289,132 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>320</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>321</v>
+        <v>352</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>322</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>323</v>
+        <v>354</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>324</v>
+        <v>355</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>325</v>
+        <v>356</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>326</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>327</v>
+        <v>358</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>328</v>
+        <v>359</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>329</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>330</v>
+        <v>361</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>331</v>
+        <v>362</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>332</v>
+        <v>363</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>333</v>
+        <v>364</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>334</v>
+        <v>365</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>335</v>
+        <v>366</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>336</v>
+        <v>367</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>337</v>
+        <v>368</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>338</v>
+        <v>369</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>339</v>
+        <v>370</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>340</v>
+        <v>371</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>341</v>
+        <v>372</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>342</v>
+        <v>373</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>343</v>
+        <v>374</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>344</v>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>376</v>
       </c>
     </row>
   </sheetData>

--- a/export.xlsx
+++ b/export.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="ENGLISH" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="446">
   <si>
     <t xml:space="preserve">Word</t>
   </si>
@@ -698,7 +698,7 @@
     <t xml:space="preserve">2021-11-13 15:27:25.556179</t>
   </si>
   <si>
-    <t xml:space="preserve">disentabgle</t>
+    <t xml:space="preserve">disentangle</t>
   </si>
   <si>
     <t xml:space="preserve">free from something that they are entangled with</t>
@@ -1181,6 +1181,102 @@
     <t xml:space="preserve">2021-11-17 13:05:11.821048</t>
   </si>
   <si>
+    <t xml:space="preserve">resentment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bitterness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-11-18 13:38:55.766952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coalesce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com together to form one mass or whole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-11-18 13:39:52.321676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">timid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">easily frightened</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-11-18 13:40:17.759858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reverberation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prolongation of a sound; a continuing effect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resonance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-11-18 13:41:26.98325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imprisonment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">incarceration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-11-18 13:42:08.650617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">convention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">agreement;custom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-11-18 13:44:21.614304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crestfallen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disappointed;downhearted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-11-18 13:45:08.281708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">innate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">natural;inborn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-11-18 13:46:56.18276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">muddle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">confuse;bewilder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-11-18 13:47:26.716003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resolutely</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in an admirably purposeful, determined, and unwavering manner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-11-18 13:48:20.311353</t>
+  </si>
+  <si>
     <t xml:space="preserve">content</t>
   </si>
   <si>
@@ -1260,6 +1356,9 @@
   </si>
   <si>
     <t xml:space="preserve">Less but better</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The main thing is to keep the main thing the main thing</t>
   </si>
 </sst>
 </file>
@@ -1355,10 +1454,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G114"/>
+  <dimension ref="A1:G124"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M24" activeCellId="0" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3089,6 +3188,152 @@
       </c>
       <c r="F114" s="0" t="s">
         <v>385</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="C115" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="E115" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F115" s="0" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="C116" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="E116" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F116" s="0" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="C117" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="E117" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F117" s="0" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="C118" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="E118" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F118" s="0" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="C119" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="E119" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F119" s="0" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="C120" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="E120" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F120" s="0" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="C121" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="E121" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F121" s="0" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="C122" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="E122" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F122" s="0" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="C123" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="E123" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F123" s="0" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="E124" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F124" s="0" t="s">
+        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -3107,17 +3352,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>6</v>
@@ -3125,133 +3370,141 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>387</v>
+        <v>419</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>388</v>
+        <v>420</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>389</v>
+        <v>421</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>390</v>
+        <v>422</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>391</v>
+        <v>423</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>392</v>
+        <v>424</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>393</v>
+        <v>425</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>394</v>
+        <v>426</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>395</v>
+        <v>427</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>396</v>
+        <v>428</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>397</v>
+        <v>429</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>398</v>
+        <v>430</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>399</v>
+        <v>431</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>400</v>
+        <v>432</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>401</v>
+        <v>433</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>402</v>
+        <v>434</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>403</v>
+        <v>435</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>404</v>
+        <v>436</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>406</v>
+        <v>438</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>407</v>
+        <v>439</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>408</v>
+        <v>440</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>409</v>
+        <v>441</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>410</v>
+        <v>442</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>411</v>
+        <v>443</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>412</v>
+        <v>444</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>411</v>
+        <v>443</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>443</v>
       </c>
     </row>
   </sheetData>

--- a/export.xlsx
+++ b/export.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="520">
   <si>
     <t>Word</t>
   </si>
@@ -705,6 +705,15 @@
     <t>2021-11-13 15:29:33.972408</t>
   </si>
   <si>
+    <t>extricate</t>
+  </si>
+  <si>
+    <t>free from a constraint or difficulty</t>
+  </si>
+  <si>
+    <t>2021-11-20 14:57:27.485397</t>
+  </si>
+  <si>
     <t>slumber</t>
   </si>
   <si>
@@ -1368,6 +1377,96 @@
     <t>2021-11-19 15:04:55.573824</t>
   </si>
   <si>
+    <t>restrained</t>
+  </si>
+  <si>
+    <t>self-controlled</t>
+  </si>
+  <si>
+    <t>2021-11-20 15:03:49.858279</t>
+  </si>
+  <si>
+    <t>condense</t>
+  </si>
+  <si>
+    <t>make denser or more concentrated</t>
+  </si>
+  <si>
+    <t>2021-11-20 15:04:42.212772</t>
+  </si>
+  <si>
+    <t>apt</t>
+  </si>
+  <si>
+    <t>inclined;suitable</t>
+  </si>
+  <si>
+    <t>2021-11-20 15:05:21.928371</t>
+  </si>
+  <si>
+    <t>sentiment</t>
+  </si>
+  <si>
+    <t>a view or opinion that is held or expressed</t>
+  </si>
+  <si>
+    <t>view;feeling</t>
+  </si>
+  <si>
+    <t>2021-11-20 15:06:18.444516</t>
+  </si>
+  <si>
+    <t>fuming</t>
+  </si>
+  <si>
+    <t>feeling, showing or expressing great anger</t>
+  </si>
+  <si>
+    <t>2021-11-20 15:07:39.355342</t>
+  </si>
+  <si>
+    <t>insidiously</t>
+  </si>
+  <si>
+    <t>in a gradual, subtle way, but with harmful effects</t>
+  </si>
+  <si>
+    <t>2021-11-20 15:08:28.761904</t>
+  </si>
+  <si>
+    <t>fret</t>
+  </si>
+  <si>
+    <t>be constantly or visibly anxious</t>
+  </si>
+  <si>
+    <t>worry;trouble</t>
+  </si>
+  <si>
+    <t>2021-11-20 15:10:17.940034</t>
+  </si>
+  <si>
+    <t>unsolicited</t>
+  </si>
+  <si>
+    <t>not asked for; given or done voluntarily</t>
+  </si>
+  <si>
+    <t>uninvited</t>
+  </si>
+  <si>
+    <t>2021-11-20 15:12:00.23661</t>
+  </si>
+  <si>
+    <t>resemble</t>
+  </si>
+  <si>
+    <t>look like</t>
+  </si>
+  <si>
+    <t>2021-11-20 15:12:28.779915</t>
+  </si>
+  <si>
     <t>content</t>
   </si>
   <si>
@@ -1453,6 +1552,27 @@
   </si>
   <si>
     <t>Compoftable with cutting losses</t>
+  </si>
+  <si>
+    <t>Get over the fear of waste</t>
+  </si>
+  <si>
+    <t>Stop making casual commitments</t>
+  </si>
+  <si>
+    <t>Pause before you speak</t>
+  </si>
+  <si>
+    <t>get over the fear of missing out</t>
+  </si>
+  <si>
+    <t>I saw the angel in the marble and carved until I set him free</t>
+  </si>
+  <si>
+    <t>No is a complete sentence</t>
+  </si>
+  <si>
+    <t>If you don't set boundaries - there won't be any</t>
   </si>
 </sst>
 </file>
@@ -1497,7 +1617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G134"/>
+  <dimension ref="A1:G144"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3049,10 +3169,10 @@
         <v>230</v>
       </c>
       <c r="B68" t="s">
-        <v>10</v>
+        <v>231</v>
       </c>
       <c r="C68" t="s">
-        <v>231</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
         <v>10</v>
@@ -3072,10 +3192,10 @@
         <v>233</v>
       </c>
       <c r="B69" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" t="s">
         <v>234</v>
-      </c>
-      <c r="C69" t="s">
-        <v>10</v>
       </c>
       <c r="D69" t="s">
         <v>10</v>
@@ -3095,10 +3215,10 @@
         <v>236</v>
       </c>
       <c r="B70" t="s">
-        <v>10</v>
+        <v>237</v>
       </c>
       <c r="C70" t="s">
-        <v>237</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
         <v>10</v>
@@ -3190,7 +3310,7 @@
         <v>10</v>
       </c>
       <c r="C74" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D74" t="s">
         <v>10</v>
@@ -3199,7 +3319,7 @@
         <v>0.0</v>
       </c>
       <c r="F74" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G74" t="s">
         <v>10</v>
@@ -3207,7 +3327,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B75" t="s">
         <v>10</v>
@@ -3256,19 +3376,19 @@
         <v>256</v>
       </c>
       <c r="B77" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" t="s">
         <v>257</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
+        <v>10</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F77" t="s">
         <v>258</v>
-      </c>
-      <c r="D77" t="s">
-        <v>10</v>
-      </c>
-      <c r="E77" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F77" t="s">
-        <v>259</v>
       </c>
       <c r="G77" t="s">
         <v>10</v>
@@ -3276,10 +3396,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
+        <v>259</v>
+      </c>
+      <c r="B78" t="s">
         <v>260</v>
-      </c>
-      <c r="B78" t="s">
-        <v>10</v>
       </c>
       <c r="C78" t="s">
         <v>261</v>
@@ -3302,19 +3422,19 @@
         <v>263</v>
       </c>
       <c r="B79" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79" t="s">
         <v>264</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F79" t="s">
         <v>265</v>
-      </c>
-      <c r="D79" t="s">
-        <v>10</v>
-      </c>
-      <c r="E79" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F79" t="s">
-        <v>266</v>
       </c>
       <c r="G79" t="s">
         <v>10</v>
@@ -3322,22 +3442,22 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
+        <v>266</v>
+      </c>
+      <c r="B80" t="s">
         <v>267</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
         <v>268</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
+        <v>10</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F80" t="s">
         <v>269</v>
-      </c>
-      <c r="D80" t="s">
-        <v>10</v>
-      </c>
-      <c r="E80" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F80" t="s">
-        <v>270</v>
       </c>
       <c r="G80" t="s">
         <v>10</v>
@@ -3345,10 +3465,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
+        <v>270</v>
+      </c>
+      <c r="B81" t="s">
         <v>271</v>
-      </c>
-      <c r="B81" t="s">
-        <v>10</v>
       </c>
       <c r="C81" t="s">
         <v>272</v>
@@ -3371,10 +3491,10 @@
         <v>274</v>
       </c>
       <c r="B82" t="s">
+        <v>10</v>
+      </c>
+      <c r="C82" t="s">
         <v>275</v>
-      </c>
-      <c r="C82" t="s">
-        <v>10</v>
       </c>
       <c r="D82" t="s">
         <v>10</v>
@@ -3394,10 +3514,10 @@
         <v>277</v>
       </c>
       <c r="B83" t="s">
-        <v>10</v>
+        <v>278</v>
       </c>
       <c r="C83" t="s">
-        <v>278</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
         <v>10</v>
@@ -3440,19 +3560,19 @@
         <v>283</v>
       </c>
       <c r="B85" t="s">
+        <v>10</v>
+      </c>
+      <c r="C85" t="s">
         <v>284</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F85" t="s">
         <v>285</v>
-      </c>
-      <c r="D85" t="s">
-        <v>10</v>
-      </c>
-      <c r="E85" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F85" t="s">
-        <v>286</v>
       </c>
       <c r="G85" t="s">
         <v>10</v>
@@ -3460,13 +3580,13 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
+        <v>286</v>
+      </c>
+      <c r="B86" t="s">
         <v>287</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
         <v>288</v>
-      </c>
-      <c r="C86" t="s">
-        <v>10</v>
       </c>
       <c r="D86" t="s">
         <v>10</v>
@@ -3489,16 +3609,16 @@
         <v>291</v>
       </c>
       <c r="C87" t="s">
+        <v>10</v>
+      </c>
+      <c r="D87" t="s">
+        <v>10</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F87" t="s">
         <v>292</v>
-      </c>
-      <c r="D87" t="s">
-        <v>10</v>
-      </c>
-      <c r="E87" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F87" t="s">
-        <v>293</v>
       </c>
       <c r="G87" t="s">
         <v>10</v>
@@ -3506,10 +3626,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
+        <v>293</v>
+      </c>
+      <c r="B88" t="s">
         <v>294</v>
-      </c>
-      <c r="B88" t="s">
-        <v>10</v>
       </c>
       <c r="C88" t="s">
         <v>295</v>
@@ -3532,19 +3652,19 @@
         <v>297</v>
       </c>
       <c r="B89" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" t="s">
         <v>298</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
+        <v>10</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F89" t="s">
         <v>299</v>
-      </c>
-      <c r="D89" t="s">
-        <v>10</v>
-      </c>
-      <c r="E89" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F89" t="s">
-        <v>300</v>
       </c>
       <c r="G89" t="s">
         <v>10</v>
@@ -3552,13 +3672,13 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
+        <v>300</v>
+      </c>
+      <c r="B90" t="s">
         <v>301</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
         <v>302</v>
-      </c>
-      <c r="C90" t="s">
-        <v>10</v>
       </c>
       <c r="D90" t="s">
         <v>10</v>
@@ -3581,16 +3701,16 @@
         <v>305</v>
       </c>
       <c r="C91" t="s">
+        <v>10</v>
+      </c>
+      <c r="D91" t="s">
+        <v>10</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F91" t="s">
         <v>306</v>
-      </c>
-      <c r="D91" t="s">
-        <v>10</v>
-      </c>
-      <c r="E91" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F91" t="s">
-        <v>307</v>
       </c>
       <c r="G91" t="s">
         <v>10</v>
@@ -3598,13 +3718,13 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
+        <v>307</v>
+      </c>
+      <c r="B92" t="s">
         <v>308</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
         <v>309</v>
-      </c>
-      <c r="C92" t="s">
-        <v>10</v>
       </c>
       <c r="D92" t="s">
         <v>10</v>
@@ -3627,16 +3747,16 @@
         <v>312</v>
       </c>
       <c r="C93" t="s">
+        <v>10</v>
+      </c>
+      <c r="D93" t="s">
+        <v>10</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F93" t="s">
         <v>313</v>
-      </c>
-      <c r="D93" t="s">
-        <v>10</v>
-      </c>
-      <c r="E93" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F93" t="s">
-        <v>314</v>
       </c>
       <c r="G93" t="s">
         <v>10</v>
@@ -3644,10 +3764,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
+        <v>314</v>
+      </c>
+      <c r="B94" t="s">
         <v>315</v>
-      </c>
-      <c r="B94" t="s">
-        <v>10</v>
       </c>
       <c r="C94" t="s">
         <v>316</v>
@@ -3762,19 +3882,19 @@
         <v>330</v>
       </c>
       <c r="B99" t="s">
+        <v>10</v>
+      </c>
+      <c r="C99" t="s">
         <v>331</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
+        <v>10</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F99" t="s">
         <v>332</v>
-      </c>
-      <c r="D99" t="s">
-        <v>10</v>
-      </c>
-      <c r="E99" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F99" t="s">
-        <v>333</v>
       </c>
       <c r="G99" t="s">
         <v>10</v>
@@ -3782,10 +3902,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
+        <v>333</v>
+      </c>
+      <c r="B100" t="s">
         <v>334</v>
-      </c>
-      <c r="B100" t="s">
-        <v>10</v>
       </c>
       <c r="C100" t="s">
         <v>335</v>
@@ -3808,19 +3928,19 @@
         <v>337</v>
       </c>
       <c r="B101" t="s">
+        <v>10</v>
+      </c>
+      <c r="C101" t="s">
         <v>338</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D101" t="s">
+        <v>10</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F101" t="s">
         <v>339</v>
-      </c>
-      <c r="D101" t="s">
-        <v>10</v>
-      </c>
-      <c r="E101" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F101" t="s">
-        <v>340</v>
       </c>
       <c r="G101" t="s">
         <v>10</v>
@@ -3828,10 +3948,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
+        <v>340</v>
+      </c>
+      <c r="B102" t="s">
         <v>341</v>
-      </c>
-      <c r="B102" t="s">
-        <v>10</v>
       </c>
       <c r="C102" t="s">
         <v>342</v>
@@ -3854,19 +3974,19 @@
         <v>344</v>
       </c>
       <c r="B103" t="s">
+        <v>10</v>
+      </c>
+      <c r="C103" t="s">
         <v>345</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
+        <v>10</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F103" t="s">
         <v>346</v>
-      </c>
-      <c r="D103" t="s">
-        <v>10</v>
-      </c>
-      <c r="E103" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F103" t="s">
-        <v>347</v>
       </c>
       <c r="G103" t="s">
         <v>10</v>
@@ -3874,22 +3994,22 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
+        <v>347</v>
+      </c>
+      <c r="B104" t="s">
         <v>348</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" t="s">
         <v>349</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D104" t="s">
+        <v>10</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F104" t="s">
         <v>350</v>
-      </c>
-      <c r="D104" t="s">
-        <v>10</v>
-      </c>
-      <c r="E104" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F104" t="s">
-        <v>351</v>
       </c>
       <c r="G104" t="s">
         <v>10</v>
@@ -3897,22 +4017,22 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
+        <v>351</v>
+      </c>
+      <c r="B105" t="s">
         <v>352</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" t="s">
         <v>353</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
+        <v>10</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F105" t="s">
         <v>354</v>
-      </c>
-      <c r="D105" t="s">
-        <v>10</v>
-      </c>
-      <c r="E105" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F105" t="s">
-        <v>355</v>
       </c>
       <c r="G105" t="s">
         <v>10</v>
@@ -3920,22 +4040,22 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
+        <v>355</v>
+      </c>
+      <c r="B106" t="s">
         <v>356</v>
       </c>
-      <c r="B106" t="s">
+      <c r="C106" t="s">
         <v>357</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
+        <v>10</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F106" t="s">
         <v>358</v>
-      </c>
-      <c r="D106" t="s">
-        <v>10</v>
-      </c>
-      <c r="E106" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F106" t="s">
-        <v>359</v>
       </c>
       <c r="G106" t="s">
         <v>10</v>
@@ -3943,22 +4063,22 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
+        <v>359</v>
+      </c>
+      <c r="B107" t="s">
         <v>360</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" t="s">
         <v>361</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D107" t="s">
+        <v>10</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F107" t="s">
         <v>362</v>
-      </c>
-      <c r="D107" t="s">
-        <v>10</v>
-      </c>
-      <c r="E107" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F107" t="s">
-        <v>363</v>
       </c>
       <c r="G107" t="s">
         <v>10</v>
@@ -3966,22 +4086,22 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
+        <v>363</v>
+      </c>
+      <c r="B108" t="s">
         <v>364</v>
       </c>
-      <c r="B108" t="s">
+      <c r="C108" t="s">
         <v>365</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
+        <v>10</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F108" t="s">
         <v>366</v>
-      </c>
-      <c r="D108" t="s">
-        <v>10</v>
-      </c>
-      <c r="E108" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F108" t="s">
-        <v>367</v>
       </c>
       <c r="G108" t="s">
         <v>10</v>
@@ -3989,10 +4109,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
+        <v>367</v>
+      </c>
+      <c r="B109" t="s">
         <v>368</v>
-      </c>
-      <c r="B109" t="s">
-        <v>10</v>
       </c>
       <c r="C109" t="s">
         <v>369</v>
@@ -4038,19 +4158,19 @@
         <v>374</v>
       </c>
       <c r="B111" t="s">
+        <v>10</v>
+      </c>
+      <c r="C111" t="s">
         <v>375</v>
       </c>
-      <c r="C111" t="s">
+      <c r="D111" t="s">
+        <v>10</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F111" t="s">
         <v>376</v>
-      </c>
-      <c r="D111" t="s">
-        <v>10</v>
-      </c>
-      <c r="E111" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F111" t="s">
-        <v>377</v>
       </c>
       <c r="G111" t="s">
         <v>10</v>
@@ -4058,13 +4178,13 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
+        <v>377</v>
+      </c>
+      <c r="B112" t="s">
         <v>378</v>
       </c>
-      <c r="B112" t="s">
+      <c r="C112" t="s">
         <v>379</v>
-      </c>
-      <c r="C112" t="s">
-        <v>10</v>
       </c>
       <c r="D112" t="s">
         <v>10</v>
@@ -4084,10 +4204,10 @@
         <v>381</v>
       </c>
       <c r="B113" t="s">
-        <v>10</v>
+        <v>382</v>
       </c>
       <c r="C113" t="s">
-        <v>382</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
         <v>10</v>
@@ -4153,19 +4273,19 @@
         <v>390</v>
       </c>
       <c r="B116" t="s">
+        <v>10</v>
+      </c>
+      <c r="C116" t="s">
         <v>391</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D116" t="s">
+        <v>10</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F116" t="s">
         <v>392</v>
-      </c>
-      <c r="D116" t="s">
-        <v>10</v>
-      </c>
-      <c r="E116" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F116" t="s">
-        <v>393</v>
       </c>
       <c r="G116" t="s">
         <v>10</v>
@@ -4173,10 +4293,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
+        <v>393</v>
+      </c>
+      <c r="B117" t="s">
         <v>394</v>
-      </c>
-      <c r="B117" t="s">
-        <v>10</v>
       </c>
       <c r="C117" t="s">
         <v>395</v>
@@ -4199,19 +4319,19 @@
         <v>397</v>
       </c>
       <c r="B118" t="s">
+        <v>10</v>
+      </c>
+      <c r="C118" t="s">
         <v>398</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
+        <v>10</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F118" t="s">
         <v>399</v>
-      </c>
-      <c r="D118" t="s">
-        <v>10</v>
-      </c>
-      <c r="E118" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F118" t="s">
-        <v>400</v>
       </c>
       <c r="G118" t="s">
         <v>10</v>
@@ -4219,10 +4339,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
+        <v>400</v>
+      </c>
+      <c r="B119" t="s">
         <v>401</v>
-      </c>
-      <c r="B119" t="s">
-        <v>10</v>
       </c>
       <c r="C119" t="s">
         <v>402</v>
@@ -4337,10 +4457,10 @@
         <v>416</v>
       </c>
       <c r="B124" t="s">
+        <v>10</v>
+      </c>
+      <c r="C124" t="s">
         <v>417</v>
-      </c>
-      <c r="C124" t="s">
-        <v>10</v>
       </c>
       <c r="D124" t="s">
         <v>10</v>
@@ -4363,16 +4483,16 @@
         <v>420</v>
       </c>
       <c r="C125" t="s">
+        <v>10</v>
+      </c>
+      <c r="D125" t="s">
+        <v>10</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F125" t="s">
         <v>421</v>
-      </c>
-      <c r="D125" t="s">
-        <v>10</v>
-      </c>
-      <c r="E125" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F125" t="s">
-        <v>422</v>
       </c>
       <c r="G125" t="s">
         <v>10</v>
@@ -4380,10 +4500,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
+        <v>422</v>
+      </c>
+      <c r="B126" t="s">
         <v>423</v>
-      </c>
-      <c r="B126" t="s">
-        <v>10</v>
       </c>
       <c r="C126" t="s">
         <v>424</v>
@@ -4544,19 +4664,19 @@
         <v>444</v>
       </c>
       <c r="B133" t="s">
+        <v>10</v>
+      </c>
+      <c r="C133" t="s">
         <v>445</v>
       </c>
-      <c r="C133" t="s">
+      <c r="D133" t="s">
+        <v>10</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F133" t="s">
         <v>446</v>
-      </c>
-      <c r="D133" t="s">
-        <v>10</v>
-      </c>
-      <c r="E133" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F133" t="s">
-        <v>447</v>
       </c>
       <c r="G133" t="s">
         <v>10</v>
@@ -4564,10 +4684,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
+        <v>447</v>
+      </c>
+      <c r="B134" t="s">
         <v>448</v>
-      </c>
-      <c r="B134" t="s">
-        <v>10</v>
       </c>
       <c r="C134" t="s">
         <v>449</v>
@@ -4582,6 +4702,236 @@
         <v>450</v>
       </c>
       <c r="G134" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>451</v>
+      </c>
+      <c r="B135" t="s">
+        <v>10</v>
+      </c>
+      <c r="C135" t="s">
+        <v>452</v>
+      </c>
+      <c r="D135" t="s">
+        <v>10</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F135" t="s">
+        <v>453</v>
+      </c>
+      <c r="G135" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>454</v>
+      </c>
+      <c r="B136" t="s">
+        <v>10</v>
+      </c>
+      <c r="C136" t="s">
+        <v>455</v>
+      </c>
+      <c r="D136" t="s">
+        <v>10</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F136" t="s">
+        <v>456</v>
+      </c>
+      <c r="G136" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>457</v>
+      </c>
+      <c r="B137" t="s">
+        <v>458</v>
+      </c>
+      <c r="C137" t="s">
+        <v>10</v>
+      </c>
+      <c r="D137" t="s">
+        <v>10</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F137" t="s">
+        <v>459</v>
+      </c>
+      <c r="G137" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>460</v>
+      </c>
+      <c r="B138" t="s">
+        <v>10</v>
+      </c>
+      <c r="C138" t="s">
+        <v>461</v>
+      </c>
+      <c r="D138" t="s">
+        <v>10</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F138" t="s">
+        <v>462</v>
+      </c>
+      <c r="G138" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>463</v>
+      </c>
+      <c r="B139" t="s">
+        <v>464</v>
+      </c>
+      <c r="C139" t="s">
+        <v>465</v>
+      </c>
+      <c r="D139" t="s">
+        <v>10</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F139" t="s">
+        <v>466</v>
+      </c>
+      <c r="G139" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>467</v>
+      </c>
+      <c r="B140" t="s">
+        <v>468</v>
+      </c>
+      <c r="C140" t="s">
+        <v>10</v>
+      </c>
+      <c r="D140" t="s">
+        <v>10</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F140" t="s">
+        <v>469</v>
+      </c>
+      <c r="G140" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>470</v>
+      </c>
+      <c r="B141" t="s">
+        <v>471</v>
+      </c>
+      <c r="C141" t="s">
+        <v>10</v>
+      </c>
+      <c r="D141" t="s">
+        <v>10</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F141" t="s">
+        <v>472</v>
+      </c>
+      <c r="G141" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>473</v>
+      </c>
+      <c r="B142" t="s">
+        <v>474</v>
+      </c>
+      <c r="C142" t="s">
+        <v>475</v>
+      </c>
+      <c r="D142" t="s">
+        <v>10</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F142" t="s">
+        <v>476</v>
+      </c>
+      <c r="G142" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>477</v>
+      </c>
+      <c r="B143" t="s">
+        <v>478</v>
+      </c>
+      <c r="C143" t="s">
+        <v>479</v>
+      </c>
+      <c r="D143" t="s">
+        <v>10</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F143" t="s">
+        <v>480</v>
+      </c>
+      <c r="G143" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>481</v>
+      </c>
+      <c r="B144" t="s">
+        <v>10</v>
+      </c>
+      <c r="C144" t="s">
+        <v>482</v>
+      </c>
+      <c r="D144" t="s">
+        <v>10</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F144" t="s">
+        <v>483</v>
+      </c>
+      <c r="G144" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4592,7 +4942,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4600,7 +4950,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>451</v>
+        <v>484</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
@@ -4608,7 +4958,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>452</v>
+        <v>485</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -4616,7 +4966,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>453</v>
+        <v>486</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -4624,7 +4974,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>454</v>
+        <v>487</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -4632,7 +4982,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>455</v>
+        <v>488</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -4640,7 +4990,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>456</v>
+        <v>489</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -4648,7 +4998,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>457</v>
+        <v>490</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -4656,7 +5006,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>458</v>
+        <v>491</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -4664,7 +5014,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>459</v>
+        <v>492</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -4672,7 +5022,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>460</v>
+        <v>493</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -4680,7 +5030,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>461</v>
+        <v>494</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -4688,7 +5038,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>462</v>
+        <v>495</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -4696,7 +5046,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>463</v>
+        <v>496</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
@@ -4704,7 +5054,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>464</v>
+        <v>497</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
@@ -4712,7 +5062,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>465</v>
+        <v>498</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
@@ -4720,7 +5070,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>466</v>
+        <v>499</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
@@ -4728,7 +5078,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>467</v>
+        <v>500</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
@@ -4736,7 +5086,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>468</v>
+        <v>501</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
@@ -4744,7 +5094,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>469</v>
+        <v>502</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
@@ -4752,7 +5102,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
@@ -4760,7 +5110,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>471</v>
+        <v>504</v>
       </c>
       <c r="B21" t="s">
         <v>10</v>
@@ -4768,7 +5118,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>472</v>
+        <v>505</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
@@ -4776,7 +5126,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>473</v>
+        <v>506</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
@@ -4784,7 +5134,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>474</v>
+        <v>507</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
@@ -4792,33 +5142,89 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>475</v>
+        <v>508</v>
       </c>
       <c r="B25" t="s">
-        <v>476</v>
+        <v>509</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>477</v>
+        <v>510</v>
       </c>
       <c r="B26" t="s">
-        <v>476</v>
+        <v>509</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>478</v>
+        <v>511</v>
       </c>
       <c r="B27" t="s">
-        <v>476</v>
+        <v>509</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>479</v>
+        <v>512</v>
       </c>
       <c r="B28" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>513</v>
+      </c>
+      <c r="B29" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>514</v>
+      </c>
+      <c r="B30" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>515</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>516</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>517</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>518</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>519</v>
+      </c>
+      <c r="B35" t="s">
         <v>10</v>
       </c>
     </row>

--- a/export.xlsx
+++ b/export.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="554">
   <si>
     <t>Word</t>
   </si>
@@ -1467,6 +1467,99 @@
     <t>2021-11-20 15:12:28.779915</t>
   </si>
   <si>
+    <t>congested</t>
+  </si>
+  <si>
+    <t>crowded</t>
+  </si>
+  <si>
+    <t>2021-11-20 22:32:31.286541</t>
+  </si>
+  <si>
+    <t>swerve</t>
+  </si>
+  <si>
+    <t>change or cause to change direction abruptly</t>
+  </si>
+  <si>
+    <t>veer</t>
+  </si>
+  <si>
+    <t>2021-11-20 22:33:54.608594</t>
+  </si>
+  <si>
+    <t>magnum opus</t>
+  </si>
+  <si>
+    <t>a work of art, music, or literature that is regarded as the most important or best work that an artist, composer, or writer has produced</t>
+  </si>
+  <si>
+    <t>2021-11-20 22:36:19.119537</t>
+  </si>
+  <si>
+    <t>anticipate</t>
+  </si>
+  <si>
+    <t>expect;predict</t>
+  </si>
+  <si>
+    <t>2021-11-20 22:36:48.436207</t>
+  </si>
+  <si>
+    <t>windfall</t>
+  </si>
+  <si>
+    <t>a large amount of money that is won or received unexpectedly</t>
+  </si>
+  <si>
+    <t>2021-11-20 22:52:03.527958</t>
+  </si>
+  <si>
+    <t>cushion</t>
+  </si>
+  <si>
+    <t>pillow;protection</t>
+  </si>
+  <si>
+    <t>2021-11-20 22:53:43.81857</t>
+  </si>
+  <si>
+    <t>diligently</t>
+  </si>
+  <si>
+    <t>in a way that shows care in one's work or duties</t>
+  </si>
+  <si>
+    <t>2021-11-20 22:55:00.4924</t>
+  </si>
+  <si>
+    <t>resilience</t>
+  </si>
+  <si>
+    <t>flexibility</t>
+  </si>
+  <si>
+    <t>2021-11-20 22:56:23.511821</t>
+  </si>
+  <si>
+    <t>parable</t>
+  </si>
+  <si>
+    <t>allegory</t>
+  </si>
+  <si>
+    <t>2021-11-20 22:57:34.943717</t>
+  </si>
+  <si>
+    <t>arbitrary</t>
+  </si>
+  <si>
+    <t>random</t>
+  </si>
+  <si>
+    <t>2021-11-20 22:59:11.038374</t>
+  </si>
+  <si>
     <t>content</t>
   </si>
   <si>
@@ -1573,6 +1666,15 @@
   </si>
   <si>
     <t>If you don't set boundaries - there won't be any</t>
+  </si>
+  <si>
+    <t>Give me 6 hours to chop down a tree and I will spend the first 4 sharpening the axe</t>
+  </si>
+  <si>
+    <t>The only thing we can expect (with any great certainty) is the unexpected</t>
+  </si>
+  <si>
+    <t>To attain knowledge add things every day. To attain wisdom subtract things every day</t>
   </si>
 </sst>
 </file>
@@ -1617,7 +1719,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G144"/>
+  <dimension ref="A1:G154"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4935,6 +5037,236 @@
         <v>10</v>
       </c>
     </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>484</v>
+      </c>
+      <c r="B145" t="s">
+        <v>10</v>
+      </c>
+      <c r="C145" t="s">
+        <v>485</v>
+      </c>
+      <c r="D145" t="s">
+        <v>10</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F145" t="s">
+        <v>486</v>
+      </c>
+      <c r="G145" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>487</v>
+      </c>
+      <c r="B146" t="s">
+        <v>488</v>
+      </c>
+      <c r="C146" t="s">
+        <v>489</v>
+      </c>
+      <c r="D146" t="s">
+        <v>10</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F146" t="s">
+        <v>490</v>
+      </c>
+      <c r="G146" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>491</v>
+      </c>
+      <c r="B147" t="s">
+        <v>492</v>
+      </c>
+      <c r="C147" t="s">
+        <v>10</v>
+      </c>
+      <c r="D147" t="s">
+        <v>10</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F147" t="s">
+        <v>493</v>
+      </c>
+      <c r="G147" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>494</v>
+      </c>
+      <c r="B148" t="s">
+        <v>10</v>
+      </c>
+      <c r="C148" t="s">
+        <v>495</v>
+      </c>
+      <c r="D148" t="s">
+        <v>10</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F148" t="s">
+        <v>496</v>
+      </c>
+      <c r="G148" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>497</v>
+      </c>
+      <c r="B149" t="s">
+        <v>498</v>
+      </c>
+      <c r="C149" t="s">
+        <v>10</v>
+      </c>
+      <c r="D149" t="s">
+        <v>10</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F149" t="s">
+        <v>499</v>
+      </c>
+      <c r="G149" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>500</v>
+      </c>
+      <c r="B150" t="s">
+        <v>10</v>
+      </c>
+      <c r="C150" t="s">
+        <v>501</v>
+      </c>
+      <c r="D150" t="s">
+        <v>10</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F150" t="s">
+        <v>502</v>
+      </c>
+      <c r="G150" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>503</v>
+      </c>
+      <c r="B151" t="s">
+        <v>504</v>
+      </c>
+      <c r="C151" t="s">
+        <v>10</v>
+      </c>
+      <c r="D151" t="s">
+        <v>10</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F151" t="s">
+        <v>505</v>
+      </c>
+      <c r="G151" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>506</v>
+      </c>
+      <c r="B152" t="s">
+        <v>10</v>
+      </c>
+      <c r="C152" t="s">
+        <v>507</v>
+      </c>
+      <c r="D152" t="s">
+        <v>10</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F152" t="s">
+        <v>508</v>
+      </c>
+      <c r="G152" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>509</v>
+      </c>
+      <c r="B153" t="s">
+        <v>10</v>
+      </c>
+      <c r="C153" t="s">
+        <v>510</v>
+      </c>
+      <c r="D153" t="s">
+        <v>10</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F153" t="s">
+        <v>511</v>
+      </c>
+      <c r="G153" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>512</v>
+      </c>
+      <c r="B154" t="s">
+        <v>10</v>
+      </c>
+      <c r="C154" t="s">
+        <v>513</v>
+      </c>
+      <c r="D154" t="s">
+        <v>10</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F154" t="s">
+        <v>514</v>
+      </c>
+      <c r="G154" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -4942,7 +5274,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4950,7 +5282,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>484</v>
+        <v>515</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
@@ -4958,7 +5290,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>485</v>
+        <v>516</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -4966,7 +5298,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>486</v>
+        <v>517</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -4974,7 +5306,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>487</v>
+        <v>518</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -4982,7 +5314,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>488</v>
+        <v>519</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -4990,7 +5322,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>489</v>
+        <v>520</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -4998,7 +5330,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>490</v>
+        <v>521</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -5006,7 +5338,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>491</v>
+        <v>522</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -5014,7 +5346,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>492</v>
+        <v>523</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -5022,7 +5354,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>493</v>
+        <v>524</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -5030,7 +5362,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>494</v>
+        <v>525</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -5038,7 +5370,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>495</v>
+        <v>526</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -5046,7 +5378,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>496</v>
+        <v>527</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
@@ -5054,7 +5386,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>497</v>
+        <v>528</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
@@ -5062,7 +5394,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>498</v>
+        <v>529</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
@@ -5070,7 +5402,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>499</v>
+        <v>530</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
@@ -5078,7 +5410,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>500</v>
+        <v>531</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
@@ -5086,7 +5418,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>501</v>
+        <v>532</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
@@ -5094,7 +5426,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>502</v>
+        <v>533</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
@@ -5102,7 +5434,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>503</v>
+        <v>534</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
@@ -5110,7 +5442,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>504</v>
+        <v>535</v>
       </c>
       <c r="B21" t="s">
         <v>10</v>
@@ -5118,7 +5450,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>505</v>
+        <v>536</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
@@ -5126,7 +5458,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>506</v>
+        <v>537</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
@@ -5134,7 +5466,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>507</v>
+        <v>538</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
@@ -5142,55 +5474,55 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>508</v>
+        <v>539</v>
       </c>
       <c r="B25" t="s">
-        <v>509</v>
+        <v>540</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>510</v>
+        <v>541</v>
       </c>
       <c r="B26" t="s">
-        <v>509</v>
+        <v>540</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>511</v>
+        <v>542</v>
       </c>
       <c r="B27" t="s">
-        <v>509</v>
+        <v>540</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>512</v>
+        <v>543</v>
       </c>
       <c r="B28" t="s">
-        <v>509</v>
+        <v>540</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>513</v>
+        <v>544</v>
       </c>
       <c r="B29" t="s">
-        <v>509</v>
+        <v>540</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>514</v>
+        <v>545</v>
       </c>
       <c r="B30" t="s">
-        <v>509</v>
+        <v>540</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>515</v>
+        <v>546</v>
       </c>
       <c r="B31" t="s">
         <v>10</v>
@@ -5198,7 +5530,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>516</v>
+        <v>547</v>
       </c>
       <c r="B32" t="s">
         <v>10</v>
@@ -5206,7 +5538,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>517</v>
+        <v>548</v>
       </c>
       <c r="B33" t="s">
         <v>10</v>
@@ -5214,7 +5546,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>518</v>
+        <v>549</v>
       </c>
       <c r="B34" t="s">
         <v>10</v>
@@ -5222,9 +5554,33 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>519</v>
+        <v>550</v>
       </c>
       <c r="B35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>551</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>552</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>553</v>
+      </c>
+      <c r="B38" t="s">
         <v>10</v>
       </c>
     </row>

--- a/export.xlsx
+++ b/export.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ENGLISH" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="625">
   <si>
     <t xml:space="preserve">Word</t>
   </si>
@@ -1664,12 +1664,96 @@
     <t xml:space="preserve">2021-11-21 01:56:39.679729</t>
   </si>
   <si>
+    <t xml:space="preserve">opulent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">luxurious;wealthy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-11-21 15:33:36.099685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trait</t>
+  </si>
+  <si>
+    <t xml:space="preserve">characteristic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-11-21 15:35:43.609799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tenet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">principle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-11-21 15:37:00.336208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tempt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-11-21 15:37:54.117744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proverb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">saying</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-11-21 15:38:34.634497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">insipid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tasteless;weak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-11-21 15:40:27.314993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">startling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remarkable;surprising;astonishing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-11-21 15:41:25.484576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plateau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a state of little or no change following a period of activity or progress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-11-21 15:42:35.633005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">counterfeit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-11-21 15:44:40.04142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">repercussion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-11-21 15:45:55.726065</t>
+  </si>
+  <si>
     <t xml:space="preserve">content</t>
   </si>
   <si>
-    <t xml:space="preserve">c</t>
-  </si>
-  <si>
     <t xml:space="preserve">Without great solitude no serious work is possible</t>
   </si>
   <si>
@@ -1809,6 +1893,9 @@
   </si>
   <si>
     <t xml:space="preserve">Get the future out of your head</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clarity equals success</t>
   </si>
 </sst>
 </file>
@@ -1904,10 +1991,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G164"/>
+  <dimension ref="A1:G175"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A136" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H167" activeCellId="0" sqref="H167"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A142" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H165" activeCellId="0" sqref="H165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4224,7 +4311,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
         <v>514</v>
       </c>
@@ -4238,7 +4325,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
         <v>517</v>
       </c>
@@ -4255,7 +4342,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
         <v>521</v>
       </c>
@@ -4269,7 +4356,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
         <v>524</v>
       </c>
@@ -4286,7 +4373,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
         <v>528</v>
       </c>
@@ -4300,7 +4387,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
         <v>531</v>
       </c>
@@ -4317,7 +4404,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
         <v>535</v>
       </c>
@@ -4331,7 +4418,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
         <v>538</v>
       </c>
@@ -4345,7 +4432,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
         <v>541</v>
       </c>
@@ -4359,7 +4446,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
         <v>544</v>
       </c>
@@ -4371,6 +4458,147 @@
       </c>
       <c r="F164" s="0" t="s">
         <v>546</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="C166" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="E166" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F166" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="0" t="s">
+        <v>550</v>
+      </c>
+      <c r="C167" s="0" t="s">
+        <v>551</v>
+      </c>
+      <c r="E167" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F167" s="0" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="0" t="s">
+        <v>553</v>
+      </c>
+      <c r="C168" s="0" t="s">
+        <v>554</v>
+      </c>
+      <c r="E168" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F168" s="0" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="0" t="s">
+        <v>556</v>
+      </c>
+      <c r="C169" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="E169" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F169" s="0" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="0" t="s">
+        <v>559</v>
+      </c>
+      <c r="C170" s="0" t="s">
+        <v>560</v>
+      </c>
+      <c r="E170" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F170" s="0" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="C171" s="0" t="s">
+        <v>563</v>
+      </c>
+      <c r="E171" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F171" s="0" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="0" t="s">
+        <v>565</v>
+      </c>
+      <c r="C172" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="E172" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F172" s="0" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="0" t="s">
+        <v>568</v>
+      </c>
+      <c r="B173" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="E173" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F173" s="0" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="C174" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="E174" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F174" s="0" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="0" t="s">
+        <v>574</v>
+      </c>
+      <c r="C175" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E175" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F175" s="0" t="s">
+        <v>575</v>
       </c>
     </row>
   </sheetData>
@@ -4391,15 +4619,15 @@
   </sheetPr>
   <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K29" activeCellId="0" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>547</v>
+        <v>576</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>6</v>
@@ -4407,264 +4635,264 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>548</v>
+        <v>577</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>549</v>
+        <v>578</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>550</v>
+        <v>579</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>551</v>
+        <v>580</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>552</v>
+        <v>581</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>553</v>
+        <v>582</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>554</v>
+        <v>583</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>555</v>
+        <v>584</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>556</v>
+        <v>585</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>557</v>
+        <v>586</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>558</v>
+        <v>587</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>559</v>
+        <v>588</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>560</v>
+        <v>589</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>561</v>
+        <v>590</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>562</v>
+        <v>591</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>563</v>
+        <v>592</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>564</v>
+        <v>593</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>565</v>
+        <v>594</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>566</v>
+        <v>595</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>567</v>
+        <v>596</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>568</v>
+        <v>597</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>569</v>
+        <v>598</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>570</v>
+        <v>599</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>571</v>
+        <v>600</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>572</v>
+        <v>602</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>573</v>
+        <v>601</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>574</v>
+        <v>603</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>573</v>
+        <v>601</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>575</v>
+        <v>604</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>573</v>
+        <v>601</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>576</v>
+        <v>605</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>573</v>
+        <v>601</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>577</v>
+        <v>606</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>573</v>
+        <v>601</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>578</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>573</v>
+        <v>607</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>579</v>
+        <v>608</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>580</v>
+        <v>609</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>581</v>
+        <v>610</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>582</v>
+        <v>611</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>583</v>
+        <v>612</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>584</v>
+        <v>613</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>585</v>
+        <v>614</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>586</v>
+        <v>615</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>587</v>
+        <v>616</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>588</v>
+        <v>617</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>589</v>
-      </c>
-      <c r="B42" s="0" t="s">
-        <v>573</v>
+        <v>618</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>590</v>
+        <v>619</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>591</v>
-      </c>
-      <c r="B44" s="0" t="s">
-        <v>573</v>
+        <v>620</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>592</v>
+        <v>621</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>593</v>
-      </c>
-      <c r="B46" s="0" t="s">
-        <v>573</v>
+        <v>622</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>594</v>
+        <v>623</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>595</v>
+        <v>624</v>
       </c>
     </row>
   </sheetData>

--- a/export.xlsx
+++ b/export.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="673">
   <si>
     <t>Word</t>
   </si>
@@ -1818,6 +1818,51 @@
     <t>2021-11-22 12:41:23.881295</t>
   </si>
   <si>
+    <t>astounding</t>
+  </si>
+  <si>
+    <t>amazing;impressive;notable</t>
+  </si>
+  <si>
+    <t>2021-11-23 13:31:52.160918</t>
+  </si>
+  <si>
+    <t>tangible</t>
+  </si>
+  <si>
+    <t>real;touchable</t>
+  </si>
+  <si>
+    <t>2021-11-23 13:32:51.714678</t>
+  </si>
+  <si>
+    <t>growl</t>
+  </si>
+  <si>
+    <t>snarl;say roughly</t>
+  </si>
+  <si>
+    <t>2021-11-23 13:38:21.392315</t>
+  </si>
+  <si>
+    <t>impose</t>
+  </si>
+  <si>
+    <t>force (an unwelcome decision or ruling) on someone</t>
+  </si>
+  <si>
+    <t>2021-11-23 13:40:32.909102</t>
+  </si>
+  <si>
+    <t>revolt</t>
+  </si>
+  <si>
+    <t>rebel</t>
+  </si>
+  <si>
+    <t>2021-11-23 13:41:24.307841</t>
+  </si>
+  <si>
     <t>content</t>
   </si>
   <si>
@@ -1963,6 +2008,30 @@
   </si>
   <si>
     <t>Clarity equals success</t>
+  </si>
+  <si>
+    <t>Same habits, same results</t>
+  </si>
+  <si>
+    <t>habit</t>
+  </si>
+  <si>
+    <t>Changes that seem small and unimportant at first will compound into remarkable results if you are willing to stick with them for years</t>
+  </si>
+  <si>
+    <t>In the long run, the quality of our lives often depends on the quality of our habits</t>
+  </si>
+  <si>
+    <t>Mastery requires patience</t>
+  </si>
+  <si>
+    <t>Goals are good for setting a direction, but systems are best for making progress</t>
+  </si>
+  <si>
+    <t>True behavior change is identity change</t>
+  </si>
+  <si>
+    <t>Habits create freedom</t>
   </si>
 </sst>
 </file>
@@ -2007,7 +2076,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H181"/>
+  <dimension ref="A1:H186"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -6719,6 +6788,136 @@
         <v>11</v>
       </c>
     </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>601</v>
+      </c>
+      <c r="B182" t="s">
+        <v>11</v>
+      </c>
+      <c r="C182" t="s">
+        <v>602</v>
+      </c>
+      <c r="D182" t="s">
+        <v>11</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F182" t="s">
+        <v>603</v>
+      </c>
+      <c r="G182" t="s">
+        <v>11</v>
+      </c>
+      <c r="H182" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>604</v>
+      </c>
+      <c r="B183" t="s">
+        <v>11</v>
+      </c>
+      <c r="C183" t="s">
+        <v>605</v>
+      </c>
+      <c r="D183" t="s">
+        <v>11</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F183" t="s">
+        <v>606</v>
+      </c>
+      <c r="G183" t="s">
+        <v>11</v>
+      </c>
+      <c r="H183" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>607</v>
+      </c>
+      <c r="B184" t="s">
+        <v>11</v>
+      </c>
+      <c r="C184" t="s">
+        <v>608</v>
+      </c>
+      <c r="D184" t="s">
+        <v>11</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F184" t="s">
+        <v>609</v>
+      </c>
+      <c r="G184" t="s">
+        <v>11</v>
+      </c>
+      <c r="H184" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>610</v>
+      </c>
+      <c r="B185" t="s">
+        <v>611</v>
+      </c>
+      <c r="C185" t="s">
+        <v>11</v>
+      </c>
+      <c r="D185" t="s">
+        <v>11</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F185" t="s">
+        <v>612</v>
+      </c>
+      <c r="G185" t="s">
+        <v>11</v>
+      </c>
+      <c r="H185" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>613</v>
+      </c>
+      <c r="B186" t="s">
+        <v>11</v>
+      </c>
+      <c r="C186" t="s">
+        <v>614</v>
+      </c>
+      <c r="D186" t="s">
+        <v>11</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F186" t="s">
+        <v>615</v>
+      </c>
+      <c r="G186" t="s">
+        <v>11</v>
+      </c>
+      <c r="H186" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -6726,7 +6925,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6734,7 +6933,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
@@ -6742,7 +6941,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>602</v>
+        <v>617</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -6750,7 +6949,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>603</v>
+        <v>618</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -6758,7 +6957,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>604</v>
+        <v>619</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -6766,7 +6965,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>605</v>
+        <v>620</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -6774,7 +6973,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>606</v>
+        <v>621</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -6782,7 +6981,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>607</v>
+        <v>622</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -6790,7 +6989,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>608</v>
+        <v>623</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -6798,7 +6997,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>609</v>
+        <v>624</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -6806,7 +7005,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>610</v>
+        <v>625</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -6814,7 +7013,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>611</v>
+        <v>626</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -6822,7 +7021,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>612</v>
+        <v>627</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -6830,7 +7029,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>613</v>
+        <v>628</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -6838,7 +7037,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>614</v>
+        <v>629</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
@@ -6846,7 +7045,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>615</v>
+        <v>630</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
@@ -6854,7 +7053,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>616</v>
+        <v>631</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
@@ -6862,7 +7061,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>617</v>
+        <v>632</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
@@ -6870,7 +7069,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>618</v>
+        <v>633</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
@@ -6878,7 +7077,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>619</v>
+        <v>634</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
@@ -6886,7 +7085,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>620</v>
+        <v>635</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
@@ -6894,7 +7093,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>621</v>
+        <v>636</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
@@ -6902,7 +7101,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>622</v>
+        <v>637</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
@@ -6910,7 +7109,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>623</v>
+        <v>638</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
@@ -6918,7 +7117,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>624</v>
+        <v>639</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
@@ -6926,55 +7125,55 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>625</v>
+        <v>640</v>
       </c>
       <c r="B25" t="s">
-        <v>626</v>
+        <v>641</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>627</v>
+        <v>642</v>
       </c>
       <c r="B26" t="s">
-        <v>626</v>
+        <v>641</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>628</v>
+        <v>643</v>
       </c>
       <c r="B27" t="s">
-        <v>626</v>
+        <v>641</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>629</v>
+        <v>644</v>
       </c>
       <c r="B28" t="s">
-        <v>626</v>
+        <v>641</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>630</v>
+        <v>645</v>
       </c>
       <c r="B29" t="s">
-        <v>626</v>
+        <v>641</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>631</v>
+        <v>646</v>
       </c>
       <c r="B30" t="s">
-        <v>626</v>
+        <v>641</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>632</v>
+        <v>647</v>
       </c>
       <c r="B31" t="s">
         <v>11</v>
@@ -6982,7 +7181,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>633</v>
+        <v>648</v>
       </c>
       <c r="B32" t="s">
         <v>11</v>
@@ -6990,7 +7189,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>634</v>
+        <v>649</v>
       </c>
       <c r="B33" t="s">
         <v>11</v>
@@ -6998,7 +7197,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>635</v>
+        <v>650</v>
       </c>
       <c r="B34" t="s">
         <v>11</v>
@@ -7006,7 +7205,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>636</v>
+        <v>651</v>
       </c>
       <c r="B35" t="s">
         <v>11</v>
@@ -7014,7 +7213,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>637</v>
+        <v>652</v>
       </c>
       <c r="B36" t="s">
         <v>11</v>
@@ -7022,7 +7221,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>638</v>
+        <v>653</v>
       </c>
       <c r="B37" t="s">
         <v>11</v>
@@ -7030,7 +7229,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>639</v>
+        <v>654</v>
       </c>
       <c r="B38" t="s">
         <v>11</v>
@@ -7038,7 +7237,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>640</v>
+        <v>655</v>
       </c>
       <c r="B39" t="s">
         <v>11</v>
@@ -7046,7 +7245,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>641</v>
+        <v>656</v>
       </c>
       <c r="B40" t="s">
         <v>11</v>
@@ -7054,15 +7253,15 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>642</v>
+        <v>657</v>
       </c>
       <c r="B41" t="s">
-        <v>626</v>
+        <v>641</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>643</v>
+        <v>658</v>
       </c>
       <c r="B42" t="s">
         <v>11</v>
@@ -7070,15 +7269,15 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>644</v>
+        <v>659</v>
       </c>
       <c r="B43" t="s">
-        <v>626</v>
+        <v>641</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>645</v>
+        <v>660</v>
       </c>
       <c r="B44" t="s">
         <v>11</v>
@@ -7086,15 +7285,15 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>646</v>
+        <v>661</v>
       </c>
       <c r="B45" t="s">
-        <v>626</v>
+        <v>641</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>647</v>
+        <v>662</v>
       </c>
       <c r="B46" t="s">
         <v>11</v>
@@ -7102,7 +7301,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>648</v>
+        <v>663</v>
       </c>
       <c r="B47" t="s">
         <v>11</v>
@@ -7110,10 +7309,66 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>649</v>
+        <v>664</v>
       </c>
       <c r="B48" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>665</v>
+      </c>
+      <c r="B49" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>667</v>
+      </c>
+      <c r="B50" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>668</v>
+      </c>
+      <c r="B51" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>669</v>
+      </c>
+      <c r="B52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>670</v>
+      </c>
+      <c r="B53" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>671</v>
+      </c>
+      <c r="B54" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>672</v>
+      </c>
+      <c r="B55" t="s">
+        <v>666</v>
       </c>
     </row>
   </sheetData>

--- a/export.xlsx
+++ b/export.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1603" uniqueCount="713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1587" uniqueCount="775">
   <si>
     <t>Word</t>
   </si>
@@ -57,18 +57,21 @@
     <t>2021-10-28 00:12:08.521439</t>
   </si>
   <si>
+    <t>2021-12-02 19:59:07.98</t>
+  </si>
+  <si>
+    <t>debacle</t>
+  </si>
+  <si>
+    <t>fiasco</t>
+  </si>
+  <si>
+    <t>2021-10-28 00:20:53.145209</t>
+  </si>
+  <si>
     <t>2021-11-29 22:02:08.443</t>
   </si>
   <si>
-    <t>debacle</t>
-  </si>
-  <si>
-    <t>fiasco</t>
-  </si>
-  <si>
-    <t>2021-10-28 00:20:53.145209</t>
-  </si>
-  <si>
     <t>viral</t>
   </si>
   <si>
@@ -84,6 +87,9 @@
     <t>2021-10-28 00:22:11.142228</t>
   </si>
   <si>
+    <t>2021-12-02 19:58:24.804</t>
+  </si>
+  <si>
     <t>contagious</t>
   </si>
   <si>
@@ -93,6 +99,9 @@
     <t>2021-10-28 00:23:13.403033</t>
   </si>
   <si>
+    <t>2021-12-02 19:58:59.801</t>
+  </si>
+  <si>
     <t>tame</t>
   </si>
   <si>
@@ -153,6 +162,9 @@
     <t>2021-10-28 00:28:31.456496</t>
   </si>
   <si>
+    <t>2021-12-02 19:59:04.181</t>
+  </si>
+  <si>
     <t>imminent</t>
   </si>
   <si>
@@ -447,6 +459,9 @@
     <t>2021-11-08 14:34:59.677307</t>
   </si>
   <si>
+    <t>2021-12-02 19:58:50.021</t>
+  </si>
+  <si>
     <t>alienate</t>
   </si>
   <si>
@@ -774,16 +789,7 @@
     <t>2021-11-08 16:07:56.923287</t>
   </si>
   <si>
-    <t>ingrained</t>
-  </si>
-  <si>
-    <t>firmly fixed or established (of a habit, belief or attitude); difficult to change</t>
-  </si>
-  <si>
-    <t>entrenched;ground-in</t>
-  </si>
-  <si>
-    <t>2021-11-08 16:09:44.13743</t>
+    <t>2021-12-02 19:51:25.595</t>
   </si>
   <si>
     <t>mores</t>
@@ -798,6 +804,9 @@
     <t>2021-11-08 16:10:45.900718</t>
   </si>
   <si>
+    <t>2021-12-02 19:51:56.442</t>
+  </si>
+  <si>
     <t>compelling</t>
   </si>
   <si>
@@ -810,7 +819,10 @@
     <t>2021-11-13 15:27:25.556179</t>
   </si>
   <si>
-    <t>disentabgle</t>
+    <t>2021-12-02 19:51:41.761</t>
+  </si>
+  <si>
+    <t>disentangle</t>
   </si>
   <si>
     <t>free from something that they are entangled with</t>
@@ -822,6 +834,9 @@
     <t>2021-11-13 15:29:33.972408</t>
   </si>
   <si>
+    <t>2021-12-02 19:51:16.556</t>
+  </si>
+  <si>
     <t>extricate</t>
   </si>
   <si>
@@ -840,6 +855,9 @@
     <t>2021-11-13 15:29:55.578418</t>
   </si>
   <si>
+    <t>2021-12-02 19:51:21.102</t>
+  </si>
+  <si>
     <t>pervade</t>
   </si>
   <si>
@@ -858,6 +876,9 @@
     <t>2021-11-13 15:31:54.227471</t>
   </si>
   <si>
+    <t>2021-12-02 19:51:02.096</t>
+  </si>
+  <si>
     <t>germinate</t>
   </si>
   <si>
@@ -867,6 +888,9 @@
     <t>2021-11-14 00:23:07.169482</t>
   </si>
   <si>
+    <t>2021-12-02 19:51:28.312</t>
+  </si>
+  <si>
     <t>inquisitive</t>
   </si>
   <si>
@@ -876,6 +900,9 @@
     <t>2021-11-14 00:23:37.831738</t>
   </si>
   <si>
+    <t>2021-12-02 19:51:08.588</t>
+  </si>
+  <si>
     <t>attuned</t>
   </si>
   <si>
@@ -885,10 +912,7 @@
     <t>2021-11-14 00:24:15.599334</t>
   </si>
   <si>
-    <t>novelty</t>
-  </si>
-  <si>
-    <t>2021-11-14 00:24:43.752871</t>
+    <t>2021-12-02 19:52:03.67</t>
   </si>
   <si>
     <t>instigate</t>
@@ -900,6 +924,9 @@
     <t>2021-11-14 00:25:37.291554</t>
   </si>
   <si>
+    <t>2021-12-02 19:54:19.552</t>
+  </si>
+  <si>
     <t>erratic</t>
   </si>
   <si>
@@ -909,6 +936,9 @@
     <t>2021-11-14 16:37:51.305571</t>
   </si>
   <si>
+    <t>2021-12-02 19:54:28.42</t>
+  </si>
+  <si>
     <t>entail</t>
   </si>
   <si>
@@ -921,6 +951,9 @@
     <t>2021-11-14 16:39:12.99207</t>
   </si>
   <si>
+    <t>2021-12-02 19:54:22.74</t>
+  </si>
+  <si>
     <t>disengage</t>
   </si>
   <si>
@@ -930,6 +963,9 @@
     <t>2021-11-14 16:45:31.492612</t>
   </si>
   <si>
+    <t>2021-12-02 19:53:45.586</t>
+  </si>
+  <si>
     <t>recuperation</t>
   </si>
   <si>
@@ -942,6 +978,9 @@
     <t>2021-11-14 16:46:27.758408</t>
   </si>
   <si>
+    <t>2021-12-02 19:53:51.45</t>
+  </si>
+  <si>
     <t>nurture</t>
   </si>
   <si>
@@ -954,6 +993,9 @@
     <t>2021-11-14 16:48:04.864399</t>
   </si>
   <si>
+    <t>2021-12-02 19:53:29.374</t>
+  </si>
+  <si>
     <t>fatigue</t>
   </si>
   <si>
@@ -963,6 +1005,9 @@
     <t>2021-11-14 20:15:38.955425</t>
   </si>
   <si>
+    <t>2021-12-02 19:54:03.999</t>
+  </si>
+  <si>
     <t>cumulatively</t>
   </si>
   <si>
@@ -981,6 +1026,9 @@
     <t>2021-11-14 20:17:00.34091</t>
   </si>
   <si>
+    <t>2021-12-02 19:53:34.055</t>
+  </si>
+  <si>
     <t>pernicious</t>
   </si>
   <si>
@@ -990,6 +1038,9 @@
     <t>2021-11-14 20:17:55.875123</t>
   </si>
   <si>
+    <t>2021-12-02 19:54:33.522</t>
+  </si>
+  <si>
     <t>liken</t>
   </si>
   <si>
@@ -1002,6 +1053,9 @@
     <t>2021-11-14 20:18:50.405149</t>
   </si>
   <si>
+    <t>2021-12-02 19:56:19.588</t>
+  </si>
+  <si>
     <t>machismo</t>
   </si>
   <si>
@@ -1023,6 +1077,9 @@
     <t>2021-11-15 14:50:45.332093</t>
   </si>
   <si>
+    <t>2021-12-02 19:56:30.438</t>
+  </si>
+  <si>
     <t>commodity</t>
   </si>
   <si>
@@ -1032,6 +1089,9 @@
     <t>2021-11-15 14:51:17.949615</t>
   </si>
   <si>
+    <t>2021-12-02 19:56:35.585</t>
+  </si>
+  <si>
     <t>deride</t>
   </si>
   <si>
@@ -1044,6 +1104,9 @@
     <t>2021-11-15 14:51:56.068144</t>
   </si>
   <si>
+    <t>2021-12-02 19:56:32.674</t>
+  </si>
+  <si>
     <t>wimpish</t>
   </si>
   <si>
@@ -1065,6 +1128,9 @@
     <t>2021-11-15 14:53:45.152971</t>
   </si>
   <si>
+    <t>2021-12-02 19:56:05.196</t>
+  </si>
+  <si>
     <t>discerning</t>
   </si>
   <si>
@@ -1086,6 +1152,9 @@
     <t>2021-11-15 14:55:50.807842</t>
   </si>
   <si>
+    <t>2021-12-02 19:56:09.497</t>
+  </si>
+  <si>
     <t>utter</t>
   </si>
   <si>
@@ -1095,6 +1164,9 @@
     <t>2021-11-15 14:56:38.984503</t>
   </si>
   <si>
+    <t>2021-12-02 19:55:52.268</t>
+  </si>
+  <si>
     <t>conviction</t>
   </si>
   <si>
@@ -1104,6 +1176,9 @@
     <t>2021-11-15 14:57:11.455154</t>
   </si>
   <si>
+    <t>2021-12-02 19:56:25.531</t>
+  </si>
+  <si>
     <t>unenviable</t>
   </si>
   <si>
@@ -1113,6 +1188,9 @@
     <t>2021-11-16 12:53:53.320239</t>
   </si>
   <si>
+    <t>2021-12-02 19:55:56.729</t>
+  </si>
+  <si>
     <t>vigilant</t>
   </si>
   <si>
@@ -1122,6 +1200,9 @@
     <t>2021-11-16 12:54:22.449368</t>
   </si>
   <si>
+    <t>2021-12-02 19:56:38.304</t>
+  </si>
+  <si>
     <t>amplify</t>
   </si>
   <si>
@@ -1131,6 +1212,9 @@
     <t>2021-11-16 12:54:56.705918</t>
   </si>
   <si>
+    <t>2021-12-02 19:58:20.684</t>
+  </si>
+  <si>
     <t>notorious</t>
   </si>
   <si>
@@ -1143,6 +1227,9 @@
     <t>2021-11-16 12:55:49.850794</t>
   </si>
   <si>
+    <t>2021-12-02 19:49:49.379</t>
+  </si>
+  <si>
     <t>epitomize</t>
   </si>
   <si>
@@ -1152,6 +1239,9 @@
     <t>2021-11-16 12:56:33.27447</t>
   </si>
   <si>
+    <t>2021-12-02 19:48:49.207</t>
+  </si>
+  <si>
     <t>rigorous</t>
   </si>
   <si>
@@ -1164,6 +1254,9 @@
     <t>2021-11-16 12:57:47.829373</t>
   </si>
   <si>
+    <t>2021-12-02 19:49:22.629</t>
+  </si>
+  <si>
     <t>weed out</t>
   </si>
   <si>
@@ -1173,6 +1266,9 @@
     <t>2021-11-16 12:59:23.223598</t>
   </si>
   <si>
+    <t>2021-12-02 19:49:13.442</t>
+  </si>
+  <si>
     <t>debrief</t>
   </si>
   <si>
@@ -1185,6 +1281,9 @@
     <t>2021-11-16 13:00:53.826091</t>
   </si>
   <si>
+    <t>2021-12-02 19:48:43.586</t>
+  </si>
+  <si>
     <t>infraction</t>
   </si>
   <si>
@@ -1197,6 +1296,9 @@
     <t>2021-11-16 13:01:47.533568</t>
   </si>
   <si>
+    <t>2021-12-02 19:49:03.556</t>
+  </si>
+  <si>
     <t>capricious</t>
   </si>
   <si>
@@ -1209,6 +1311,9 @@
     <t>2021-11-17 12:54:04.61041</t>
   </si>
   <si>
+    <t>2021-12-02 19:49:42.747</t>
+  </si>
+  <si>
     <t>pristine</t>
   </si>
   <si>
@@ -1221,6 +1326,9 @@
     <t>2021-11-17 12:55:22.227387</t>
   </si>
   <si>
+    <t>2021-12-02 19:48:54.982</t>
+  </si>
+  <si>
     <t>acquaintance</t>
   </si>
   <si>
@@ -1233,6 +1341,9 @@
     <t>2021-11-17 12:56:43.051773</t>
   </si>
   <si>
+    <t>2021-12-02 19:49:35.834</t>
+  </si>
+  <si>
     <t>nagging</t>
   </si>
   <si>
@@ -1245,6 +1356,9 @@
     <t>2021-11-17 12:57:41.915746</t>
   </si>
   <si>
+    <t>2021-12-02 19:49:27.476</t>
+  </si>
+  <si>
     <t>reluctance</t>
   </si>
   <si>
@@ -1254,6 +1368,9 @@
     <t>2021-11-17 12:58:17.961835</t>
   </si>
   <si>
+    <t>2021-12-02 19:58:30.635</t>
+  </si>
+  <si>
     <t>deteriorate</t>
   </si>
   <si>
@@ -1263,6 +1380,9 @@
     <t>2021-11-17 12:59:50.892102</t>
   </si>
   <si>
+    <t>2021-12-02 19:58:40.627</t>
+  </si>
+  <si>
     <t>intangible</t>
   </si>
   <si>
@@ -1275,6 +1395,9 @@
     <t>2021-11-17 13:02:02.352458</t>
   </si>
   <si>
+    <t>2021-12-02 19:58:46.962</t>
+  </si>
+  <si>
     <t>derail</t>
   </si>
   <si>
@@ -1293,6 +1416,9 @@
     <t>2021-11-17 13:03:36.470743</t>
   </si>
   <si>
+    <t>2021-12-02 19:59:11.909</t>
+  </si>
+  <si>
     <t>rhetoric</t>
   </si>
   <si>
@@ -1302,6 +1428,9 @@
     <t>2021-11-17 13:05:11.821048</t>
   </si>
   <si>
+    <t>2021-12-02 20:00:12.76</t>
+  </si>
+  <si>
     <t>resentment</t>
   </si>
   <si>
@@ -1311,6 +1440,9 @@
     <t>2021-11-18 13:38:55.766952</t>
   </si>
   <si>
+    <t>2021-12-02 20:00:30.104</t>
+  </si>
+  <si>
     <t>coalesce</t>
   </si>
   <si>
@@ -1323,6 +1455,9 @@
     <t>2021-11-18 13:39:52.321676</t>
   </si>
   <si>
+    <t>2021-12-02 20:00:20.665</t>
+  </si>
+  <si>
     <t>timid</t>
   </si>
   <si>
@@ -1332,6 +1467,9 @@
     <t>2021-11-18 13:40:17.759858</t>
   </si>
   <si>
+    <t>2021-12-02 20:00:26.117</t>
+  </si>
+  <si>
     <t>reverberation</t>
   </si>
   <si>
@@ -1344,6 +1482,9 @@
     <t>2021-11-18 13:41:26.98325</t>
   </si>
   <si>
+    <t>2021-12-02 20:00:03.96</t>
+  </si>
+  <si>
     <t>imprisonment</t>
   </si>
   <si>
@@ -1353,6 +1494,9 @@
     <t>2021-11-18 13:42:08.650617</t>
   </si>
   <si>
+    <t>2021-12-02 19:59:43.174</t>
+  </si>
+  <si>
     <t>convention</t>
   </si>
   <si>
@@ -1362,6 +1506,9 @@
     <t>2021-11-18 13:44:21.614304</t>
   </si>
   <si>
+    <t>2021-12-02 19:59:57.413</t>
+  </si>
+  <si>
     <t>crestfallen</t>
   </si>
   <si>
@@ -1371,6 +1518,9 @@
     <t>2021-11-18 13:45:08.281708</t>
   </si>
   <si>
+    <t>2021-12-02 19:59:49.754</t>
+  </si>
+  <si>
     <t>innate</t>
   </si>
   <si>
@@ -1380,6 +1530,9 @@
     <t>2021-11-18 13:46:56.18276</t>
   </si>
   <si>
+    <t>2021-12-02 19:59:36.751</t>
+  </si>
+  <si>
     <t>muddle</t>
   </si>
   <si>
@@ -1389,6 +1542,9 @@
     <t>2021-11-18 13:47:26.716003</t>
   </si>
   <si>
+    <t>2021-12-02 20:00:34.93</t>
+  </si>
+  <si>
     <t>resolutely</t>
   </si>
   <si>
@@ -1410,6 +1566,9 @@
     <t>2021-11-19 14:55:33.586839</t>
   </si>
   <si>
+    <t>2021-12-02 20:01:34.597</t>
+  </si>
+  <si>
     <t>imply</t>
   </si>
   <si>
@@ -1419,6 +1578,9 @@
     <t>2021-11-19 14:57:05.730899</t>
   </si>
   <si>
+    <t>2021-12-02 20:01:51.904</t>
+  </si>
+  <si>
     <t>repertoire</t>
   </si>
   <si>
@@ -1428,6 +1590,9 @@
     <t>2021-11-19 14:58:23.341937</t>
   </si>
   <si>
+    <t>2021-12-02 20:01:43.694</t>
+  </si>
+  <si>
     <t>grapple</t>
   </si>
   <si>
@@ -1437,6 +1602,9 @@
     <t>2021-11-19 14:58:56.252166</t>
   </si>
   <si>
+    <t>2021-12-02 20:01:49.393</t>
+  </si>
+  <si>
     <t>jettison</t>
   </si>
   <si>
@@ -1446,6 +1614,9 @@
     <t>2021-11-19 14:59:39.036777</t>
   </si>
   <si>
+    <t>2021-12-02 20:01:30.388</t>
+  </si>
+  <si>
     <t>recoup</t>
   </si>
   <si>
@@ -1455,6 +1626,9 @@
     <t>2021-11-19 15:00:14.859709</t>
   </si>
   <si>
+    <t>2021-12-02 20:01:17.69</t>
+  </si>
+  <si>
     <t>expenditure</t>
   </si>
   <si>
@@ -1464,6 +1638,9 @@
     <t>2021-11-19 15:00:41.954759</t>
   </si>
   <si>
+    <t>2021-12-02 20:01:23.755</t>
+  </si>
+  <si>
     <t>miniscule</t>
   </si>
   <si>
@@ -1473,6 +1650,9 @@
     <t>2021-11-19 15:01:03.42439</t>
   </si>
   <si>
+    <t>2021-12-02 20:01:20.514</t>
+  </si>
+  <si>
     <t>abound</t>
   </si>
   <si>
@@ -1485,6 +1665,9 @@
     <t>2021-11-19 15:02:28.710041</t>
   </si>
   <si>
+    <t>2021-12-02 20:01:12.612</t>
+  </si>
+  <si>
     <t>plod</t>
   </si>
   <si>
@@ -1492,6 +1675,9 @@
   </si>
   <si>
     <t>2021-11-19 15:04:55.573824</t>
+  </si>
+  <si>
+    <t>2021-12-02 20:01:56.169</t>
   </si>
   <si>
     <t>restrained</t>
@@ -2196,7 +2382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I186"/>
+  <dimension ref="A1:I184"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2286,47 +2472,47 @@
         <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" t="s">
         <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -2335,7 +2521,7 @@
         <v>0.0</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s">
         <v>12</v>
@@ -2344,27 +2530,27 @@
         <v>12</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G6" t="s">
         <v>12</v>
@@ -2373,18 +2559,18 @@
         <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -2393,7 +2579,7 @@
         <v>0.0</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s">
         <v>12</v>
@@ -2402,18 +2588,18 @@
         <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -2422,7 +2608,7 @@
         <v>0.0</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G8" t="s">
         <v>12</v>
@@ -2431,18 +2617,18 @@
         <v>12</v>
       </c>
       <c r="I8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -2451,7 +2637,7 @@
         <v>0.0</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G9" t="s">
         <v>12</v>
@@ -2460,18 +2646,18 @@
         <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -2480,7 +2666,7 @@
         <v>0.0</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G10" t="s">
         <v>12</v>
@@ -2489,27 +2675,27 @@
         <v>12</v>
       </c>
       <c r="I10" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G11" t="s">
         <v>12</v>
@@ -2518,18 +2704,18 @@
         <v>12</v>
       </c>
       <c r="I11" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
@@ -2538,7 +2724,7 @@
         <v>1.0</v>
       </c>
       <c r="F12" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G12" t="s">
         <v>12</v>
@@ -2547,18 +2733,18 @@
         <v>12</v>
       </c>
       <c r="I12" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
@@ -2567,7 +2753,7 @@
         <v>0.0</v>
       </c>
       <c r="F13" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G13" t="s">
         <v>12</v>
@@ -2576,18 +2762,18 @@
         <v>12</v>
       </c>
       <c r="I13" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
@@ -2596,7 +2782,7 @@
         <v>1.0</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G14" t="s">
         <v>12</v>
@@ -2605,18 +2791,18 @@
         <v>12</v>
       </c>
       <c r="I14" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D15" t="s">
         <v>12</v>
@@ -2625,7 +2811,7 @@
         <v>1.0</v>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G15" t="s">
         <v>12</v>
@@ -2634,18 +2820,18 @@
         <v>12</v>
       </c>
       <c r="I15" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
@@ -2654,7 +2840,7 @@
         <v>1.0</v>
       </c>
       <c r="F16" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G16" t="s">
         <v>12</v>
@@ -2663,18 +2849,18 @@
         <v>12</v>
       </c>
       <c r="I16" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
@@ -2683,7 +2869,7 @@
         <v>1.0</v>
       </c>
       <c r="F17" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G17" t="s">
         <v>12</v>
@@ -2692,18 +2878,18 @@
         <v>12</v>
       </c>
       <c r="I17" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C18" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
@@ -2712,7 +2898,7 @@
         <v>0.0</v>
       </c>
       <c r="F18" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G18" t="s">
         <v>12</v>
@@ -2721,18 +2907,18 @@
         <v>12</v>
       </c>
       <c r="I18" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B19" t="s">
         <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
@@ -2741,7 +2927,7 @@
         <v>1.0</v>
       </c>
       <c r="F19" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G19" t="s">
         <v>12</v>
@@ -2750,15 +2936,15 @@
         <v>12</v>
       </c>
       <c r="I19" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B20" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C20" t="s">
         <v>12</v>
@@ -2770,7 +2956,7 @@
         <v>0.0</v>
       </c>
       <c r="F20" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G20" t="s">
         <v>12</v>
@@ -2779,15 +2965,15 @@
         <v>12</v>
       </c>
       <c r="I20" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C21" t="s">
         <v>12</v>
@@ -2799,7 +2985,7 @@
         <v>0.0</v>
       </c>
       <c r="F21" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G21" t="s">
         <v>12</v>
@@ -2808,15 +2994,15 @@
         <v>12</v>
       </c>
       <c r="I21" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C22" t="s">
         <v>12</v>
@@ -2828,7 +3014,7 @@
         <v>0.0</v>
       </c>
       <c r="F22" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G22" t="s">
         <v>12</v>
@@ -2837,18 +3023,18 @@
         <v>12</v>
       </c>
       <c r="I22" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B23" t="s">
         <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D23" t="s">
         <v>12</v>
@@ -2857,7 +3043,7 @@
         <v>1.0</v>
       </c>
       <c r="F23" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G23" t="s">
         <v>12</v>
@@ -2866,18 +3052,18 @@
         <v>12</v>
       </c>
       <c r="I23" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B24" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C24" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
@@ -2886,7 +3072,7 @@
         <v>1.0</v>
       </c>
       <c r="F24" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G24" t="s">
         <v>12</v>
@@ -2895,18 +3081,18 @@
         <v>12</v>
       </c>
       <c r="I24" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B25" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C25" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D25" t="s">
         <v>12</v>
@@ -2915,7 +3101,7 @@
         <v>1.0</v>
       </c>
       <c r="F25" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G25" t="s">
         <v>12</v>
@@ -2924,18 +3110,18 @@
         <v>12</v>
       </c>
       <c r="I25" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B26" t="s">
         <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D26" t="s">
         <v>12</v>
@@ -2944,7 +3130,7 @@
         <v>1.0</v>
       </c>
       <c r="F26" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G26" t="s">
         <v>12</v>
@@ -2953,18 +3139,18 @@
         <v>12</v>
       </c>
       <c r="I26" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B27" t="s">
         <v>12</v>
       </c>
       <c r="C27" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D27" t="s">
         <v>12</v>
@@ -2973,7 +3159,7 @@
         <v>1.0</v>
       </c>
       <c r="F27" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G27" t="s">
         <v>12</v>
@@ -2982,18 +3168,18 @@
         <v>12</v>
       </c>
       <c r="I27" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B28" t="s">
         <v>12</v>
       </c>
       <c r="C28" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D28" t="s">
         <v>12</v>
@@ -3002,7 +3188,7 @@
         <v>0.0</v>
       </c>
       <c r="F28" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G28" t="s">
         <v>12</v>
@@ -3011,18 +3197,18 @@
         <v>12</v>
       </c>
       <c r="I28" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B29" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C29" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D29" t="s">
         <v>12</v>
@@ -3031,7 +3217,7 @@
         <v>1.0</v>
       </c>
       <c r="F29" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G29" t="s">
         <v>12</v>
@@ -3040,18 +3226,18 @@
         <v>12</v>
       </c>
       <c r="I29" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B30" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C30" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D30" t="s">
         <v>12</v>
@@ -3060,7 +3246,7 @@
         <v>1.0</v>
       </c>
       <c r="F30" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G30" t="s">
         <v>12</v>
@@ -3069,18 +3255,18 @@
         <v>12</v>
       </c>
       <c r="I30" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B31" t="s">
         <v>12</v>
       </c>
       <c r="C31" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D31" t="s">
         <v>12</v>
@@ -3089,7 +3275,7 @@
         <v>1.0</v>
       </c>
       <c r="F31" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G31" t="s">
         <v>12</v>
@@ -3098,15 +3284,15 @@
         <v>12</v>
       </c>
       <c r="I31" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B32" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C32" t="s">
         <v>12</v>
@@ -3118,7 +3304,7 @@
         <v>0.0</v>
       </c>
       <c r="F32" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G32" t="s">
         <v>12</v>
@@ -3127,18 +3313,18 @@
         <v>12</v>
       </c>
       <c r="I32" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B33" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C33" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D33" t="s">
         <v>12</v>
@@ -3147,7 +3333,7 @@
         <v>0.0</v>
       </c>
       <c r="F33" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G33" t="s">
         <v>12</v>
@@ -3156,18 +3342,18 @@
         <v>12</v>
       </c>
       <c r="I33" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B34" t="s">
         <v>12</v>
       </c>
       <c r="C34" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D34" t="s">
         <v>12</v>
@@ -3176,7 +3362,7 @@
         <v>1.0</v>
       </c>
       <c r="F34" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G34" t="s">
         <v>12</v>
@@ -3185,18 +3371,18 @@
         <v>12</v>
       </c>
       <c r="I34" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B35" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C35" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D35" t="s">
         <v>12</v>
@@ -3205,7 +3391,7 @@
         <v>1.0</v>
       </c>
       <c r="F35" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G35" t="s">
         <v>12</v>
@@ -3214,27 +3400,27 @@
         <v>12</v>
       </c>
       <c r="I35" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B36" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C36" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D36" t="s">
         <v>12</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F36" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G36" t="s">
         <v>12</v>
@@ -3243,18 +3429,18 @@
         <v>12</v>
       </c>
       <c r="I36" t="s">
-        <v>14</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B37" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C37" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D37" t="s">
         <v>12</v>
@@ -3263,7 +3449,7 @@
         <v>0.0</v>
       </c>
       <c r="F37" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G37" t="s">
         <v>12</v>
@@ -3272,18 +3458,18 @@
         <v>12</v>
       </c>
       <c r="I37" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B38" t="s">
         <v>12</v>
       </c>
       <c r="C38" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D38" t="s">
         <v>12</v>
@@ -3292,7 +3478,7 @@
         <v>1.0</v>
       </c>
       <c r="F38" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="G38" t="s">
         <v>12</v>
@@ -3301,18 +3487,18 @@
         <v>12</v>
       </c>
       <c r="I38" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B39" t="s">
         <v>12</v>
       </c>
       <c r="C39" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D39" t="s">
         <v>12</v>
@@ -3321,7 +3507,7 @@
         <v>0.0</v>
       </c>
       <c r="F39" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="G39" t="s">
         <v>12</v>
@@ -3330,18 +3516,18 @@
         <v>12</v>
       </c>
       <c r="I39" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B40" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C40" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D40" t="s">
         <v>12</v>
@@ -3350,7 +3536,7 @@
         <v>0.0</v>
       </c>
       <c r="F40" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="G40" t="s">
         <v>12</v>
@@ -3359,18 +3545,18 @@
         <v>12</v>
       </c>
       <c r="I40" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B41" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C41" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D41" t="s">
         <v>12</v>
@@ -3379,7 +3565,7 @@
         <v>0.0</v>
       </c>
       <c r="F41" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="G41" t="s">
         <v>12</v>
@@ -3388,15 +3574,15 @@
         <v>12</v>
       </c>
       <c r="I41" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B42" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C42" t="s">
         <v>12</v>
@@ -3408,7 +3594,7 @@
         <v>0.0</v>
       </c>
       <c r="F42" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G42" t="s">
         <v>12</v>
@@ -3417,18 +3603,18 @@
         <v>12</v>
       </c>
       <c r="I42" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B43" t="s">
         <v>12</v>
       </c>
       <c r="C43" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="D43" t="s">
         <v>12</v>
@@ -3437,7 +3623,7 @@
         <v>0.0</v>
       </c>
       <c r="F43" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="G43" t="s">
         <v>12</v>
@@ -3446,18 +3632,18 @@
         <v>12</v>
       </c>
       <c r="I43" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B44" t="s">
         <v>12</v>
       </c>
       <c r="C44" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D44" t="s">
         <v>12</v>
@@ -3466,7 +3652,7 @@
         <v>0.0</v>
       </c>
       <c r="F44" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="G44" t="s">
         <v>12</v>
@@ -3475,15 +3661,15 @@
         <v>12</v>
       </c>
       <c r="I44" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B45" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C45" t="s">
         <v>12</v>
@@ -3495,7 +3681,7 @@
         <v>0.0</v>
       </c>
       <c r="F45" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="G45" t="s">
         <v>12</v>
@@ -3504,15 +3690,15 @@
         <v>12</v>
       </c>
       <c r="I45" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B46" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C46" t="s">
         <v>12</v>
@@ -3524,7 +3710,7 @@
         <v>0.0</v>
       </c>
       <c r="F46" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="G46" t="s">
         <v>12</v>
@@ -3533,18 +3719,18 @@
         <v>12</v>
       </c>
       <c r="I46" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B47" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C47" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="D47" t="s">
         <v>12</v>
@@ -3553,7 +3739,7 @@
         <v>1.0</v>
       </c>
       <c r="F47" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="G47" t="s">
         <v>12</v>
@@ -3562,18 +3748,18 @@
         <v>12</v>
       </c>
       <c r="I47" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B48" t="s">
         <v>12</v>
       </c>
       <c r="C48" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="D48" t="s">
         <v>12</v>
@@ -3582,7 +3768,7 @@
         <v>0.0</v>
       </c>
       <c r="F48" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="G48" t="s">
         <v>12</v>
@@ -3591,18 +3777,18 @@
         <v>12</v>
       </c>
       <c r="I48" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B49" t="s">
         <v>12</v>
       </c>
       <c r="C49" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="D49" t="s">
         <v>12</v>
@@ -3611,7 +3797,7 @@
         <v>0.0</v>
       </c>
       <c r="F49" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="G49" t="s">
         <v>12</v>
@@ -3620,15 +3806,15 @@
         <v>12</v>
       </c>
       <c r="I49" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B50" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C50" t="s">
         <v>12</v>
@@ -3640,7 +3826,7 @@
         <v>0.0</v>
       </c>
       <c r="F50" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="G50" t="s">
         <v>12</v>
@@ -3649,18 +3835,18 @@
         <v>12</v>
       </c>
       <c r="I50" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B51" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C51" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="D51" t="s">
         <v>12</v>
@@ -3669,7 +3855,7 @@
         <v>0.0</v>
       </c>
       <c r="F51" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="G51" t="s">
         <v>12</v>
@@ -3678,18 +3864,18 @@
         <v>12</v>
       </c>
       <c r="I51" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B52" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C52" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D52" t="s">
         <v>12</v>
@@ -3698,7 +3884,7 @@
         <v>0.0</v>
       </c>
       <c r="F52" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="G52" t="s">
         <v>12</v>
@@ -3707,18 +3893,18 @@
         <v>12</v>
       </c>
       <c r="I52" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B53" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C53" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="D53" t="s">
         <v>12</v>
@@ -3727,7 +3913,7 @@
         <v>1.0</v>
       </c>
       <c r="F53" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="G53" t="s">
         <v>12</v>
@@ -3736,15 +3922,15 @@
         <v>12</v>
       </c>
       <c r="I53" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B54" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C54" t="s">
         <v>12</v>
@@ -3756,7 +3942,7 @@
         <v>0.0</v>
       </c>
       <c r="F54" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="G54" t="s">
         <v>12</v>
@@ -3765,18 +3951,18 @@
         <v>12</v>
       </c>
       <c r="I54" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B55" t="s">
         <v>12</v>
       </c>
       <c r="C55" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="D55" t="s">
         <v>12</v>
@@ -3785,7 +3971,7 @@
         <v>0.0</v>
       </c>
       <c r="F55" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="G55" t="s">
         <v>12</v>
@@ -3794,15 +3980,15 @@
         <v>12</v>
       </c>
       <c r="I55" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B56" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C56" t="s">
         <v>12</v>
@@ -3814,7 +4000,7 @@
         <v>0.0</v>
       </c>
       <c r="F56" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="G56" t="s">
         <v>12</v>
@@ -3823,18 +4009,18 @@
         <v>12</v>
       </c>
       <c r="I56" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B57" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C57" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="D57" t="s">
         <v>12</v>
@@ -3843,7 +4029,7 @@
         <v>0.0</v>
       </c>
       <c r="F57" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="G57" t="s">
         <v>12</v>
@@ -3852,15 +4038,15 @@
         <v>12</v>
       </c>
       <c r="I57" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B58" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C58" t="s">
         <v>12</v>
@@ -3872,7 +4058,7 @@
         <v>0.0</v>
       </c>
       <c r="F58" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="G58" t="s">
         <v>12</v>
@@ -3881,18 +4067,18 @@
         <v>12</v>
       </c>
       <c r="I58" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="B59" t="s">
         <v>12</v>
       </c>
       <c r="C59" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D59" t="s">
         <v>12</v>
@@ -3901,7 +4087,7 @@
         <v>0.0</v>
       </c>
       <c r="F59" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="G59" t="s">
         <v>12</v>
@@ -3910,18 +4096,18 @@
         <v>12</v>
       </c>
       <c r="I59" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B60" t="s">
         <v>12</v>
       </c>
       <c r="C60" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="D60" t="s">
         <v>12</v>
@@ -3930,7 +4116,7 @@
         <v>0.0</v>
       </c>
       <c r="F60" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="G60" t="s">
         <v>12</v>
@@ -3939,18 +4125,18 @@
         <v>12</v>
       </c>
       <c r="I60" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="B61" t="s">
         <v>12</v>
       </c>
       <c r="C61" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="D61" t="s">
         <v>12</v>
@@ -3959,7 +4145,7 @@
         <v>0.0</v>
       </c>
       <c r="F61" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="G61" t="s">
         <v>12</v>
@@ -3968,18 +4154,18 @@
         <v>12</v>
       </c>
       <c r="I61" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B62" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="C62" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="D62" t="s">
         <v>12</v>
@@ -3988,7 +4174,7 @@
         <v>1.0</v>
       </c>
       <c r="F62" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="G62" t="s">
         <v>12</v>
@@ -3997,18 +4183,18 @@
         <v>12</v>
       </c>
       <c r="I62" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B63" t="s">
         <v>12</v>
       </c>
       <c r="C63" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="D63" t="s">
         <v>12</v>
@@ -4017,7 +4203,7 @@
         <v>0.0</v>
       </c>
       <c r="F63" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="G63" t="s">
         <v>12</v>
@@ -4026,18 +4212,18 @@
         <v>12</v>
       </c>
       <c r="I63" t="s">
-        <v>88</v>
+        <v>258</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="B64" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="C64" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="D64" t="s">
         <v>12</v>
@@ -4046,7 +4232,7 @@
         <v>0.0</v>
       </c>
       <c r="F64" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="G64" t="s">
         <v>12</v>
@@ -4055,18 +4241,18 @@
         <v>12</v>
       </c>
       <c r="I64" t="s">
-        <v>88</v>
+        <v>263</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="B65" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="C65" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="D65" t="s">
         <v>12</v>
@@ -4075,7 +4261,7 @@
         <v>0.0</v>
       </c>
       <c r="F65" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="G65" t="s">
         <v>12</v>
@@ -4084,18 +4270,18 @@
         <v>12</v>
       </c>
       <c r="I65" t="s">
-        <v>88</v>
+        <v>268</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="B66" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="C66" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="D66" t="s">
         <v>12</v>
@@ -4104,7 +4290,7 @@
         <v>0.0</v>
       </c>
       <c r="F66" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="G66" t="s">
         <v>12</v>
@@ -4113,18 +4299,18 @@
         <v>12</v>
       </c>
       <c r="I66" t="s">
-        <v>88</v>
+        <v>273</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="B67" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="C67" t="s">
-        <v>267</v>
+        <v>12</v>
       </c>
       <c r="D67" t="s">
         <v>12</v>
@@ -4133,7 +4319,7 @@
         <v>0.0</v>
       </c>
       <c r="F67" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="G67" t="s">
         <v>12</v>
@@ -4142,27 +4328,27 @@
         <v>12</v>
       </c>
       <c r="I67" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="B68" t="s">
-        <v>270</v>
+        <v>12</v>
       </c>
       <c r="C68" t="s">
-        <v>12</v>
+        <v>278</v>
       </c>
       <c r="D68" t="s">
         <v>12</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F68" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="G68" t="s">
         <v>12</v>
@@ -4171,18 +4357,18 @@
         <v>12</v>
       </c>
       <c r="I68" t="s">
-        <v>88</v>
+        <v>280</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="B69" t="s">
-        <v>12</v>
+        <v>282</v>
       </c>
       <c r="C69" t="s">
-        <v>273</v>
+        <v>12</v>
       </c>
       <c r="D69" t="s">
         <v>12</v>
@@ -4191,7 +4377,7 @@
         <v>0.0</v>
       </c>
       <c r="F69" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="G69" t="s">
         <v>12</v>
@@ -4200,27 +4386,27 @@
         <v>12</v>
       </c>
       <c r="I69" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="B70" t="s">
-        <v>276</v>
+        <v>12</v>
       </c>
       <c r="C70" t="s">
-        <v>12</v>
+        <v>285</v>
       </c>
       <c r="D70" t="s">
         <v>12</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F70" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="G70" t="s">
         <v>12</v>
@@ -4229,27 +4415,27 @@
         <v>12</v>
       </c>
       <c r="I70" t="s">
-        <v>88</v>
+        <v>287</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="B71" t="s">
         <v>12</v>
       </c>
       <c r="C71" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="D71" t="s">
         <v>12</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F71" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G71" t="s">
         <v>12</v>
@@ -4258,27 +4444,27 @@
         <v>12</v>
       </c>
       <c r="I71" t="s">
-        <v>88</v>
+        <v>291</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="B72" t="s">
         <v>12</v>
       </c>
       <c r="C72" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="D72" t="s">
         <v>12</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F72" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="G72" t="s">
         <v>12</v>
@@ -4287,18 +4473,18 @@
         <v>12</v>
       </c>
       <c r="I72" t="s">
-        <v>88</v>
+        <v>295</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="B73" t="s">
         <v>12</v>
       </c>
       <c r="C73" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="D73" t="s">
         <v>12</v>
@@ -4307,7 +4493,7 @@
         <v>0.0</v>
       </c>
       <c r="F73" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="G73" t="s">
         <v>12</v>
@@ -4316,18 +4502,18 @@
         <v>12</v>
       </c>
       <c r="I73" t="s">
-        <v>88</v>
+        <v>299</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="B74" t="s">
         <v>12</v>
       </c>
       <c r="C74" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="D74" t="s">
         <v>12</v>
@@ -4336,7 +4522,7 @@
         <v>0.0</v>
       </c>
       <c r="F74" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="G74" t="s">
         <v>12</v>
@@ -4345,18 +4531,18 @@
         <v>12</v>
       </c>
       <c r="I74" t="s">
-        <v>88</v>
+        <v>303</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="B75" t="s">
         <v>12</v>
       </c>
       <c r="C75" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="D75" t="s">
         <v>12</v>
@@ -4365,7 +4551,7 @@
         <v>0.0</v>
       </c>
       <c r="F75" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="G75" t="s">
         <v>12</v>
@@ -4374,18 +4560,18 @@
         <v>12</v>
       </c>
       <c r="I75" t="s">
-        <v>88</v>
+        <v>307</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="B76" t="s">
-        <v>12</v>
+        <v>309</v>
       </c>
       <c r="C76" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="D76" t="s">
         <v>12</v>
@@ -4394,7 +4580,7 @@
         <v>0.0</v>
       </c>
       <c r="F76" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="G76" t="s">
         <v>12</v>
@@ -4403,18 +4589,18 @@
         <v>12</v>
       </c>
       <c r="I76" t="s">
-        <v>88</v>
+        <v>312</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="B77" t="s">
         <v>12</v>
       </c>
       <c r="C77" t="s">
-        <v>296</v>
+        <v>314</v>
       </c>
       <c r="D77" t="s">
         <v>12</v>
@@ -4423,7 +4609,7 @@
         <v>0.0</v>
       </c>
       <c r="F77" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="G77" t="s">
         <v>12</v>
@@ -4432,18 +4618,18 @@
         <v>12</v>
       </c>
       <c r="I77" t="s">
-        <v>88</v>
+        <v>316</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="B78" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="C78" t="s">
-        <v>300</v>
+        <v>319</v>
       </c>
       <c r="D78" t="s">
         <v>12</v>
@@ -4452,7 +4638,7 @@
         <v>0.0</v>
       </c>
       <c r="F78" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="G78" t="s">
         <v>12</v>
@@ -4461,18 +4647,18 @@
         <v>12</v>
       </c>
       <c r="I78" t="s">
-        <v>88</v>
+        <v>321</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>302</v>
+        <v>322</v>
       </c>
       <c r="B79" t="s">
-        <v>12</v>
+        <v>323</v>
       </c>
       <c r="C79" t="s">
-        <v>303</v>
+        <v>324</v>
       </c>
       <c r="D79" t="s">
         <v>12</v>
@@ -4481,7 +4667,7 @@
         <v>0.0</v>
       </c>
       <c r="F79" t="s">
-        <v>304</v>
+        <v>325</v>
       </c>
       <c r="G79" t="s">
         <v>12</v>
@@ -4490,18 +4676,18 @@
         <v>12</v>
       </c>
       <c r="I79" t="s">
-        <v>88</v>
+        <v>326</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>305</v>
+        <v>327</v>
       </c>
       <c r="B80" t="s">
-        <v>306</v>
+        <v>12</v>
       </c>
       <c r="C80" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="D80" t="s">
         <v>12</v>
@@ -4510,7 +4696,7 @@
         <v>0.0</v>
       </c>
       <c r="F80" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="G80" t="s">
         <v>12</v>
@@ -4519,18 +4705,18 @@
         <v>12</v>
       </c>
       <c r="I80" t="s">
-        <v>88</v>
+        <v>330</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="B81" t="s">
-        <v>310</v>
+        <v>332</v>
       </c>
       <c r="C81" t="s">
-        <v>311</v>
+        <v>12</v>
       </c>
       <c r="D81" t="s">
         <v>12</v>
@@ -4539,7 +4725,7 @@
         <v>0.0</v>
       </c>
       <c r="F81" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="G81" t="s">
         <v>12</v>
@@ -4548,27 +4734,27 @@
         <v>12</v>
       </c>
       <c r="I81" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>313</v>
+        <v>334</v>
       </c>
       <c r="B82" t="s">
         <v>12</v>
       </c>
       <c r="C82" t="s">
-        <v>314</v>
+        <v>335</v>
       </c>
       <c r="D82" t="s">
         <v>12</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F82" t="s">
-        <v>315</v>
+        <v>336</v>
       </c>
       <c r="G82" t="s">
         <v>12</v>
@@ -4577,18 +4763,18 @@
         <v>12</v>
       </c>
       <c r="I82" t="s">
-        <v>88</v>
+        <v>337</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>316</v>
+        <v>338</v>
       </c>
       <c r="B83" t="s">
-        <v>317</v>
+        <v>12</v>
       </c>
       <c r="C83" t="s">
-        <v>12</v>
+        <v>339</v>
       </c>
       <c r="D83" t="s">
         <v>12</v>
@@ -4597,7 +4783,7 @@
         <v>0.0</v>
       </c>
       <c r="F83" t="s">
-        <v>318</v>
+        <v>340</v>
       </c>
       <c r="G83" t="s">
         <v>12</v>
@@ -4606,18 +4792,18 @@
         <v>12</v>
       </c>
       <c r="I83" t="s">
-        <v>88</v>
+        <v>341</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>319</v>
+        <v>342</v>
       </c>
       <c r="B84" t="s">
-        <v>12</v>
+        <v>343</v>
       </c>
       <c r="C84" t="s">
-        <v>320</v>
+        <v>344</v>
       </c>
       <c r="D84" t="s">
         <v>12</v>
@@ -4626,7 +4812,7 @@
         <v>0.0</v>
       </c>
       <c r="F84" t="s">
-        <v>321</v>
+        <v>345</v>
       </c>
       <c r="G84" t="s">
         <v>12</v>
@@ -4635,18 +4821,18 @@
         <v>12</v>
       </c>
       <c r="I84" t="s">
-        <v>88</v>
+        <v>346</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>322</v>
+        <v>347</v>
       </c>
       <c r="B85" t="s">
-        <v>12</v>
+        <v>348</v>
       </c>
       <c r="C85" t="s">
-        <v>323</v>
+        <v>12</v>
       </c>
       <c r="D85" t="s">
         <v>12</v>
@@ -4655,7 +4841,7 @@
         <v>0.0</v>
       </c>
       <c r="F85" t="s">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="G85" t="s">
         <v>12</v>
@@ -4664,18 +4850,18 @@
         <v>12</v>
       </c>
       <c r="I85" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>325</v>
+        <v>350</v>
       </c>
       <c r="B86" t="s">
-        <v>326</v>
+        <v>351</v>
       </c>
       <c r="C86" t="s">
-        <v>327</v>
+        <v>352</v>
       </c>
       <c r="D86" t="s">
         <v>12</v>
@@ -4684,7 +4870,7 @@
         <v>0.0</v>
       </c>
       <c r="F86" t="s">
-        <v>328</v>
+        <v>353</v>
       </c>
       <c r="G86" t="s">
         <v>12</v>
@@ -4693,18 +4879,18 @@
         <v>12</v>
       </c>
       <c r="I86" t="s">
-        <v>88</v>
+        <v>354</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>329</v>
+        <v>355</v>
       </c>
       <c r="B87" t="s">
-        <v>330</v>
+        <v>12</v>
       </c>
       <c r="C87" t="s">
-        <v>12</v>
+        <v>356</v>
       </c>
       <c r="D87" t="s">
         <v>12</v>
@@ -4713,7 +4899,7 @@
         <v>0.0</v>
       </c>
       <c r="F87" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="G87" t="s">
         <v>12</v>
@@ -4722,18 +4908,18 @@
         <v>12</v>
       </c>
       <c r="I87" t="s">
-        <v>88</v>
+        <v>358</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>332</v>
+        <v>359</v>
       </c>
       <c r="B88" t="s">
-        <v>333</v>
+        <v>360</v>
       </c>
       <c r="C88" t="s">
-        <v>334</v>
+        <v>361</v>
       </c>
       <c r="D88" t="s">
         <v>12</v>
@@ -4742,7 +4928,7 @@
         <v>0.0</v>
       </c>
       <c r="F88" t="s">
-        <v>335</v>
+        <v>362</v>
       </c>
       <c r="G88" t="s">
         <v>12</v>
@@ -4751,18 +4937,18 @@
         <v>12</v>
       </c>
       <c r="I88" t="s">
-        <v>88</v>
+        <v>363</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>336</v>
+        <v>364</v>
       </c>
       <c r="B89" t="s">
-        <v>12</v>
+        <v>365</v>
       </c>
       <c r="C89" t="s">
-        <v>337</v>
+        <v>12</v>
       </c>
       <c r="D89" t="s">
         <v>12</v>
@@ -4771,7 +4957,7 @@
         <v>0.0</v>
       </c>
       <c r="F89" t="s">
-        <v>338</v>
+        <v>366</v>
       </c>
       <c r="G89" t="s">
         <v>12</v>
@@ -4780,18 +4966,18 @@
         <v>12</v>
       </c>
       <c r="I89" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>339</v>
+        <v>367</v>
       </c>
       <c r="B90" t="s">
-        <v>340</v>
+        <v>368</v>
       </c>
       <c r="C90" t="s">
-        <v>341</v>
+        <v>369</v>
       </c>
       <c r="D90" t="s">
         <v>12</v>
@@ -4800,7 +4986,7 @@
         <v>0.0</v>
       </c>
       <c r="F90" t="s">
-        <v>342</v>
+        <v>370</v>
       </c>
       <c r="G90" t="s">
         <v>12</v>
@@ -4809,15 +4995,15 @@
         <v>12</v>
       </c>
       <c r="I90" t="s">
-        <v>88</v>
+        <v>371</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>343</v>
+        <v>372</v>
       </c>
       <c r="B91" t="s">
-        <v>344</v>
+        <v>373</v>
       </c>
       <c r="C91" t="s">
         <v>12</v>
@@ -4829,7 +5015,7 @@
         <v>0.0</v>
       </c>
       <c r="F91" t="s">
-        <v>345</v>
+        <v>374</v>
       </c>
       <c r="G91" t="s">
         <v>12</v>
@@ -4838,18 +5024,18 @@
         <v>12</v>
       </c>
       <c r="I91" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>346</v>
+        <v>375</v>
       </c>
       <c r="B92" t="s">
-        <v>347</v>
+        <v>376</v>
       </c>
       <c r="C92" t="s">
-        <v>348</v>
+        <v>377</v>
       </c>
       <c r="D92" t="s">
         <v>12</v>
@@ -4858,7 +5044,7 @@
         <v>0.0</v>
       </c>
       <c r="F92" t="s">
-        <v>349</v>
+        <v>378</v>
       </c>
       <c r="G92" t="s">
         <v>12</v>
@@ -4867,27 +5053,27 @@
         <v>12</v>
       </c>
       <c r="I92" t="s">
-        <v>88</v>
+        <v>379</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="B93" t="s">
-        <v>351</v>
+        <v>12</v>
       </c>
       <c r="C93" t="s">
-        <v>12</v>
+        <v>381</v>
       </c>
       <c r="D93" t="s">
         <v>12</v>
       </c>
       <c r="E93" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F93" t="s">
-        <v>352</v>
+        <v>382</v>
       </c>
       <c r="G93" t="s">
         <v>12</v>
@@ -4896,18 +5082,18 @@
         <v>12</v>
       </c>
       <c r="I93" t="s">
-        <v>88</v>
+        <v>383</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>353</v>
+        <v>384</v>
       </c>
       <c r="B94" t="s">
-        <v>354</v>
+        <v>12</v>
       </c>
       <c r="C94" t="s">
-        <v>355</v>
+        <v>385</v>
       </c>
       <c r="D94" t="s">
         <v>12</v>
@@ -4916,7 +5102,7 @@
         <v>0.0</v>
       </c>
       <c r="F94" t="s">
-        <v>356</v>
+        <v>386</v>
       </c>
       <c r="G94" t="s">
         <v>12</v>
@@ -4925,27 +5111,27 @@
         <v>12</v>
       </c>
       <c r="I94" t="s">
-        <v>88</v>
+        <v>387</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>357</v>
+        <v>388</v>
       </c>
       <c r="B95" t="s">
         <v>12</v>
       </c>
       <c r="C95" t="s">
-        <v>358</v>
+        <v>389</v>
       </c>
       <c r="D95" t="s">
         <v>12</v>
       </c>
       <c r="E95" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F95" t="s">
-        <v>359</v>
+        <v>390</v>
       </c>
       <c r="G95" t="s">
         <v>12</v>
@@ -4954,27 +5140,27 @@
         <v>12</v>
       </c>
       <c r="I95" t="s">
-        <v>88</v>
+        <v>391</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>360</v>
+        <v>392</v>
       </c>
       <c r="B96" t="s">
         <v>12</v>
       </c>
       <c r="C96" t="s">
-        <v>361</v>
+        <v>393</v>
       </c>
       <c r="D96" t="s">
         <v>12</v>
       </c>
       <c r="E96" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F96" t="s">
-        <v>362</v>
+        <v>394</v>
       </c>
       <c r="G96" t="s">
         <v>12</v>
@@ -4983,27 +5169,27 @@
         <v>12</v>
       </c>
       <c r="I96" t="s">
-        <v>88</v>
+        <v>395</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>363</v>
+        <v>396</v>
       </c>
       <c r="B97" t="s">
         <v>12</v>
       </c>
       <c r="C97" t="s">
-        <v>364</v>
+        <v>397</v>
       </c>
       <c r="D97" t="s">
         <v>12</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F97" t="s">
-        <v>365</v>
+        <v>398</v>
       </c>
       <c r="G97" t="s">
         <v>12</v>
@@ -5012,18 +5198,18 @@
         <v>12</v>
       </c>
       <c r="I97" t="s">
-        <v>88</v>
+        <v>399</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>366</v>
+        <v>400</v>
       </c>
       <c r="B98" t="s">
-        <v>12</v>
+        <v>401</v>
       </c>
       <c r="C98" t="s">
-        <v>367</v>
+        <v>402</v>
       </c>
       <c r="D98" t="s">
         <v>12</v>
@@ -5032,7 +5218,7 @@
         <v>0.0</v>
       </c>
       <c r="F98" t="s">
-        <v>368</v>
+        <v>403</v>
       </c>
       <c r="G98" t="s">
         <v>12</v>
@@ -5041,27 +5227,27 @@
         <v>12</v>
       </c>
       <c r="I98" t="s">
-        <v>88</v>
+        <v>404</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>369</v>
+        <v>405</v>
       </c>
       <c r="B99" t="s">
         <v>12</v>
       </c>
       <c r="C99" t="s">
-        <v>370</v>
+        <v>406</v>
       </c>
       <c r="D99" t="s">
         <v>12</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F99" t="s">
-        <v>371</v>
+        <v>407</v>
       </c>
       <c r="G99" t="s">
         <v>12</v>
@@ -5070,18 +5256,18 @@
         <v>12</v>
       </c>
       <c r="I99" t="s">
-        <v>88</v>
+        <v>408</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>372</v>
+        <v>409</v>
       </c>
       <c r="B100" t="s">
-        <v>373</v>
+        <v>410</v>
       </c>
       <c r="C100" t="s">
-        <v>374</v>
+        <v>411</v>
       </c>
       <c r="D100" t="s">
         <v>12</v>
@@ -5090,7 +5276,7 @@
         <v>0.0</v>
       </c>
       <c r="F100" t="s">
-        <v>375</v>
+        <v>412</v>
       </c>
       <c r="G100" t="s">
         <v>12</v>
@@ -5099,18 +5285,18 @@
         <v>12</v>
       </c>
       <c r="I100" t="s">
-        <v>88</v>
+        <v>413</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>376</v>
+        <v>414</v>
       </c>
       <c r="B101" t="s">
         <v>12</v>
       </c>
       <c r="C101" t="s">
-        <v>377</v>
+        <v>415</v>
       </c>
       <c r="D101" t="s">
         <v>12</v>
@@ -5119,7 +5305,7 @@
         <v>0.0</v>
       </c>
       <c r="F101" t="s">
-        <v>378</v>
+        <v>416</v>
       </c>
       <c r="G101" t="s">
         <v>12</v>
@@ -5128,27 +5314,27 @@
         <v>12</v>
       </c>
       <c r="I101" t="s">
-        <v>88</v>
+        <v>417</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>379</v>
+        <v>418</v>
       </c>
       <c r="B102" t="s">
-        <v>380</v>
+        <v>419</v>
       </c>
       <c r="C102" t="s">
-        <v>381</v>
+        <v>420</v>
       </c>
       <c r="D102" t="s">
         <v>12</v>
       </c>
       <c r="E102" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F102" t="s">
-        <v>382</v>
+        <v>421</v>
       </c>
       <c r="G102" t="s">
         <v>12</v>
@@ -5157,27 +5343,27 @@
         <v>12</v>
       </c>
       <c r="I102" t="s">
-        <v>88</v>
+        <v>422</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>383</v>
+        <v>423</v>
       </c>
       <c r="B103" t="s">
-        <v>12</v>
+        <v>424</v>
       </c>
       <c r="C103" t="s">
-        <v>384</v>
+        <v>425</v>
       </c>
       <c r="D103" t="s">
         <v>12</v>
       </c>
       <c r="E103" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F103" t="s">
-        <v>385</v>
+        <v>426</v>
       </c>
       <c r="G103" t="s">
         <v>12</v>
@@ -5186,18 +5372,18 @@
         <v>12</v>
       </c>
       <c r="I103" t="s">
-        <v>88</v>
+        <v>427</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>386</v>
+        <v>428</v>
       </c>
       <c r="B104" t="s">
-        <v>387</v>
+        <v>429</v>
       </c>
       <c r="C104" t="s">
-        <v>388</v>
+        <v>430</v>
       </c>
       <c r="D104" t="s">
         <v>12</v>
@@ -5206,7 +5392,7 @@
         <v>0.0</v>
       </c>
       <c r="F104" t="s">
-        <v>389</v>
+        <v>431</v>
       </c>
       <c r="G104" t="s">
         <v>12</v>
@@ -5215,18 +5401,18 @@
         <v>12</v>
       </c>
       <c r="I104" t="s">
-        <v>88</v>
+        <v>432</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>390</v>
+        <v>433</v>
       </c>
       <c r="B105" t="s">
-        <v>391</v>
+        <v>434</v>
       </c>
       <c r="C105" t="s">
-        <v>392</v>
+        <v>435</v>
       </c>
       <c r="D105" t="s">
         <v>12</v>
@@ -5235,7 +5421,7 @@
         <v>0.0</v>
       </c>
       <c r="F105" t="s">
-        <v>393</v>
+        <v>436</v>
       </c>
       <c r="G105" t="s">
         <v>12</v>
@@ -5244,27 +5430,27 @@
         <v>12</v>
       </c>
       <c r="I105" t="s">
-        <v>88</v>
+        <v>437</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>394</v>
+        <v>438</v>
       </c>
       <c r="B106" t="s">
-        <v>395</v>
+        <v>439</v>
       </c>
       <c r="C106" t="s">
-        <v>396</v>
+        <v>440</v>
       </c>
       <c r="D106" t="s">
         <v>12</v>
       </c>
       <c r="E106" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F106" t="s">
-        <v>397</v>
+        <v>441</v>
       </c>
       <c r="G106" t="s">
         <v>12</v>
@@ -5273,18 +5459,18 @@
         <v>12</v>
       </c>
       <c r="I106" t="s">
-        <v>88</v>
+        <v>442</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>398</v>
+        <v>443</v>
       </c>
       <c r="B107" t="s">
-        <v>399</v>
+        <v>444</v>
       </c>
       <c r="C107" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="D107" t="s">
         <v>12</v>
@@ -5293,7 +5479,7 @@
         <v>0.0</v>
       </c>
       <c r="F107" t="s">
-        <v>401</v>
+        <v>446</v>
       </c>
       <c r="G107" t="s">
         <v>12</v>
@@ -5302,18 +5488,18 @@
         <v>12</v>
       </c>
       <c r="I107" t="s">
-        <v>88</v>
+        <v>447</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>402</v>
+        <v>448</v>
       </c>
       <c r="B108" t="s">
-        <v>403</v>
+        <v>12</v>
       </c>
       <c r="C108" t="s">
-        <v>404</v>
+        <v>449</v>
       </c>
       <c r="D108" t="s">
         <v>12</v>
@@ -5322,7 +5508,7 @@
         <v>0.0</v>
       </c>
       <c r="F108" t="s">
-        <v>405</v>
+        <v>450</v>
       </c>
       <c r="G108" t="s">
         <v>12</v>
@@ -5331,18 +5517,18 @@
         <v>12</v>
       </c>
       <c r="I108" t="s">
-        <v>88</v>
+        <v>451</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>406</v>
+        <v>452</v>
       </c>
       <c r="B109" t="s">
-        <v>407</v>
+        <v>12</v>
       </c>
       <c r="C109" t="s">
-        <v>408</v>
+        <v>453</v>
       </c>
       <c r="D109" t="s">
         <v>12</v>
@@ -5351,7 +5537,7 @@
         <v>0.0</v>
       </c>
       <c r="F109" t="s">
-        <v>409</v>
+        <v>454</v>
       </c>
       <c r="G109" t="s">
         <v>12</v>
@@ -5360,18 +5546,18 @@
         <v>12</v>
       </c>
       <c r="I109" t="s">
-        <v>88</v>
+        <v>455</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>410</v>
+        <v>456</v>
       </c>
       <c r="B110" t="s">
-        <v>12</v>
+        <v>457</v>
       </c>
       <c r="C110" t="s">
-        <v>411</v>
+        <v>458</v>
       </c>
       <c r="D110" t="s">
         <v>12</v>
@@ -5380,7 +5566,7 @@
         <v>0.0</v>
       </c>
       <c r="F110" t="s">
-        <v>412</v>
+        <v>459</v>
       </c>
       <c r="G110" t="s">
         <v>12</v>
@@ -5389,18 +5575,18 @@
         <v>12</v>
       </c>
       <c r="I110" t="s">
-        <v>14</v>
+        <v>460</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>413</v>
+        <v>461</v>
       </c>
       <c r="B111" t="s">
-        <v>12</v>
+        <v>462</v>
       </c>
       <c r="C111" t="s">
-        <v>414</v>
+        <v>12</v>
       </c>
       <c r="D111" t="s">
         <v>12</v>
@@ -5409,7 +5595,7 @@
         <v>0.0</v>
       </c>
       <c r="F111" t="s">
-        <v>415</v>
+        <v>463</v>
       </c>
       <c r="G111" t="s">
         <v>12</v>
@@ -5418,18 +5604,18 @@
         <v>12</v>
       </c>
       <c r="I111" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>416</v>
+        <v>464</v>
       </c>
       <c r="B112" t="s">
-        <v>417</v>
+        <v>12</v>
       </c>
       <c r="C112" t="s">
-        <v>418</v>
+        <v>465</v>
       </c>
       <c r="D112" t="s">
         <v>12</v>
@@ -5438,7 +5624,7 @@
         <v>0.0</v>
       </c>
       <c r="F112" t="s">
-        <v>419</v>
+        <v>466</v>
       </c>
       <c r="G112" t="s">
         <v>12</v>
@@ -5447,18 +5633,18 @@
         <v>12</v>
       </c>
       <c r="I112" t="s">
-        <v>14</v>
+        <v>467</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>420</v>
+        <v>468</v>
       </c>
       <c r="B113" t="s">
-        <v>421</v>
+        <v>12</v>
       </c>
       <c r="C113" t="s">
-        <v>12</v>
+        <v>469</v>
       </c>
       <c r="D113" t="s">
         <v>12</v>
@@ -5467,7 +5653,7 @@
         <v>0.0</v>
       </c>
       <c r="F113" t="s">
-        <v>422</v>
+        <v>470</v>
       </c>
       <c r="G113" t="s">
         <v>12</v>
@@ -5476,18 +5662,18 @@
         <v>12</v>
       </c>
       <c r="I113" t="s">
-        <v>14</v>
+        <v>471</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>423</v>
+        <v>472</v>
       </c>
       <c r="B114" t="s">
         <v>12</v>
       </c>
       <c r="C114" t="s">
-        <v>424</v>
+        <v>473</v>
       </c>
       <c r="D114" t="s">
         <v>12</v>
@@ -5496,7 +5682,7 @@
         <v>0.0</v>
       </c>
       <c r="F114" t="s">
-        <v>425</v>
+        <v>474</v>
       </c>
       <c r="G114" t="s">
         <v>12</v>
@@ -5505,18 +5691,18 @@
         <v>12</v>
       </c>
       <c r="I114" t="s">
-        <v>14</v>
+        <v>475</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>426</v>
+        <v>476</v>
       </c>
       <c r="B115" t="s">
-        <v>12</v>
+        <v>477</v>
       </c>
       <c r="C115" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="D115" t="s">
         <v>12</v>
@@ -5525,7 +5711,7 @@
         <v>0.0</v>
       </c>
       <c r="F115" t="s">
-        <v>428</v>
+        <v>479</v>
       </c>
       <c r="G115" t="s">
         <v>12</v>
@@ -5534,18 +5720,18 @@
         <v>12</v>
       </c>
       <c r="I115" t="s">
-        <v>14</v>
+        <v>480</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>429</v>
+        <v>481</v>
       </c>
       <c r="B116" t="s">
         <v>12</v>
       </c>
       <c r="C116" t="s">
-        <v>430</v>
+        <v>482</v>
       </c>
       <c r="D116" t="s">
         <v>12</v>
@@ -5554,7 +5740,7 @@
         <v>0.0</v>
       </c>
       <c r="F116" t="s">
-        <v>431</v>
+        <v>483</v>
       </c>
       <c r="G116" t="s">
         <v>12</v>
@@ -5563,18 +5749,18 @@
         <v>12</v>
       </c>
       <c r="I116" t="s">
-        <v>14</v>
+        <v>484</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>432</v>
+        <v>485</v>
       </c>
       <c r="B117" t="s">
-        <v>433</v>
+        <v>486</v>
       </c>
       <c r="C117" t="s">
-        <v>434</v>
+        <v>487</v>
       </c>
       <c r="D117" t="s">
         <v>12</v>
@@ -5583,7 +5769,7 @@
         <v>0.0</v>
       </c>
       <c r="F117" t="s">
-        <v>435</v>
+        <v>488</v>
       </c>
       <c r="G117" t="s">
         <v>12</v>
@@ -5592,18 +5778,18 @@
         <v>12</v>
       </c>
       <c r="I117" t="s">
-        <v>14</v>
+        <v>489</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>436</v>
+        <v>490</v>
       </c>
       <c r="B118" t="s">
         <v>12</v>
       </c>
       <c r="C118" t="s">
-        <v>437</v>
+        <v>491</v>
       </c>
       <c r="D118" t="s">
         <v>12</v>
@@ -5612,7 +5798,7 @@
         <v>0.0</v>
       </c>
       <c r="F118" t="s">
-        <v>438</v>
+        <v>492</v>
       </c>
       <c r="G118" t="s">
         <v>12</v>
@@ -5621,27 +5807,27 @@
         <v>12</v>
       </c>
       <c r="I118" t="s">
-        <v>14</v>
+        <v>493</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>439</v>
+        <v>494</v>
       </c>
       <c r="B119" t="s">
-        <v>440</v>
+        <v>12</v>
       </c>
       <c r="C119" t="s">
-        <v>441</v>
+        <v>495</v>
       </c>
       <c r="D119" t="s">
         <v>12</v>
       </c>
       <c r="E119" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F119" t="s">
-        <v>442</v>
+        <v>496</v>
       </c>
       <c r="G119" t="s">
         <v>12</v>
@@ -5650,18 +5836,18 @@
         <v>12</v>
       </c>
       <c r="I119" t="s">
-        <v>14</v>
+        <v>497</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>443</v>
+        <v>498</v>
       </c>
       <c r="B120" t="s">
         <v>12</v>
       </c>
       <c r="C120" t="s">
-        <v>444</v>
+        <v>499</v>
       </c>
       <c r="D120" t="s">
         <v>12</v>
@@ -5670,7 +5856,7 @@
         <v>0.0</v>
       </c>
       <c r="F120" t="s">
-        <v>445</v>
+        <v>500</v>
       </c>
       <c r="G120" t="s">
         <v>12</v>
@@ -5679,27 +5865,27 @@
         <v>12</v>
       </c>
       <c r="I120" t="s">
-        <v>14</v>
+        <v>501</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>446</v>
+        <v>502</v>
       </c>
       <c r="B121" t="s">
         <v>12</v>
       </c>
       <c r="C121" t="s">
-        <v>447</v>
+        <v>503</v>
       </c>
       <c r="D121" t="s">
         <v>12</v>
       </c>
       <c r="E121" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F121" t="s">
-        <v>448</v>
+        <v>504</v>
       </c>
       <c r="G121" t="s">
         <v>12</v>
@@ -5708,18 +5894,18 @@
         <v>12</v>
       </c>
       <c r="I121" t="s">
-        <v>14</v>
+        <v>505</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>449</v>
+        <v>506</v>
       </c>
       <c r="B122" t="s">
         <v>12</v>
       </c>
       <c r="C122" t="s">
-        <v>450</v>
+        <v>507</v>
       </c>
       <c r="D122" t="s">
         <v>12</v>
@@ -5728,7 +5914,7 @@
         <v>0.0</v>
       </c>
       <c r="F122" t="s">
-        <v>451</v>
+        <v>508</v>
       </c>
       <c r="G122" t="s">
         <v>12</v>
@@ -5737,18 +5923,18 @@
         <v>12</v>
       </c>
       <c r="I122" t="s">
-        <v>14</v>
+        <v>509</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>452</v>
+        <v>510</v>
       </c>
       <c r="B123" t="s">
-        <v>12</v>
+        <v>511</v>
       </c>
       <c r="C123" t="s">
-        <v>453</v>
+        <v>12</v>
       </c>
       <c r="D123" t="s">
         <v>12</v>
@@ -5757,7 +5943,7 @@
         <v>0.0</v>
       </c>
       <c r="F123" t="s">
-        <v>454</v>
+        <v>512</v>
       </c>
       <c r="G123" t="s">
         <v>12</v>
@@ -5766,18 +5952,18 @@
         <v>12</v>
       </c>
       <c r="I123" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>455</v>
+        <v>513</v>
       </c>
       <c r="B124" t="s">
-        <v>12</v>
+        <v>514</v>
       </c>
       <c r="C124" t="s">
-        <v>456</v>
+        <v>515</v>
       </c>
       <c r="D124" t="s">
         <v>12</v>
@@ -5786,7 +5972,7 @@
         <v>0.0</v>
       </c>
       <c r="F124" t="s">
-        <v>457</v>
+        <v>516</v>
       </c>
       <c r="G124" t="s">
         <v>12</v>
@@ -5795,18 +5981,18 @@
         <v>12</v>
       </c>
       <c r="I124" t="s">
-        <v>14</v>
+        <v>517</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>458</v>
+        <v>518</v>
       </c>
       <c r="B125" t="s">
-        <v>459</v>
+        <v>12</v>
       </c>
       <c r="C125" t="s">
-        <v>12</v>
+        <v>519</v>
       </c>
       <c r="D125" t="s">
         <v>12</v>
@@ -5815,7 +6001,7 @@
         <v>0.0</v>
       </c>
       <c r="F125" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="G125" t="s">
         <v>12</v>
@@ -5824,18 +6010,18 @@
         <v>12</v>
       </c>
       <c r="I125" t="s">
-        <v>14</v>
+        <v>521</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>461</v>
+        <v>522</v>
       </c>
       <c r="B126" t="s">
-        <v>462</v>
+        <v>12</v>
       </c>
       <c r="C126" t="s">
-        <v>463</v>
+        <v>523</v>
       </c>
       <c r="D126" t="s">
         <v>12</v>
@@ -5844,7 +6030,7 @@
         <v>0.0</v>
       </c>
       <c r="F126" t="s">
-        <v>464</v>
+        <v>524</v>
       </c>
       <c r="G126" t="s">
         <v>12</v>
@@ -5853,18 +6039,18 @@
         <v>12</v>
       </c>
       <c r="I126" t="s">
-        <v>14</v>
+        <v>525</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>465</v>
+        <v>526</v>
       </c>
       <c r="B127" t="s">
         <v>12</v>
       </c>
       <c r="C127" t="s">
-        <v>466</v>
+        <v>527</v>
       </c>
       <c r="D127" t="s">
         <v>12</v>
@@ -5873,7 +6059,7 @@
         <v>0.0</v>
       </c>
       <c r="F127" t="s">
-        <v>467</v>
+        <v>528</v>
       </c>
       <c r="G127" t="s">
         <v>12</v>
@@ -5882,18 +6068,18 @@
         <v>12</v>
       </c>
       <c r="I127" t="s">
-        <v>14</v>
+        <v>529</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>468</v>
+        <v>530</v>
       </c>
       <c r="B128" t="s">
         <v>12</v>
       </c>
       <c r="C128" t="s">
-        <v>469</v>
+        <v>531</v>
       </c>
       <c r="D128" t="s">
         <v>12</v>
@@ -5902,7 +6088,7 @@
         <v>0.0</v>
       </c>
       <c r="F128" t="s">
-        <v>470</v>
+        <v>532</v>
       </c>
       <c r="G128" t="s">
         <v>12</v>
@@ -5911,18 +6097,18 @@
         <v>12</v>
       </c>
       <c r="I128" t="s">
-        <v>14</v>
+        <v>533</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>471</v>
+        <v>534</v>
       </c>
       <c r="B129" t="s">
         <v>12</v>
       </c>
       <c r="C129" t="s">
-        <v>472</v>
+        <v>535</v>
       </c>
       <c r="D129" t="s">
         <v>12</v>
@@ -5931,7 +6117,7 @@
         <v>0.0</v>
       </c>
       <c r="F129" t="s">
-        <v>473</v>
+        <v>536</v>
       </c>
       <c r="G129" t="s">
         <v>12</v>
@@ -5940,18 +6126,18 @@
         <v>12</v>
       </c>
       <c r="I129" t="s">
-        <v>14</v>
+        <v>537</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>474</v>
+        <v>538</v>
       </c>
       <c r="B130" t="s">
         <v>12</v>
       </c>
       <c r="C130" t="s">
-        <v>475</v>
+        <v>539</v>
       </c>
       <c r="D130" t="s">
         <v>12</v>
@@ -5960,7 +6146,7 @@
         <v>0.0</v>
       </c>
       <c r="F130" t="s">
-        <v>476</v>
+        <v>540</v>
       </c>
       <c r="G130" t="s">
         <v>12</v>
@@ -5969,18 +6155,18 @@
         <v>12</v>
       </c>
       <c r="I130" t="s">
-        <v>14</v>
+        <v>541</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>477</v>
+        <v>542</v>
       </c>
       <c r="B131" t="s">
         <v>12</v>
       </c>
       <c r="C131" t="s">
-        <v>478</v>
+        <v>543</v>
       </c>
       <c r="D131" t="s">
         <v>12</v>
@@ -5989,7 +6175,7 @@
         <v>0.0</v>
       </c>
       <c r="F131" t="s">
-        <v>479</v>
+        <v>544</v>
       </c>
       <c r="G131" t="s">
         <v>12</v>
@@ -5998,18 +6184,18 @@
         <v>12</v>
       </c>
       <c r="I131" t="s">
-        <v>14</v>
+        <v>545</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>480</v>
+        <v>546</v>
       </c>
       <c r="B132" t="s">
-        <v>12</v>
+        <v>547</v>
       </c>
       <c r="C132" t="s">
-        <v>481</v>
+        <v>548</v>
       </c>
       <c r="D132" t="s">
         <v>12</v>
@@ -6018,7 +6204,7 @@
         <v>0.0</v>
       </c>
       <c r="F132" t="s">
-        <v>482</v>
+        <v>549</v>
       </c>
       <c r="G132" t="s">
         <v>12</v>
@@ -6027,18 +6213,18 @@
         <v>12</v>
       </c>
       <c r="I132" t="s">
-        <v>14</v>
+        <v>550</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>483</v>
+        <v>551</v>
       </c>
       <c r="B133" t="s">
         <v>12</v>
       </c>
       <c r="C133" t="s">
-        <v>484</v>
+        <v>552</v>
       </c>
       <c r="D133" t="s">
         <v>12</v>
@@ -6047,7 +6233,7 @@
         <v>0.0</v>
       </c>
       <c r="F133" t="s">
-        <v>485</v>
+        <v>553</v>
       </c>
       <c r="G133" t="s">
         <v>12</v>
@@ -6056,18 +6242,18 @@
         <v>12</v>
       </c>
       <c r="I133" t="s">
-        <v>14</v>
+        <v>554</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>486</v>
+        <v>555</v>
       </c>
       <c r="B134" t="s">
-        <v>487</v>
+        <v>12</v>
       </c>
       <c r="C134" t="s">
-        <v>488</v>
+        <v>556</v>
       </c>
       <c r="D134" t="s">
         <v>12</v>
@@ -6076,7 +6262,7 @@
         <v>0.0</v>
       </c>
       <c r="F134" t="s">
-        <v>489</v>
+        <v>557</v>
       </c>
       <c r="G134" t="s">
         <v>12</v>
@@ -6085,18 +6271,18 @@
         <v>12</v>
       </c>
       <c r="I134" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>490</v>
+        <v>558</v>
       </c>
       <c r="B135" t="s">
-        <v>12</v>
+        <v>559</v>
       </c>
       <c r="C135" t="s">
-        <v>491</v>
+        <v>12</v>
       </c>
       <c r="D135" t="s">
         <v>12</v>
@@ -6105,7 +6291,7 @@
         <v>0.0</v>
       </c>
       <c r="F135" t="s">
-        <v>492</v>
+        <v>560</v>
       </c>
       <c r="G135" t="s">
         <v>12</v>
@@ -6114,18 +6300,18 @@
         <v>12</v>
       </c>
       <c r="I135" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>493</v>
+        <v>561</v>
       </c>
       <c r="B136" t="s">
         <v>12</v>
       </c>
       <c r="C136" t="s">
-        <v>494</v>
+        <v>562</v>
       </c>
       <c r="D136" t="s">
         <v>12</v>
@@ -6134,7 +6320,7 @@
         <v>0.0</v>
       </c>
       <c r="F136" t="s">
-        <v>495</v>
+        <v>563</v>
       </c>
       <c r="G136" t="s">
         <v>12</v>
@@ -6143,18 +6329,18 @@
         <v>12</v>
       </c>
       <c r="I136" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>496</v>
+        <v>564</v>
       </c>
       <c r="B137" t="s">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="C137" t="s">
-        <v>12</v>
+        <v>566</v>
       </c>
       <c r="D137" t="s">
         <v>12</v>
@@ -6163,7 +6349,7 @@
         <v>0.0</v>
       </c>
       <c r="F137" t="s">
-        <v>498</v>
+        <v>567</v>
       </c>
       <c r="G137" t="s">
         <v>12</v>
@@ -6172,18 +6358,18 @@
         <v>12</v>
       </c>
       <c r="I137" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>499</v>
+        <v>568</v>
       </c>
       <c r="B138" t="s">
-        <v>12</v>
+        <v>569</v>
       </c>
       <c r="C138" t="s">
-        <v>500</v>
+        <v>12</v>
       </c>
       <c r="D138" t="s">
         <v>12</v>
@@ -6192,7 +6378,7 @@
         <v>0.0</v>
       </c>
       <c r="F138" t="s">
-        <v>501</v>
+        <v>570</v>
       </c>
       <c r="G138" t="s">
         <v>12</v>
@@ -6201,18 +6387,18 @@
         <v>12</v>
       </c>
       <c r="I138" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>502</v>
+        <v>571</v>
       </c>
       <c r="B139" t="s">
-        <v>503</v>
+        <v>572</v>
       </c>
       <c r="C139" t="s">
-        <v>504</v>
+        <v>12</v>
       </c>
       <c r="D139" t="s">
         <v>12</v>
@@ -6221,7 +6407,7 @@
         <v>0.0</v>
       </c>
       <c r="F139" t="s">
-        <v>505</v>
+        <v>573</v>
       </c>
       <c r="G139" t="s">
         <v>12</v>
@@ -6230,18 +6416,18 @@
         <v>12</v>
       </c>
       <c r="I139" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>506</v>
+        <v>574</v>
       </c>
       <c r="B140" t="s">
-        <v>507</v>
+        <v>575</v>
       </c>
       <c r="C140" t="s">
-        <v>12</v>
+        <v>576</v>
       </c>
       <c r="D140" t="s">
         <v>12</v>
@@ -6250,7 +6436,7 @@
         <v>0.0</v>
       </c>
       <c r="F140" t="s">
-        <v>508</v>
+        <v>577</v>
       </c>
       <c r="G140" t="s">
         <v>12</v>
@@ -6259,18 +6445,18 @@
         <v>12</v>
       </c>
       <c r="I140" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>509</v>
+        <v>578</v>
       </c>
       <c r="B141" t="s">
-        <v>510</v>
+        <v>579</v>
       </c>
       <c r="C141" t="s">
-        <v>12</v>
+        <v>580</v>
       </c>
       <c r="D141" t="s">
         <v>12</v>
@@ -6279,7 +6465,7 @@
         <v>0.0</v>
       </c>
       <c r="F141" t="s">
-        <v>511</v>
+        <v>581</v>
       </c>
       <c r="G141" t="s">
         <v>12</v>
@@ -6288,18 +6474,18 @@
         <v>12</v>
       </c>
       <c r="I141" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>512</v>
+        <v>582</v>
       </c>
       <c r="B142" t="s">
-        <v>513</v>
+        <v>12</v>
       </c>
       <c r="C142" t="s">
-        <v>514</v>
+        <v>583</v>
       </c>
       <c r="D142" t="s">
         <v>12</v>
@@ -6308,7 +6494,7 @@
         <v>0.0</v>
       </c>
       <c r="F142" t="s">
-        <v>515</v>
+        <v>584</v>
       </c>
       <c r="G142" t="s">
         <v>12</v>
@@ -6317,18 +6503,18 @@
         <v>12</v>
       </c>
       <c r="I142" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>516</v>
+        <v>585</v>
       </c>
       <c r="B143" t="s">
-        <v>517</v>
+        <v>12</v>
       </c>
       <c r="C143" t="s">
-        <v>518</v>
+        <v>586</v>
       </c>
       <c r="D143" t="s">
         <v>12</v>
@@ -6337,7 +6523,7 @@
         <v>0.0</v>
       </c>
       <c r="F143" t="s">
-        <v>519</v>
+        <v>587</v>
       </c>
       <c r="G143" t="s">
         <v>12</v>
@@ -6346,18 +6532,18 @@
         <v>12</v>
       </c>
       <c r="I143" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>520</v>
+        <v>588</v>
       </c>
       <c r="B144" t="s">
-        <v>12</v>
+        <v>589</v>
       </c>
       <c r="C144" t="s">
-        <v>521</v>
+        <v>590</v>
       </c>
       <c r="D144" t="s">
         <v>12</v>
@@ -6366,7 +6552,7 @@
         <v>0.0</v>
       </c>
       <c r="F144" t="s">
-        <v>522</v>
+        <v>591</v>
       </c>
       <c r="G144" t="s">
         <v>12</v>
@@ -6375,18 +6561,18 @@
         <v>12</v>
       </c>
       <c r="I144" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>523</v>
+        <v>592</v>
       </c>
       <c r="B145" t="s">
-        <v>12</v>
+        <v>593</v>
       </c>
       <c r="C145" t="s">
-        <v>524</v>
+        <v>12</v>
       </c>
       <c r="D145" t="s">
         <v>12</v>
@@ -6395,7 +6581,7 @@
         <v>0.0</v>
       </c>
       <c r="F145" t="s">
-        <v>525</v>
+        <v>594</v>
       </c>
       <c r="G145" t="s">
         <v>12</v>
@@ -6404,18 +6590,18 @@
         <v>12</v>
       </c>
       <c r="I145" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>526</v>
+        <v>595</v>
       </c>
       <c r="B146" t="s">
-        <v>527</v>
+        <v>12</v>
       </c>
       <c r="C146" t="s">
-        <v>528</v>
+        <v>596</v>
       </c>
       <c r="D146" t="s">
         <v>12</v>
@@ -6424,7 +6610,7 @@
         <v>0.0</v>
       </c>
       <c r="F146" t="s">
-        <v>529</v>
+        <v>597</v>
       </c>
       <c r="G146" t="s">
         <v>12</v>
@@ -6433,15 +6619,15 @@
         <v>12</v>
       </c>
       <c r="I146" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>530</v>
+        <v>598</v>
       </c>
       <c r="B147" t="s">
-        <v>531</v>
+        <v>599</v>
       </c>
       <c r="C147" t="s">
         <v>12</v>
@@ -6453,7 +6639,7 @@
         <v>0.0</v>
       </c>
       <c r="F147" t="s">
-        <v>532</v>
+        <v>600</v>
       </c>
       <c r="G147" t="s">
         <v>12</v>
@@ -6462,18 +6648,18 @@
         <v>12</v>
       </c>
       <c r="I147" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>533</v>
+        <v>601</v>
       </c>
       <c r="B148" t="s">
         <v>12</v>
       </c>
       <c r="C148" t="s">
-        <v>534</v>
+        <v>602</v>
       </c>
       <c r="D148" t="s">
         <v>12</v>
@@ -6482,7 +6668,7 @@
         <v>0.0</v>
       </c>
       <c r="F148" t="s">
-        <v>535</v>
+        <v>603</v>
       </c>
       <c r="G148" t="s">
         <v>12</v>
@@ -6491,15 +6677,15 @@
         <v>12</v>
       </c>
       <c r="I148" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>536</v>
+        <v>604</v>
       </c>
       <c r="B149" t="s">
-        <v>537</v>
+        <v>605</v>
       </c>
       <c r="C149" t="s">
         <v>12</v>
@@ -6511,7 +6697,7 @@
         <v>0.0</v>
       </c>
       <c r="F149" t="s">
-        <v>538</v>
+        <v>606</v>
       </c>
       <c r="G149" t="s">
         <v>12</v>
@@ -6520,18 +6706,18 @@
         <v>12</v>
       </c>
       <c r="I149" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>539</v>
+        <v>607</v>
       </c>
       <c r="B150" t="s">
         <v>12</v>
       </c>
       <c r="C150" t="s">
-        <v>540</v>
+        <v>608</v>
       </c>
       <c r="D150" t="s">
         <v>12</v>
@@ -6540,7 +6726,7 @@
         <v>0.0</v>
       </c>
       <c r="F150" t="s">
-        <v>541</v>
+        <v>609</v>
       </c>
       <c r="G150" t="s">
         <v>12</v>
@@ -6549,18 +6735,18 @@
         <v>12</v>
       </c>
       <c r="I150" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>542</v>
+        <v>610</v>
       </c>
       <c r="B151" t="s">
-        <v>543</v>
+        <v>12</v>
       </c>
       <c r="C151" t="s">
-        <v>12</v>
+        <v>611</v>
       </c>
       <c r="D151" t="s">
         <v>12</v>
@@ -6569,7 +6755,7 @@
         <v>0.0</v>
       </c>
       <c r="F151" t="s">
-        <v>544</v>
+        <v>612</v>
       </c>
       <c r="G151" t="s">
         <v>12</v>
@@ -6578,18 +6764,18 @@
         <v>12</v>
       </c>
       <c r="I151" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>545</v>
+        <v>613</v>
       </c>
       <c r="B152" t="s">
         <v>12</v>
       </c>
       <c r="C152" t="s">
-        <v>546</v>
+        <v>614</v>
       </c>
       <c r="D152" t="s">
         <v>12</v>
@@ -6598,7 +6784,7 @@
         <v>0.0</v>
       </c>
       <c r="F152" t="s">
-        <v>547</v>
+        <v>615</v>
       </c>
       <c r="G152" t="s">
         <v>12</v>
@@ -6607,18 +6793,18 @@
         <v>12</v>
       </c>
       <c r="I152" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>548</v>
+        <v>616</v>
       </c>
       <c r="B153" t="s">
         <v>12</v>
       </c>
       <c r="C153" t="s">
-        <v>549</v>
+        <v>617</v>
       </c>
       <c r="D153" t="s">
         <v>12</v>
@@ -6627,7 +6813,7 @@
         <v>0.0</v>
       </c>
       <c r="F153" t="s">
-        <v>550</v>
+        <v>618</v>
       </c>
       <c r="G153" t="s">
         <v>12</v>
@@ -6636,18 +6822,18 @@
         <v>12</v>
       </c>
       <c r="I153" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>551</v>
+        <v>619</v>
       </c>
       <c r="B154" t="s">
-        <v>12</v>
+        <v>620</v>
       </c>
       <c r="C154" t="s">
-        <v>552</v>
+        <v>621</v>
       </c>
       <c r="D154" t="s">
         <v>12</v>
@@ -6656,7 +6842,7 @@
         <v>0.0</v>
       </c>
       <c r="F154" t="s">
-        <v>553</v>
+        <v>622</v>
       </c>
       <c r="G154" t="s">
         <v>12</v>
@@ -6665,18 +6851,18 @@
         <v>12</v>
       </c>
       <c r="I154" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>554</v>
+        <v>623</v>
       </c>
       <c r="B155" t="s">
         <v>12</v>
       </c>
       <c r="C155" t="s">
-        <v>555</v>
+        <v>624</v>
       </c>
       <c r="D155" t="s">
         <v>12</v>
@@ -6685,7 +6871,7 @@
         <v>0.0</v>
       </c>
       <c r="F155" t="s">
-        <v>556</v>
+        <v>625</v>
       </c>
       <c r="G155" t="s">
         <v>12</v>
@@ -6694,18 +6880,18 @@
         <v>12</v>
       </c>
       <c r="I155" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>557</v>
+        <v>626</v>
       </c>
       <c r="B156" t="s">
-        <v>558</v>
+        <v>627</v>
       </c>
       <c r="C156" t="s">
-        <v>559</v>
+        <v>628</v>
       </c>
       <c r="D156" t="s">
         <v>12</v>
@@ -6714,7 +6900,7 @@
         <v>0.0</v>
       </c>
       <c r="F156" t="s">
-        <v>560</v>
+        <v>629</v>
       </c>
       <c r="G156" t="s">
         <v>12</v>
@@ -6723,18 +6909,18 @@
         <v>12</v>
       </c>
       <c r="I156" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>561</v>
+        <v>630</v>
       </c>
       <c r="B157" t="s">
         <v>12</v>
       </c>
       <c r="C157" t="s">
-        <v>562</v>
+        <v>631</v>
       </c>
       <c r="D157" t="s">
         <v>12</v>
@@ -6743,7 +6929,7 @@
         <v>0.0</v>
       </c>
       <c r="F157" t="s">
-        <v>563</v>
+        <v>632</v>
       </c>
       <c r="G157" t="s">
         <v>12</v>
@@ -6752,18 +6938,18 @@
         <v>12</v>
       </c>
       <c r="I157" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>564</v>
+        <v>633</v>
       </c>
       <c r="B158" t="s">
-        <v>565</v>
+        <v>634</v>
       </c>
       <c r="C158" t="s">
-        <v>566</v>
+        <v>635</v>
       </c>
       <c r="D158" t="s">
         <v>12</v>
@@ -6772,7 +6958,7 @@
         <v>0.0</v>
       </c>
       <c r="F158" t="s">
-        <v>567</v>
+        <v>636</v>
       </c>
       <c r="G158" t="s">
         <v>12</v>
@@ -6781,18 +6967,18 @@
         <v>12</v>
       </c>
       <c r="I158" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>568</v>
+        <v>637</v>
       </c>
       <c r="B159" t="s">
-        <v>12</v>
+        <v>638</v>
       </c>
       <c r="C159" t="s">
-        <v>569</v>
+        <v>12</v>
       </c>
       <c r="D159" t="s">
         <v>12</v>
@@ -6801,7 +6987,7 @@
         <v>0.0</v>
       </c>
       <c r="F159" t="s">
-        <v>570</v>
+        <v>639</v>
       </c>
       <c r="G159" t="s">
         <v>12</v>
@@ -6810,18 +6996,18 @@
         <v>12</v>
       </c>
       <c r="I159" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>571</v>
+        <v>640</v>
       </c>
       <c r="B160" t="s">
-        <v>572</v>
+        <v>12</v>
       </c>
       <c r="C160" t="s">
-        <v>573</v>
+        <v>641</v>
       </c>
       <c r="D160" t="s">
         <v>12</v>
@@ -6830,7 +7016,7 @@
         <v>0.0</v>
       </c>
       <c r="F160" t="s">
-        <v>574</v>
+        <v>642</v>
       </c>
       <c r="G160" t="s">
         <v>12</v>
@@ -6839,18 +7025,18 @@
         <v>12</v>
       </c>
       <c r="I160" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>575</v>
+        <v>643</v>
       </c>
       <c r="B161" t="s">
-        <v>576</v>
+        <v>12</v>
       </c>
       <c r="C161" t="s">
-        <v>12</v>
+        <v>644</v>
       </c>
       <c r="D161" t="s">
         <v>12</v>
@@ -6859,7 +7045,7 @@
         <v>0.0</v>
       </c>
       <c r="F161" t="s">
-        <v>577</v>
+        <v>645</v>
       </c>
       <c r="G161" t="s">
         <v>12</v>
@@ -6868,18 +7054,18 @@
         <v>12</v>
       </c>
       <c r="I161" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>578</v>
+        <v>646</v>
       </c>
       <c r="B162" t="s">
         <v>12</v>
       </c>
       <c r="C162" t="s">
-        <v>579</v>
+        <v>647</v>
       </c>
       <c r="D162" t="s">
         <v>12</v>
@@ -6888,7 +7074,7 @@
         <v>0.0</v>
       </c>
       <c r="F162" t="s">
-        <v>580</v>
+        <v>648</v>
       </c>
       <c r="G162" t="s">
         <v>12</v>
@@ -6897,18 +7083,18 @@
         <v>12</v>
       </c>
       <c r="I162" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>581</v>
+        <v>649</v>
       </c>
       <c r="B163" t="s">
         <v>12</v>
       </c>
       <c r="C163" t="s">
-        <v>582</v>
+        <v>650</v>
       </c>
       <c r="D163" t="s">
         <v>12</v>
@@ -6917,7 +7103,7 @@
         <v>0.0</v>
       </c>
       <c r="F163" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="G163" t="s">
         <v>12</v>
@@ -6926,18 +7112,18 @@
         <v>12</v>
       </c>
       <c r="I163" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>584</v>
+        <v>652</v>
       </c>
       <c r="B164" t="s">
         <v>12</v>
       </c>
       <c r="C164" t="s">
-        <v>585</v>
+        <v>653</v>
       </c>
       <c r="D164" t="s">
         <v>12</v>
@@ -6946,7 +7132,7 @@
         <v>0.0</v>
       </c>
       <c r="F164" t="s">
-        <v>586</v>
+        <v>654</v>
       </c>
       <c r="G164" t="s">
         <v>12</v>
@@ -6955,18 +7141,18 @@
         <v>12</v>
       </c>
       <c r="I164" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>587</v>
+        <v>655</v>
       </c>
       <c r="B165" t="s">
         <v>12</v>
       </c>
       <c r="C165" t="s">
-        <v>588</v>
+        <v>656</v>
       </c>
       <c r="D165" t="s">
         <v>12</v>
@@ -6975,7 +7161,7 @@
         <v>0.0</v>
       </c>
       <c r="F165" t="s">
-        <v>589</v>
+        <v>657</v>
       </c>
       <c r="G165" t="s">
         <v>12</v>
@@ -6984,18 +7170,18 @@
         <v>12</v>
       </c>
       <c r="I165" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>590</v>
+        <v>658</v>
       </c>
       <c r="B166" t="s">
         <v>12</v>
       </c>
       <c r="C166" t="s">
-        <v>591</v>
+        <v>659</v>
       </c>
       <c r="D166" t="s">
         <v>12</v>
@@ -7004,7 +7190,7 @@
         <v>0.0</v>
       </c>
       <c r="F166" t="s">
-        <v>592</v>
+        <v>660</v>
       </c>
       <c r="G166" t="s">
         <v>12</v>
@@ -7013,18 +7199,18 @@
         <v>12</v>
       </c>
       <c r="I166" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>593</v>
+        <v>661</v>
       </c>
       <c r="B167" t="s">
         <v>12</v>
       </c>
       <c r="C167" t="s">
-        <v>594</v>
+        <v>662</v>
       </c>
       <c r="D167" t="s">
         <v>12</v>
@@ -7033,7 +7219,7 @@
         <v>0.0</v>
       </c>
       <c r="F167" t="s">
-        <v>595</v>
+        <v>663</v>
       </c>
       <c r="G167" t="s">
         <v>12</v>
@@ -7042,18 +7228,18 @@
         <v>12</v>
       </c>
       <c r="I167" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>596</v>
+        <v>664</v>
       </c>
       <c r="B168" t="s">
         <v>12</v>
       </c>
       <c r="C168" t="s">
-        <v>597</v>
+        <v>665</v>
       </c>
       <c r="D168" t="s">
         <v>12</v>
@@ -7062,7 +7248,7 @@
         <v>0.0</v>
       </c>
       <c r="F168" t="s">
-        <v>598</v>
+        <v>666</v>
       </c>
       <c r="G168" t="s">
         <v>12</v>
@@ -7071,18 +7257,18 @@
         <v>12</v>
       </c>
       <c r="I168" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>599</v>
+        <v>667</v>
       </c>
       <c r="B169" t="s">
         <v>12</v>
       </c>
       <c r="C169" t="s">
-        <v>600</v>
+        <v>668</v>
       </c>
       <c r="D169" t="s">
         <v>12</v>
@@ -7091,7 +7277,7 @@
         <v>0.0</v>
       </c>
       <c r="F169" t="s">
-        <v>601</v>
+        <v>669</v>
       </c>
       <c r="G169" t="s">
         <v>12</v>
@@ -7100,18 +7286,18 @@
         <v>12</v>
       </c>
       <c r="I169" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>602</v>
+        <v>670</v>
       </c>
       <c r="B170" t="s">
-        <v>12</v>
+        <v>671</v>
       </c>
       <c r="C170" t="s">
-        <v>603</v>
+        <v>12</v>
       </c>
       <c r="D170" t="s">
         <v>12</v>
@@ -7120,7 +7306,7 @@
         <v>0.0</v>
       </c>
       <c r="F170" t="s">
-        <v>604</v>
+        <v>672</v>
       </c>
       <c r="G170" t="s">
         <v>12</v>
@@ -7129,18 +7315,18 @@
         <v>12</v>
       </c>
       <c r="I170" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>605</v>
+        <v>673</v>
       </c>
       <c r="B171" t="s">
         <v>12</v>
       </c>
       <c r="C171" t="s">
-        <v>606</v>
+        <v>674</v>
       </c>
       <c r="D171" t="s">
         <v>12</v>
@@ -7149,7 +7335,7 @@
         <v>0.0</v>
       </c>
       <c r="F171" t="s">
-        <v>607</v>
+        <v>675</v>
       </c>
       <c r="G171" t="s">
         <v>12</v>
@@ -7158,18 +7344,18 @@
         <v>12</v>
       </c>
       <c r="I171" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>608</v>
+        <v>676</v>
       </c>
       <c r="B172" t="s">
-        <v>609</v>
+        <v>12</v>
       </c>
       <c r="C172" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D172" t="s">
         <v>12</v>
@@ -7178,7 +7364,7 @@
         <v>0.0</v>
       </c>
       <c r="F172" t="s">
-        <v>610</v>
+        <v>677</v>
       </c>
       <c r="G172" t="s">
         <v>12</v>
@@ -7187,18 +7373,18 @@
         <v>12</v>
       </c>
       <c r="I172" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>611</v>
+        <v>678</v>
       </c>
       <c r="B173" t="s">
         <v>12</v>
       </c>
       <c r="C173" t="s">
-        <v>612</v>
+        <v>679</v>
       </c>
       <c r="D173" t="s">
         <v>12</v>
@@ -7207,7 +7393,7 @@
         <v>0.0</v>
       </c>
       <c r="F173" t="s">
-        <v>613</v>
+        <v>680</v>
       </c>
       <c r="G173" t="s">
         <v>12</v>
@@ -7216,18 +7402,18 @@
         <v>12</v>
       </c>
       <c r="I173" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>614</v>
+        <v>681</v>
       </c>
       <c r="B174" t="s">
         <v>12</v>
       </c>
       <c r="C174" t="s">
-        <v>77</v>
+        <v>682</v>
       </c>
       <c r="D174" t="s">
         <v>12</v>
@@ -7236,7 +7422,7 @@
         <v>0.0</v>
       </c>
       <c r="F174" t="s">
-        <v>615</v>
+        <v>683</v>
       </c>
       <c r="G174" t="s">
         <v>12</v>
@@ -7245,18 +7431,18 @@
         <v>12</v>
       </c>
       <c r="I174" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>616</v>
+        <v>684</v>
       </c>
       <c r="B175" t="s">
         <v>12</v>
       </c>
       <c r="C175" t="s">
-        <v>617</v>
+        <v>685</v>
       </c>
       <c r="D175" t="s">
         <v>12</v>
@@ -7265,7 +7451,7 @@
         <v>0.0</v>
       </c>
       <c r="F175" t="s">
-        <v>618</v>
+        <v>686</v>
       </c>
       <c r="G175" t="s">
         <v>12</v>
@@ -7274,18 +7460,18 @@
         <v>12</v>
       </c>
       <c r="I175" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>619</v>
+        <v>687</v>
       </c>
       <c r="B176" t="s">
         <v>12</v>
       </c>
       <c r="C176" t="s">
-        <v>620</v>
+        <v>688</v>
       </c>
       <c r="D176" t="s">
         <v>12</v>
@@ -7294,7 +7480,7 @@
         <v>0.0</v>
       </c>
       <c r="F176" t="s">
-        <v>621</v>
+        <v>689</v>
       </c>
       <c r="G176" t="s">
         <v>12</v>
@@ -7303,18 +7489,18 @@
         <v>12</v>
       </c>
       <c r="I176" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>622</v>
+        <v>690</v>
       </c>
       <c r="B177" t="s">
         <v>12</v>
       </c>
       <c r="C177" t="s">
-        <v>623</v>
+        <v>691</v>
       </c>
       <c r="D177" t="s">
         <v>12</v>
@@ -7323,7 +7509,7 @@
         <v>0.0</v>
       </c>
       <c r="F177" t="s">
-        <v>624</v>
+        <v>692</v>
       </c>
       <c r="G177" t="s">
         <v>12</v>
@@ -7332,18 +7518,18 @@
         <v>12</v>
       </c>
       <c r="I177" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>625</v>
+        <v>693</v>
       </c>
       <c r="B178" t="s">
-        <v>12</v>
+        <v>694</v>
       </c>
       <c r="C178" t="s">
-        <v>626</v>
+        <v>695</v>
       </c>
       <c r="D178" t="s">
         <v>12</v>
@@ -7352,7 +7538,7 @@
         <v>0.0</v>
       </c>
       <c r="F178" t="s">
-        <v>627</v>
+        <v>696</v>
       </c>
       <c r="G178" t="s">
         <v>12</v>
@@ -7361,18 +7547,18 @@
         <v>12</v>
       </c>
       <c r="I178" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>628</v>
+        <v>697</v>
       </c>
       <c r="B179" t="s">
-        <v>12</v>
+        <v>698</v>
       </c>
       <c r="C179" t="s">
-        <v>629</v>
+        <v>699</v>
       </c>
       <c r="D179" t="s">
         <v>12</v>
@@ -7381,7 +7567,7 @@
         <v>0.0</v>
       </c>
       <c r="F179" t="s">
-        <v>630</v>
+        <v>700</v>
       </c>
       <c r="G179" t="s">
         <v>12</v>
@@ -7390,18 +7576,18 @@
         <v>12</v>
       </c>
       <c r="I179" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>631</v>
+        <v>701</v>
       </c>
       <c r="B180" t="s">
-        <v>632</v>
+        <v>12</v>
       </c>
       <c r="C180" t="s">
-        <v>633</v>
+        <v>702</v>
       </c>
       <c r="D180" t="s">
         <v>12</v>
@@ -7410,7 +7596,7 @@
         <v>0.0</v>
       </c>
       <c r="F180" t="s">
-        <v>634</v>
+        <v>703</v>
       </c>
       <c r="G180" t="s">
         <v>12</v>
@@ -7419,18 +7605,18 @@
         <v>12</v>
       </c>
       <c r="I180" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>635</v>
+        <v>704</v>
       </c>
       <c r="B181" t="s">
-        <v>636</v>
+        <v>12</v>
       </c>
       <c r="C181" t="s">
-        <v>637</v>
+        <v>705</v>
       </c>
       <c r="D181" t="s">
         <v>12</v>
@@ -7439,7 +7625,7 @@
         <v>0.0</v>
       </c>
       <c r="F181" t="s">
-        <v>638</v>
+        <v>706</v>
       </c>
       <c r="G181" t="s">
         <v>12</v>
@@ -7448,18 +7634,18 @@
         <v>12</v>
       </c>
       <c r="I181" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>639</v>
+        <v>707</v>
       </c>
       <c r="B182" t="s">
         <v>12</v>
       </c>
       <c r="C182" t="s">
-        <v>640</v>
+        <v>708</v>
       </c>
       <c r="D182" t="s">
         <v>12</v>
@@ -7468,7 +7654,7 @@
         <v>0.0</v>
       </c>
       <c r="F182" t="s">
-        <v>641</v>
+        <v>709</v>
       </c>
       <c r="G182" t="s">
         <v>12</v>
@@ -7477,18 +7663,18 @@
         <v>12</v>
       </c>
       <c r="I182" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>642</v>
+        <v>710</v>
       </c>
       <c r="B183" t="s">
-        <v>12</v>
+        <v>711</v>
       </c>
       <c r="C183" t="s">
-        <v>643</v>
+        <v>12</v>
       </c>
       <c r="D183" t="s">
         <v>12</v>
@@ -7497,7 +7683,7 @@
         <v>0.0</v>
       </c>
       <c r="F183" t="s">
-        <v>644</v>
+        <v>712</v>
       </c>
       <c r="G183" t="s">
         <v>12</v>
@@ -7506,18 +7692,18 @@
         <v>12</v>
       </c>
       <c r="I183" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>645</v>
+        <v>713</v>
       </c>
       <c r="B184" t="s">
         <v>12</v>
       </c>
       <c r="C184" t="s">
-        <v>646</v>
+        <v>714</v>
       </c>
       <c r="D184" t="s">
         <v>12</v>
@@ -7526,7 +7712,7 @@
         <v>0.0</v>
       </c>
       <c r="F184" t="s">
-        <v>647</v>
+        <v>715</v>
       </c>
       <c r="G184" t="s">
         <v>12</v>
@@ -7535,65 +7721,7 @@
         <v>12</v>
       </c>
       <c r="I184" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="s">
-        <v>648</v>
-      </c>
-      <c r="B185" t="s">
-        <v>649</v>
-      </c>
-      <c r="C185" t="s">
-        <v>12</v>
-      </c>
-      <c r="D185" t="s">
-        <v>12</v>
-      </c>
-      <c r="E185" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F185" t="s">
-        <v>650</v>
-      </c>
-      <c r="G185" t="s">
-        <v>12</v>
-      </c>
-      <c r="H185" t="s">
-        <v>12</v>
-      </c>
-      <c r="I185" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="s">
-        <v>651</v>
-      </c>
-      <c r="B186" t="s">
-        <v>12</v>
-      </c>
-      <c r="C186" t="s">
-        <v>652</v>
-      </c>
-      <c r="D186" t="s">
-        <v>12</v>
-      </c>
-      <c r="E186" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F186" t="s">
-        <v>653</v>
-      </c>
-      <c r="G186" t="s">
-        <v>12</v>
-      </c>
-      <c r="H186" t="s">
-        <v>12</v>
-      </c>
-      <c r="I186" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -7611,7 +7739,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>654</v>
+        <v>716</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
@@ -7619,7 +7747,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>655</v>
+        <v>717</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
@@ -7627,7 +7755,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>656</v>
+        <v>718</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -7635,7 +7763,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>657</v>
+        <v>719</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -7643,7 +7771,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>658</v>
+        <v>720</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -7651,7 +7779,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>659</v>
+        <v>721</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -7659,7 +7787,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>660</v>
+        <v>722</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -7667,7 +7795,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>661</v>
+        <v>723</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -7675,7 +7803,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>662</v>
+        <v>724</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -7683,7 +7811,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>663</v>
+        <v>725</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
@@ -7691,7 +7819,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>664</v>
+        <v>726</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -7699,7 +7827,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>665</v>
+        <v>727</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -7707,7 +7835,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>666</v>
+        <v>728</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
@@ -7715,7 +7843,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>667</v>
+        <v>729</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
@@ -7723,7 +7851,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>668</v>
+        <v>730</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
@@ -7731,7 +7859,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>669</v>
+        <v>731</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
@@ -7739,7 +7867,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>670</v>
+        <v>732</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
@@ -7747,7 +7875,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>671</v>
+        <v>733</v>
       </c>
       <c r="B18" t="s">
         <v>12</v>
@@ -7755,7 +7883,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>672</v>
+        <v>734</v>
       </c>
       <c r="B19" t="s">
         <v>12</v>
@@ -7763,7 +7891,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>673</v>
+        <v>735</v>
       </c>
       <c r="B20" t="s">
         <v>12</v>
@@ -7771,7 +7899,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>674</v>
+        <v>736</v>
       </c>
       <c r="B21" t="s">
         <v>12</v>
@@ -7779,7 +7907,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>675</v>
+        <v>737</v>
       </c>
       <c r="B22" t="s">
         <v>12</v>
@@ -7787,7 +7915,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>676</v>
+        <v>738</v>
       </c>
       <c r="B23" t="s">
         <v>12</v>
@@ -7795,7 +7923,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>677</v>
+        <v>739</v>
       </c>
       <c r="B24" t="s">
         <v>12</v>
@@ -7803,55 +7931,55 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>678</v>
+        <v>740</v>
       </c>
       <c r="B25" t="s">
-        <v>679</v>
+        <v>741</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>680</v>
+        <v>742</v>
       </c>
       <c r="B26" t="s">
-        <v>679</v>
+        <v>741</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>681</v>
+        <v>743</v>
       </c>
       <c r="B27" t="s">
-        <v>679</v>
+        <v>741</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>682</v>
+        <v>744</v>
       </c>
       <c r="B28" t="s">
-        <v>679</v>
+        <v>741</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>683</v>
+        <v>745</v>
       </c>
       <c r="B29" t="s">
-        <v>679</v>
+        <v>741</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>684</v>
+        <v>746</v>
       </c>
       <c r="B30" t="s">
-        <v>679</v>
+        <v>741</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>685</v>
+        <v>747</v>
       </c>
       <c r="B31" t="s">
         <v>12</v>
@@ -7859,7 +7987,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>686</v>
+        <v>748</v>
       </c>
       <c r="B32" t="s">
         <v>12</v>
@@ -7867,7 +7995,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>687</v>
+        <v>749</v>
       </c>
       <c r="B33" t="s">
         <v>12</v>
@@ -7875,7 +8003,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>688</v>
+        <v>750</v>
       </c>
       <c r="B34" t="s">
         <v>12</v>
@@ -7883,7 +8011,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>689</v>
+        <v>751</v>
       </c>
       <c r="B35" t="s">
         <v>12</v>
@@ -7891,7 +8019,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>690</v>
+        <v>752</v>
       </c>
       <c r="B36" t="s">
         <v>12</v>
@@ -7899,7 +8027,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>691</v>
+        <v>753</v>
       </c>
       <c r="B37" t="s">
         <v>12</v>
@@ -7907,7 +8035,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>692</v>
+        <v>754</v>
       </c>
       <c r="B38" t="s">
         <v>12</v>
@@ -7915,7 +8043,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>693</v>
+        <v>755</v>
       </c>
       <c r="B39" t="s">
         <v>12</v>
@@ -7923,7 +8051,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>694</v>
+        <v>756</v>
       </c>
       <c r="B40" t="s">
         <v>12</v>
@@ -7931,15 +8059,15 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>695</v>
+        <v>757</v>
       </c>
       <c r="B41" t="s">
-        <v>679</v>
+        <v>741</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>696</v>
+        <v>758</v>
       </c>
       <c r="B42" t="s">
         <v>12</v>
@@ -7947,15 +8075,15 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>697</v>
+        <v>759</v>
       </c>
       <c r="B43" t="s">
-        <v>679</v>
+        <v>741</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>698</v>
+        <v>760</v>
       </c>
       <c r="B44" t="s">
         <v>12</v>
@@ -7963,15 +8091,15 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>699</v>
+        <v>761</v>
       </c>
       <c r="B45" t="s">
-        <v>679</v>
+        <v>741</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>700</v>
+        <v>762</v>
       </c>
       <c r="B46" t="s">
         <v>12</v>
@@ -7979,7 +8107,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>701</v>
+        <v>763</v>
       </c>
       <c r="B47" t="s">
         <v>12</v>
@@ -7987,7 +8115,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>702</v>
+        <v>764</v>
       </c>
       <c r="B48" t="s">
         <v>12</v>
@@ -7995,31 +8123,31 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>703</v>
+        <v>765</v>
       </c>
       <c r="B49" t="s">
-        <v>704</v>
+        <v>766</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>705</v>
+        <v>767</v>
       </c>
       <c r="B50" t="s">
-        <v>704</v>
+        <v>766</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>706</v>
+        <v>768</v>
       </c>
       <c r="B51" t="s">
-        <v>704</v>
+        <v>766</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>707</v>
+        <v>769</v>
       </c>
       <c r="B52" t="s">
         <v>12</v>
@@ -8027,7 +8155,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>708</v>
+        <v>770</v>
       </c>
       <c r="B53" t="s">
         <v>12</v>
@@ -8035,23 +8163,23 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>709</v>
+        <v>771</v>
       </c>
       <c r="B54" t="s">
-        <v>704</v>
+        <v>766</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>710</v>
+        <v>772</v>
       </c>
       <c r="B55" t="s">
-        <v>704</v>
+        <v>766</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>711</v>
+        <v>773</v>
       </c>
       <c r="B56" t="s">
         <v>12</v>
@@ -8059,7 +8187,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>712</v>
+        <v>774</v>
       </c>
       <c r="B57" t="s">
         <v>12</v>

--- a/export.xlsx
+++ b/export.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1587" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1587" uniqueCount="811">
   <si>
     <t>Word</t>
   </si>
@@ -69,15 +69,18 @@
     <t>2021-10-28 00:20:53.145209</t>
   </si>
   <si>
+    <t>2021-12-02 21:47:56.87</t>
+  </si>
+  <si>
+    <t>viral</t>
+  </si>
+  <si>
+    <t>2021-10-28 00:21:46.896188</t>
+  </si>
+  <si>
     <t>2021-11-29 22:02:08.443</t>
   </si>
   <si>
-    <t>viral</t>
-  </si>
-  <si>
-    <t>2021-10-28 00:21:46.896188</t>
-  </si>
-  <si>
     <t>withstand</t>
   </si>
   <si>
@@ -111,7 +114,7 @@
     <t>2021-10-28 00:24:13.455505</t>
   </si>
   <si>
-    <t>2021-11-29 22:03:28.057</t>
+    <t>2021-12-03 02:00:22.22</t>
   </si>
   <si>
     <t>onerous</t>
@@ -126,7 +129,7 @@
     <t>2021-10-28 00:24:53.2341</t>
   </si>
   <si>
-    <t>2021-11-29 22:04:15.159</t>
+    <t>2021-12-03 02:00:33.889</t>
   </si>
   <si>
     <t>virulent</t>
@@ -138,7 +141,7 @@
     <t>2021-10-28 00:26:02.442121</t>
   </si>
   <si>
-    <t>2021-11-29 22:04:18.628</t>
+    <t>2021-12-03 02:00:39.65</t>
   </si>
   <si>
     <t>allege</t>
@@ -150,7 +153,7 @@
     <t>2021-10-28 00:26:52.852899</t>
   </si>
   <si>
-    <t>2021-11-29 22:04:26.305</t>
+    <t>2021-12-03 02:00:44.816</t>
   </si>
   <si>
     <t>plead</t>
@@ -186,7 +189,7 @@
     <t>2021-10-28 00:30:28.958497</t>
   </si>
   <si>
-    <t>2021-11-29 22:04:30.583</t>
+    <t>2021-12-03 02:00:50.583</t>
   </si>
   <si>
     <t>consent</t>
@@ -252,7 +255,7 @@
     <t>2021-11-05 23:10:54.925723</t>
   </si>
   <si>
-    <t>2021-11-29 22:03:17.797</t>
+    <t>2021-12-03 02:00:16.135</t>
   </si>
   <si>
     <t>ramification</t>
@@ -291,345 +294,351 @@
     <t>2021-11-05 23:17:05.669846</t>
   </si>
   <si>
+    <t>2021-12-02 21:47:41.182</t>
+  </si>
+  <si>
+    <t>peddle</t>
+  </si>
+  <si>
+    <t>sell;advocate</t>
+  </si>
+  <si>
+    <t>2021-11-05 23:18:45.861368</t>
+  </si>
+  <si>
+    <t>2021-11-29 22:04:07.778</t>
+  </si>
+  <si>
+    <t>fallacy</t>
+  </si>
+  <si>
+    <t>a mistaken belief, especially one based on unsound arguments</t>
+  </si>
+  <si>
+    <t>misconception</t>
+  </si>
+  <si>
+    <t>2021-11-05 23:19:33.647009</t>
+  </si>
+  <si>
+    <t>stupor</t>
+  </si>
+  <si>
+    <t>a state of near-unconsciousness or insensibility</t>
+  </si>
+  <si>
+    <t>daze</t>
+  </si>
+  <si>
+    <t>2021-11-05 23:20:57.383103</t>
+  </si>
+  <si>
+    <t>2021-11-29 22:04:10.995</t>
+  </si>
+  <si>
+    <t>foyer</t>
+  </si>
+  <si>
+    <t>entrance hall</t>
+  </si>
+  <si>
+    <t>2021-11-05 23:21:33.130184</t>
+  </si>
+  <si>
+    <t>pundit</t>
+  </si>
+  <si>
+    <t>expert</t>
+  </si>
+  <si>
+    <t>2021-11-05 23:23:13.008626</t>
+  </si>
+  <si>
+    <t>lambast</t>
+  </si>
+  <si>
+    <t>criticize harshly</t>
+  </si>
+  <si>
+    <t>2021-11-05 23:26:18.659339</t>
+  </si>
+  <si>
+    <t>2021-12-03 02:00:27.523</t>
+  </si>
+  <si>
+    <t>soar</t>
+  </si>
+  <si>
+    <t>increasing rapidly above the usual level</t>
+  </si>
+  <si>
+    <t>fly up</t>
+  </si>
+  <si>
+    <t>2021-11-05 23:27:02.200839</t>
+  </si>
+  <si>
+    <t>2021-11-29 22:03:56.882</t>
+  </si>
+  <si>
+    <t>intact</t>
+  </si>
+  <si>
+    <t>not damaged or impaired in any way; complete</t>
+  </si>
+  <si>
+    <t>whole</t>
+  </si>
+  <si>
+    <t>2021-11-05 23:27:50.644715</t>
+  </si>
+  <si>
+    <t>shoddy</t>
+  </si>
+  <si>
+    <t>careless;poor-quality</t>
+  </si>
+  <si>
+    <t>2021-11-05 23:28:42.360492</t>
+  </si>
+  <si>
+    <t>2021-12-02 21:48:04.243</t>
+  </si>
+  <si>
+    <t>tattered</t>
+  </si>
+  <si>
+    <t>old and torn; in poor condition</t>
+  </si>
+  <si>
+    <t>2021-11-05 23:30:10.930195</t>
+  </si>
+  <si>
+    <t>inherent</t>
+  </si>
+  <si>
+    <t>existing in something as a permanent, essential, or characteristic attribute</t>
+  </si>
+  <si>
+    <t>intrinsic</t>
+  </si>
+  <si>
+    <t>2021-11-05 23:31:22.01212</t>
+  </si>
+  <si>
+    <t>2021-12-03 02:08:15.99</t>
+  </si>
+  <si>
+    <t>decry</t>
+  </si>
+  <si>
+    <t>denounce</t>
+  </si>
+  <si>
+    <t>2021-11-05 23:32:11.165969</t>
+  </si>
+  <si>
+    <t>2021-12-02 21:47:42.785</t>
+  </si>
+  <si>
+    <t>frenetic</t>
+  </si>
+  <si>
+    <t>fast and energetic in a rather wild and uncontrolled way</t>
+  </si>
+  <si>
+    <t>frantic</t>
+  </si>
+  <si>
+    <t>2021-11-05 23:32:57.751058</t>
+  </si>
+  <si>
+    <t>gusto</t>
+  </si>
+  <si>
+    <t>the style in which a work of art is executed</t>
+  </si>
+  <si>
+    <t>enthusiasm</t>
+  </si>
+  <si>
+    <t>2021-11-08 14:34:59.677307</t>
+  </si>
+  <si>
+    <t>2021-12-02 19:58:50.021</t>
+  </si>
+  <si>
+    <t>alienate</t>
+  </si>
+  <si>
+    <t>make someone feel isolated</t>
+  </si>
+  <si>
+    <t>estrange</t>
+  </si>
+  <si>
+    <t>2021-11-08 14:37:25.701754</t>
+  </si>
+  <si>
+    <t>2021-12-03 02:08:21.746</t>
+  </si>
+  <si>
+    <t>prohibited</t>
+  </si>
+  <si>
+    <t>forbidden;banned</t>
+  </si>
+  <si>
+    <t>2021-11-08 14:40:15.766459</t>
+  </si>
+  <si>
+    <t>2021-11-29 22:05:54.962</t>
+  </si>
+  <si>
+    <t>sluggish</t>
+  </si>
+  <si>
+    <t>inactive;lethargic</t>
+  </si>
+  <si>
+    <t>2021-11-08 14:41:09.287054</t>
+  </si>
+  <si>
+    <t>2021-12-03 02:08:25.981</t>
+  </si>
+  <si>
+    <t>squander</t>
+  </si>
+  <si>
+    <t>waste (smth, money or time) in a reckless and foolish manner</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>2021-11-08 14:42:16.776324</t>
+  </si>
+  <si>
+    <t>2021-12-03 02:02:21.614</t>
+  </si>
+  <si>
+    <t>resort</t>
+  </si>
+  <si>
+    <t>the action of resorting to a course of action in a difficult situation</t>
+  </si>
+  <si>
+    <t>recourse to</t>
+  </si>
+  <si>
+    <t>2021-11-08 14:45:39.384019</t>
+  </si>
+  <si>
+    <t>2021-12-03 02:07:54.377</t>
+  </si>
+  <si>
+    <t>unencumbered</t>
+  </si>
+  <si>
+    <t>not having any burden or impediment</t>
+  </si>
+  <si>
+    <t>2021-11-08 15:22:42.07474</t>
+  </si>
+  <si>
+    <t>overstate</t>
+  </si>
+  <si>
+    <t>exaggerate</t>
+  </si>
+  <si>
+    <t>2021-11-08 15:23:33.010293</t>
+  </si>
+  <si>
+    <t>2021-12-03 02:00:55.814</t>
+  </si>
+  <si>
+    <t>indulgence</t>
+  </si>
+  <si>
+    <t>self-gratification;satisfaction</t>
+  </si>
+  <si>
+    <t>2021-11-08 15:24:51.995295</t>
+  </si>
+  <si>
+    <t>2021-12-03 02:08:00.01</t>
+  </si>
+  <si>
+    <t>seclude</t>
+  </si>
+  <si>
+    <t>keep away from other people</t>
+  </si>
+  <si>
+    <t>2021-11-08 15:26:42.806568</t>
+  </si>
+  <si>
+    <t>succinctly</t>
+  </si>
+  <si>
+    <t>in a brief and clearly expressed manner</t>
+  </si>
+  <si>
+    <t>2021-11-08 15:27:57.83616</t>
+  </si>
+  <si>
+    <t>regurgitate</t>
+  </si>
+  <si>
+    <t>repeat (information) without analysing or comprehending it</t>
+  </si>
+  <si>
+    <t>repeat;vomit</t>
+  </si>
+  <si>
+    <t>2021-11-08 15:29:39.70152</t>
+  </si>
+  <si>
+    <t>2021-11-29 22:05:06.556</t>
+  </si>
+  <si>
+    <t>relay</t>
+  </si>
+  <si>
+    <t>broadcast</t>
+  </si>
+  <si>
+    <t>2021-11-08 15:30:03.209906</t>
+  </si>
+  <si>
+    <t>2021-12-03 02:08:30.38</t>
+  </si>
+  <si>
+    <t>vie</t>
+  </si>
+  <si>
+    <t>compete</t>
+  </si>
+  <si>
+    <t>2021-11-08 15:30:25.468885</t>
+  </si>
+  <si>
+    <t>2021-11-29 22:06:38.853</t>
+  </si>
+  <si>
+    <t>banter</t>
+  </si>
+  <si>
+    <t>the playful and friendly exchange of teasing remarks</t>
+  </si>
+  <si>
+    <t>2021-11-08 15:31:22.058593</t>
+  </si>
+  <si>
     <t>2021-11-29 22:02:05.701</t>
   </si>
   <si>
-    <t>peddle</t>
-  </si>
-  <si>
-    <t>sell;advocate</t>
-  </si>
-  <si>
-    <t>2021-11-05 23:18:45.861368</t>
-  </si>
-  <si>
-    <t>2021-11-29 22:04:07.778</t>
-  </si>
-  <si>
-    <t>fallacy</t>
-  </si>
-  <si>
-    <t>a mistaken belief, especially one based on unsound arguments</t>
-  </si>
-  <si>
-    <t>misconception</t>
-  </si>
-  <si>
-    <t>2021-11-05 23:19:33.647009</t>
-  </si>
-  <si>
-    <t>stupor</t>
-  </si>
-  <si>
-    <t>a state of near-unconsciousness or insensibility</t>
-  </si>
-  <si>
-    <t>daze</t>
-  </si>
-  <si>
-    <t>2021-11-05 23:20:57.383103</t>
-  </si>
-  <si>
-    <t>2021-11-29 22:04:10.995</t>
-  </si>
-  <si>
-    <t>foyer</t>
-  </si>
-  <si>
-    <t>entrance hall</t>
-  </si>
-  <si>
-    <t>2021-11-05 23:21:33.130184</t>
-  </si>
-  <si>
-    <t>pundit</t>
-  </si>
-  <si>
-    <t>expert</t>
-  </si>
-  <si>
-    <t>2021-11-05 23:23:13.008626</t>
-  </si>
-  <si>
-    <t>lambast</t>
-  </si>
-  <si>
-    <t>criticize harshly</t>
-  </si>
-  <si>
-    <t>2021-11-05 23:26:18.659339</t>
-  </si>
-  <si>
-    <t>2021-11-29 22:03:42.941</t>
-  </si>
-  <si>
-    <t>soar</t>
-  </si>
-  <si>
-    <t>increasing rapidly above the usual level</t>
-  </si>
-  <si>
-    <t>fly up</t>
-  </si>
-  <si>
-    <t>2021-11-05 23:27:02.200839</t>
-  </si>
-  <si>
-    <t>2021-11-29 22:03:56.882</t>
-  </si>
-  <si>
-    <t>intact</t>
-  </si>
-  <si>
-    <t>not damaged or impaired in any way; complete</t>
-  </si>
-  <si>
-    <t>whole</t>
-  </si>
-  <si>
-    <t>2021-11-05 23:27:50.644715</t>
-  </si>
-  <si>
-    <t>shoddy</t>
-  </si>
-  <si>
-    <t>careless;poor-quality</t>
-  </si>
-  <si>
-    <t>2021-11-05 23:28:42.360492</t>
-  </si>
-  <si>
-    <t>2021-11-29 22:04:48.069</t>
-  </si>
-  <si>
-    <t>tattered</t>
-  </si>
-  <si>
-    <t>old and torn; in poor condition</t>
-  </si>
-  <si>
-    <t>2021-11-05 23:30:10.930195</t>
-  </si>
-  <si>
-    <t>inherent</t>
-  </si>
-  <si>
-    <t>existing in something as a permanent, essential, or characteristic attribute</t>
-  </si>
-  <si>
-    <t>intrinsic</t>
-  </si>
-  <si>
-    <t>2021-11-05 23:31:22.01212</t>
-  </si>
-  <si>
-    <t>2021-11-29 22:05:32.688</t>
-  </si>
-  <si>
-    <t>decry</t>
-  </si>
-  <si>
-    <t>denounce</t>
-  </si>
-  <si>
-    <t>2021-11-05 23:32:11.165969</t>
-  </si>
-  <si>
-    <t>frenetic</t>
-  </si>
-  <si>
-    <t>fast and energetic in a rather wild and uncontrolled way</t>
-  </si>
-  <si>
-    <t>frantic</t>
-  </si>
-  <si>
-    <t>2021-11-05 23:32:57.751058</t>
-  </si>
-  <si>
-    <t>gusto</t>
-  </si>
-  <si>
-    <t>the style in which a work of art is executed</t>
-  </si>
-  <si>
-    <t>enthusiasm</t>
-  </si>
-  <si>
-    <t>2021-11-08 14:34:59.677307</t>
-  </si>
-  <si>
-    <t>2021-12-02 19:58:50.021</t>
-  </si>
-  <si>
-    <t>alienate</t>
-  </si>
-  <si>
-    <t>make someone feel isolated</t>
-  </si>
-  <si>
-    <t>estrange</t>
-  </si>
-  <si>
-    <t>2021-11-08 14:37:25.701754</t>
-  </si>
-  <si>
-    <t>2021-11-29 22:05:47.665</t>
-  </si>
-  <si>
-    <t>prohibited</t>
-  </si>
-  <si>
-    <t>forbidden;banned</t>
-  </si>
-  <si>
-    <t>2021-11-08 14:40:15.766459</t>
-  </si>
-  <si>
-    <t>2021-11-29 22:05:54.962</t>
-  </si>
-  <si>
-    <t>sluggish</t>
-  </si>
-  <si>
-    <t>inactive;lethargic</t>
-  </si>
-  <si>
-    <t>2021-11-08 14:41:09.287054</t>
-  </si>
-  <si>
-    <t>2021-11-29 22:05:51.655</t>
-  </si>
-  <si>
-    <t>squander</t>
-  </si>
-  <si>
-    <t>waste (smth, money or time) in a reckless and foolish manner</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>2021-11-08 14:42:16.776324</t>
-  </si>
-  <si>
-    <t>2021-11-29 22:05:13.845</t>
-  </si>
-  <si>
-    <t>resort</t>
-  </si>
-  <si>
-    <t>the action of resorting to a course of action in a difficult situation</t>
-  </si>
-  <si>
-    <t>recourse to</t>
-  </si>
-  <si>
-    <t>2021-11-08 14:45:39.384019</t>
-  </si>
-  <si>
-    <t>2021-11-29 22:05:18.054</t>
-  </si>
-  <si>
-    <t>unencumbered</t>
-  </si>
-  <si>
-    <t>not having any burden or impediment</t>
-  </si>
-  <si>
-    <t>2021-11-08 15:22:42.07474</t>
-  </si>
-  <si>
-    <t>overstate</t>
-  </si>
-  <si>
-    <t>exaggerate</t>
-  </si>
-  <si>
-    <t>2021-11-08 15:23:33.010293</t>
-  </si>
-  <si>
-    <t>2021-11-29 22:05:00.852</t>
-  </si>
-  <si>
-    <t>indulgence</t>
-  </si>
-  <si>
-    <t>self-gratification;satisfaction</t>
-  </si>
-  <si>
-    <t>2021-11-08 15:24:51.995295</t>
-  </si>
-  <si>
-    <t>2021-11-29 22:05:26.723</t>
-  </si>
-  <si>
-    <t>seclude</t>
-  </si>
-  <si>
-    <t>keep away from other people</t>
-  </si>
-  <si>
-    <t>2021-11-08 15:26:42.806568</t>
-  </si>
-  <si>
-    <t>succinctly</t>
-  </si>
-  <si>
-    <t>in a brief and clearly expressed manner</t>
-  </si>
-  <si>
-    <t>2021-11-08 15:27:57.83616</t>
-  </si>
-  <si>
-    <t>regurgitate</t>
-  </si>
-  <si>
-    <t>repeat (information) without analysing or comprehending it</t>
-  </si>
-  <si>
-    <t>repeat;vomit</t>
-  </si>
-  <si>
-    <t>2021-11-08 15:29:39.70152</t>
-  </si>
-  <si>
-    <t>2021-11-29 22:05:06.556</t>
-  </si>
-  <si>
-    <t>relay</t>
-  </si>
-  <si>
-    <t>broadcast</t>
-  </si>
-  <si>
-    <t>2021-11-08 15:30:03.209906</t>
-  </si>
-  <si>
-    <t>2021-11-29 22:06:03.529</t>
-  </si>
-  <si>
-    <t>vie</t>
-  </si>
-  <si>
-    <t>compete</t>
-  </si>
-  <si>
-    <t>2021-11-08 15:30:25.468885</t>
-  </si>
-  <si>
-    <t>2021-11-29 22:06:38.853</t>
-  </si>
-  <si>
-    <t>banter</t>
-  </si>
-  <si>
-    <t>the playful and friendly exchange of teasing remarks</t>
-  </si>
-  <si>
-    <t>2021-11-08 15:31:22.058593</t>
-  </si>
-  <si>
     <t>extraneous</t>
   </si>
   <si>
@@ -693,7 +702,7 @@
     <t>2021-11-08 15:50:34.203325</t>
   </si>
   <si>
-    <t>2021-11-29 22:06:30.538</t>
+    <t>2021-12-03 02:08:52.663</t>
   </si>
   <si>
     <t>spawn</t>
@@ -717,7 +726,7 @@
     <t>2021-11-08 15:52:22.915598</t>
   </si>
   <si>
-    <t>2021-11-29 22:06:33.988</t>
+    <t>2021-12-03 02:09:10.734</t>
   </si>
   <si>
     <t>haphazardly</t>
@@ -738,7 +747,7 @@
     <t>2021-11-08 15:53:47.634352</t>
   </si>
   <si>
-    <t>2021-11-29 22:06:14.721</t>
+    <t>2021-12-03 02:08:37.342</t>
   </si>
   <si>
     <t>dreary</t>
@@ -762,7 +771,7 @@
     <t>2021-11-08 16:05:57.511115</t>
   </si>
   <si>
-    <t>2021-11-29 22:06:23.381</t>
+    <t>2021-12-03 02:08:42.231</t>
   </si>
   <si>
     <t>camaraderie</t>
@@ -789,9 +798,6 @@
     <t>2021-11-08 16:07:56.923287</t>
   </si>
   <si>
-    <t>2021-12-02 19:51:25.595</t>
-  </si>
-  <si>
     <t>mores</t>
   </si>
   <si>
@@ -951,9 +957,6 @@
     <t>2021-11-14 16:39:12.99207</t>
   </si>
   <si>
-    <t>2021-12-02 19:54:22.74</t>
-  </si>
-  <si>
     <t>disengage</t>
   </si>
   <si>
@@ -1005,9 +1008,6 @@
     <t>2021-11-14 20:15:38.955425</t>
   </si>
   <si>
-    <t>2021-12-02 19:54:03.999</t>
-  </si>
-  <si>
     <t>cumulatively</t>
   </si>
   <si>
@@ -1053,7 +1053,7 @@
     <t>2021-11-14 20:18:50.405149</t>
   </si>
   <si>
-    <t>2021-12-02 19:56:19.588</t>
+    <t>2021-12-03 01:46:45.375</t>
   </si>
   <si>
     <t>machismo</t>
@@ -1368,9 +1368,6 @@
     <t>2021-11-17 12:58:17.961835</t>
   </si>
   <si>
-    <t>2021-12-02 19:58:30.635</t>
-  </si>
-  <si>
     <t>deteriorate</t>
   </si>
   <si>
@@ -1440,7 +1437,7 @@
     <t>2021-11-18 13:38:55.766952</t>
   </si>
   <si>
-    <t>2021-12-02 20:00:30.104</t>
+    <t>2021-12-02 21:48:04.927</t>
   </si>
   <si>
     <t>coalesce</t>
@@ -1689,6 +1686,9 @@
     <t>2021-11-20 15:03:49.858279</t>
   </si>
   <si>
+    <t>2021-12-03 01:33:39.499</t>
+  </si>
+  <si>
     <t>condense</t>
   </si>
   <si>
@@ -1707,6 +1707,9 @@
     <t>2021-11-20 15:05:21.928371</t>
   </si>
   <si>
+    <t>2021-12-03 01:33:44.684</t>
+  </si>
+  <si>
     <t>sentiment</t>
   </si>
   <si>
@@ -1719,6 +1722,9 @@
     <t>2021-11-20 15:06:18.444516</t>
   </si>
   <si>
+    <t>2021-12-03 01:33:49.63</t>
+  </si>
+  <si>
     <t>fuming</t>
   </si>
   <si>
@@ -1749,6 +1755,9 @@
     <t>2021-11-20 15:10:17.940034</t>
   </si>
   <si>
+    <t>2021-12-03 01:33:22.668</t>
+  </si>
+  <si>
     <t>unsolicited</t>
   </si>
   <si>
@@ -1761,6 +1770,9 @@
     <t>2021-11-20 15:12:00.23661</t>
   </si>
   <si>
+    <t>2021-12-03 01:33:35.431</t>
+  </si>
+  <si>
     <t>resemble</t>
   </si>
   <si>
@@ -1779,6 +1791,9 @@
     <t>2021-11-20 22:32:31.286541</t>
   </si>
   <si>
+    <t>2021-12-03 01:33:53.435</t>
+  </si>
+  <si>
     <t>swerve</t>
   </si>
   <si>
@@ -1791,6 +1806,9 @@
     <t>2021-11-20 22:33:54.608594</t>
   </si>
   <si>
+    <t>2021-12-03 01:33:26.853</t>
+  </si>
+  <si>
     <t>magnum opus</t>
   </si>
   <si>
@@ -1809,6 +1827,9 @@
     <t>2021-11-20 22:36:48.436207</t>
   </si>
   <si>
+    <t>2021-12-02 21:47:48.914</t>
+  </si>
+  <si>
     <t>windfall</t>
   </si>
   <si>
@@ -1827,6 +1848,9 @@
     <t>2021-11-20 22:53:43.81857</t>
   </si>
   <si>
+    <t>2021-12-03 01:33:10.958</t>
+  </si>
+  <si>
     <t>diligently</t>
   </si>
   <si>
@@ -1845,6 +1869,9 @@
     <t>2021-11-20 22:56:23.511821</t>
   </si>
   <si>
+    <t>2021-12-03 01:33:56.829</t>
+  </si>
+  <si>
     <t>parable</t>
   </si>
   <si>
@@ -1854,6 +1881,9 @@
     <t>2021-11-20 22:57:34.943717</t>
   </si>
   <si>
+    <t>2021-12-03 01:55:55.243</t>
+  </si>
+  <si>
     <t>arbitrary</t>
   </si>
   <si>
@@ -1863,6 +1893,9 @@
     <t>2021-11-20 22:59:11.038374</t>
   </si>
   <si>
+    <t>2021-12-03 01:55:58.844</t>
+  </si>
+  <si>
     <t>commend</t>
   </si>
   <si>
@@ -1872,6 +1905,9 @@
     <t>2021-11-21 01:33:34.024977</t>
   </si>
   <si>
+    <t>2021-12-03 01:56:03.364</t>
+  </si>
+  <si>
     <t>lofty</t>
   </si>
   <si>
@@ -1884,6 +1920,9 @@
     <t>2021-11-21 01:37:45.61954</t>
   </si>
   <si>
+    <t>2021-12-03 01:38:49.578</t>
+  </si>
+  <si>
     <t>exquisite</t>
   </si>
   <si>
@@ -1893,6 +1932,9 @@
     <t>2021-11-21 01:40:30.434507</t>
   </si>
   <si>
+    <t>2021-12-03 01:39:00.858</t>
+  </si>
+  <si>
     <t>testament</t>
   </si>
   <si>
@@ -1905,6 +1947,9 @@
     <t>2021-11-21 01:42:51.007418</t>
   </si>
   <si>
+    <t>2021-12-03 01:34:25.902</t>
+  </si>
+  <si>
     <t>rebate</t>
   </si>
   <si>
@@ -1914,6 +1959,9 @@
     <t>2021-11-21 01:45:40.307321</t>
   </si>
   <si>
+    <t>2021-12-03 01:37:19.781</t>
+  </si>
+  <si>
     <t>endearing</t>
   </si>
   <si>
@@ -1926,6 +1974,9 @@
     <t>2021-11-21 01:47:26.543202</t>
   </si>
   <si>
+    <t>2021-12-03 01:38:45.609</t>
+  </si>
+  <si>
     <t>inexorably</t>
   </si>
   <si>
@@ -1944,6 +1995,9 @@
     <t>2021-11-21 01:50:37.353601</t>
   </si>
   <si>
+    <t>2021-12-03 01:34:18.685</t>
+  </si>
+  <si>
     <t>affliction</t>
   </si>
   <si>
@@ -1953,6 +2007,9 @@
     <t>2021-11-21 01:54:32.607089</t>
   </si>
   <si>
+    <t>2021-12-03 01:55:35.65</t>
+  </si>
+  <si>
     <t>purge</t>
   </si>
   <si>
@@ -1962,6 +2019,9 @@
     <t>2021-11-21 01:56:39.679729</t>
   </si>
   <si>
+    <t>2021-12-03 01:36:23.173</t>
+  </si>
+  <si>
     <t>opulent</t>
   </si>
   <si>
@@ -1971,6 +2031,9 @@
     <t>2021-11-21 15:33:36.099685</t>
   </si>
   <si>
+    <t>2021-12-03 01:37:10.603</t>
+  </si>
+  <si>
     <t>trait</t>
   </si>
   <si>
@@ -1980,6 +2043,9 @@
     <t>2021-11-21 15:35:43.609799</t>
   </si>
   <si>
+    <t>2021-12-03 01:38:52.904</t>
+  </si>
+  <si>
     <t>tenet</t>
   </si>
   <si>
@@ -1989,6 +2055,9 @@
     <t>2021-11-21 15:37:00.336208</t>
   </si>
   <si>
+    <t>2021-12-03 01:38:38.433</t>
+  </si>
+  <si>
     <t>lure</t>
   </si>
   <si>
@@ -1998,6 +2067,9 @@
     <t>2021-11-21 15:37:54.117744</t>
   </si>
   <si>
+    <t>2021-12-03 01:55:49.574</t>
+  </si>
+  <si>
     <t>proverb</t>
   </si>
   <si>
@@ -2007,6 +2079,9 @@
     <t>2021-11-21 15:38:34.634497</t>
   </si>
   <si>
+    <t>2021-12-03 01:46:13.537</t>
+  </si>
+  <si>
     <t>insipid</t>
   </si>
   <si>
@@ -2016,6 +2091,9 @@
     <t>2021-11-21 15:40:27.314993</t>
   </si>
   <si>
+    <t>2021-12-02 21:48:01.935</t>
+  </si>
+  <si>
     <t>startling</t>
   </si>
   <si>
@@ -2025,6 +2103,9 @@
     <t>2021-11-21 15:41:25.484576</t>
   </si>
   <si>
+    <t>2021-12-03 01:48:51.981</t>
+  </si>
+  <si>
     <t>plateau</t>
   </si>
   <si>
@@ -2043,6 +2124,9 @@
     <t>2021-11-21 15:44:40.04142</t>
   </si>
   <si>
+    <t>2021-12-03 01:55:30.689</t>
+  </si>
+  <si>
     <t>repercussion</t>
   </si>
   <si>
@@ -2052,12 +2136,15 @@
     <t>congenial</t>
   </si>
   <si>
-    <t>pleasant;like-mided</t>
+    <t>pleasant;like-minded</t>
   </si>
   <si>
     <t>2021-11-22 12:31:14.258711</t>
   </si>
   <si>
+    <t>2021-12-03 01:48:23.407</t>
+  </si>
+  <si>
     <t>disclosure</t>
   </si>
   <si>
@@ -2067,6 +2154,9 @@
     <t>2021-11-22 12:33:36.946636</t>
   </si>
   <si>
+    <t>2021-12-03 01:56:08.628</t>
+  </si>
+  <si>
     <t>contend</t>
   </si>
   <si>
@@ -2085,6 +2175,9 @@
     <t>2021-11-22 12:36:28.049134</t>
   </si>
   <si>
+    <t>2021-12-03 01:48:49.927</t>
+  </si>
+  <si>
     <t>concession</t>
   </si>
   <si>
@@ -2106,6 +2199,9 @@
     <t>2021-11-22 12:40:43.445165</t>
   </si>
   <si>
+    <t>2021-12-03 01:55:45.304</t>
+  </si>
+  <si>
     <t>quip</t>
   </si>
   <si>
@@ -2118,6 +2214,9 @@
     <t>2021-11-22 12:41:23.881295</t>
   </si>
   <si>
+    <t>2021-12-03 01:55:27.46</t>
+  </si>
+  <si>
     <t>astounding</t>
   </si>
   <si>
@@ -2136,6 +2235,9 @@
     <t>2021-11-23 13:32:51.714678</t>
   </si>
   <si>
+    <t>2021-12-03 01:56:20.518</t>
+  </si>
+  <si>
     <t>growl</t>
   </si>
   <si>
@@ -2145,6 +2247,9 @@
     <t>2021-11-23 13:38:21.392315</t>
   </si>
   <si>
+    <t>2021-12-03 02:00:13.475</t>
+  </si>
+  <si>
     <t>impose</t>
   </si>
   <si>
@@ -2161,6 +2266,9 @@
   </si>
   <si>
     <t>2021-11-23 13:41:24.307841</t>
+  </si>
+  <si>
+    <t>2021-12-03 02:00:08.141</t>
   </si>
   <si>
     <t>content</t>
@@ -2501,18 +2609,18 @@
         <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -2521,7 +2629,7 @@
         <v>0.0</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
         <v>12</v>
@@ -2530,18 +2638,18 @@
         <v>12</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -2550,7 +2658,7 @@
         <v>1.0</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G6" t="s">
         <v>12</v>
@@ -2559,18 +2667,18 @@
         <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -2579,7 +2687,7 @@
         <v>0.0</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G7" t="s">
         <v>12</v>
@@ -2588,18 +2696,18 @@
         <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -2608,7 +2716,7 @@
         <v>0.0</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G8" t="s">
         <v>12</v>
@@ -2617,18 +2725,18 @@
         <v>12</v>
       </c>
       <c r="I8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -2637,7 +2745,7 @@
         <v>0.0</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G9" t="s">
         <v>12</v>
@@ -2646,18 +2754,18 @@
         <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -2666,7 +2774,7 @@
         <v>0.0</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G10" t="s">
         <v>12</v>
@@ -2675,18 +2783,18 @@
         <v>12</v>
       </c>
       <c r="I10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -2695,7 +2803,7 @@
         <v>1.0</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G11" t="s">
         <v>12</v>
@@ -2704,18 +2812,18 @@
         <v>12</v>
       </c>
       <c r="I11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
@@ -2724,7 +2832,7 @@
         <v>1.0</v>
       </c>
       <c r="F12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G12" t="s">
         <v>12</v>
@@ -2733,18 +2841,18 @@
         <v>12</v>
       </c>
       <c r="I12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
@@ -2753,7 +2861,7 @@
         <v>0.0</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G13" t="s">
         <v>12</v>
@@ -2762,18 +2870,18 @@
         <v>12</v>
       </c>
       <c r="I13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
@@ -2782,7 +2890,7 @@
         <v>1.0</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G14" t="s">
         <v>12</v>
@@ -2791,18 +2899,18 @@
         <v>12</v>
       </c>
       <c r="I14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D15" t="s">
         <v>12</v>
@@ -2811,7 +2919,7 @@
         <v>1.0</v>
       </c>
       <c r="F15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G15" t="s">
         <v>12</v>
@@ -2820,18 +2928,18 @@
         <v>12</v>
       </c>
       <c r="I15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
@@ -2840,7 +2948,7 @@
         <v>1.0</v>
       </c>
       <c r="F16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G16" t="s">
         <v>12</v>
@@ -2849,18 +2957,18 @@
         <v>12</v>
       </c>
       <c r="I16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
@@ -2869,7 +2977,7 @@
         <v>1.0</v>
       </c>
       <c r="F17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G17" t="s">
         <v>12</v>
@@ -2878,18 +2986,18 @@
         <v>12</v>
       </c>
       <c r="I17" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
@@ -2898,7 +3006,7 @@
         <v>0.0</v>
       </c>
       <c r="F18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s">
         <v>12</v>
@@ -2907,18 +3015,18 @@
         <v>12</v>
       </c>
       <c r="I18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B19" t="s">
         <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
@@ -2927,7 +3035,7 @@
         <v>1.0</v>
       </c>
       <c r="F19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G19" t="s">
         <v>12</v>
@@ -2936,15 +3044,15 @@
         <v>12</v>
       </c>
       <c r="I19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C20" t="s">
         <v>12</v>
@@ -2956,7 +3064,7 @@
         <v>0.0</v>
       </c>
       <c r="F20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G20" t="s">
         <v>12</v>
@@ -2965,15 +3073,15 @@
         <v>12</v>
       </c>
       <c r="I20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C21" t="s">
         <v>12</v>
@@ -2985,7 +3093,7 @@
         <v>0.0</v>
       </c>
       <c r="F21" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G21" t="s">
         <v>12</v>
@@ -2994,15 +3102,15 @@
         <v>12</v>
       </c>
       <c r="I21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C22" t="s">
         <v>12</v>
@@ -3014,7 +3122,7 @@
         <v>0.0</v>
       </c>
       <c r="F22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G22" t="s">
         <v>12</v>
@@ -3023,18 +3131,18 @@
         <v>12</v>
       </c>
       <c r="I22" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B23" t="s">
         <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D23" t="s">
         <v>12</v>
@@ -3043,7 +3151,7 @@
         <v>1.0</v>
       </c>
       <c r="F23" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G23" t="s">
         <v>12</v>
@@ -3052,18 +3160,18 @@
         <v>12</v>
       </c>
       <c r="I23" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B24" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C24" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
@@ -3072,7 +3180,7 @@
         <v>1.0</v>
       </c>
       <c r="F24" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G24" t="s">
         <v>12</v>
@@ -3081,18 +3189,18 @@
         <v>12</v>
       </c>
       <c r="I24" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B25" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C25" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D25" t="s">
         <v>12</v>
@@ -3101,7 +3209,7 @@
         <v>1.0</v>
       </c>
       <c r="F25" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G25" t="s">
         <v>12</v>
@@ -3110,18 +3218,18 @@
         <v>12</v>
       </c>
       <c r="I25" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B26" t="s">
         <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D26" t="s">
         <v>12</v>
@@ -3130,7 +3238,7 @@
         <v>1.0</v>
       </c>
       <c r="F26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G26" t="s">
         <v>12</v>
@@ -3139,18 +3247,18 @@
         <v>12</v>
       </c>
       <c r="I26" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B27" t="s">
         <v>12</v>
       </c>
       <c r="C27" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D27" t="s">
         <v>12</v>
@@ -3159,7 +3267,7 @@
         <v>1.0</v>
       </c>
       <c r="F27" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G27" t="s">
         <v>12</v>
@@ -3168,18 +3276,18 @@
         <v>12</v>
       </c>
       <c r="I27" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B28" t="s">
         <v>12</v>
       </c>
       <c r="C28" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D28" t="s">
         <v>12</v>
@@ -3188,7 +3296,7 @@
         <v>0.0</v>
       </c>
       <c r="F28" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G28" t="s">
         <v>12</v>
@@ -3197,18 +3305,18 @@
         <v>12</v>
       </c>
       <c r="I28" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B29" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C29" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D29" t="s">
         <v>12</v>
@@ -3217,7 +3325,7 @@
         <v>1.0</v>
       </c>
       <c r="F29" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G29" t="s">
         <v>12</v>
@@ -3226,18 +3334,18 @@
         <v>12</v>
       </c>
       <c r="I29" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B30" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C30" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D30" t="s">
         <v>12</v>
@@ -3246,7 +3354,7 @@
         <v>1.0</v>
       </c>
       <c r="F30" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G30" t="s">
         <v>12</v>
@@ -3255,18 +3363,18 @@
         <v>12</v>
       </c>
       <c r="I30" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B31" t="s">
         <v>12</v>
       </c>
       <c r="C31" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D31" t="s">
         <v>12</v>
@@ -3275,7 +3383,7 @@
         <v>1.0</v>
       </c>
       <c r="F31" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G31" t="s">
         <v>12</v>
@@ -3284,15 +3392,15 @@
         <v>12</v>
       </c>
       <c r="I31" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B32" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C32" t="s">
         <v>12</v>
@@ -3304,7 +3412,7 @@
         <v>0.0</v>
       </c>
       <c r="F32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G32" t="s">
         <v>12</v>
@@ -3313,27 +3421,27 @@
         <v>12</v>
       </c>
       <c r="I32" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B33" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C33" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D33" t="s">
         <v>12</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F33" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G33" t="s">
         <v>12</v>
@@ -3342,18 +3450,18 @@
         <v>12</v>
       </c>
       <c r="I33" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B34" t="s">
         <v>12</v>
       </c>
       <c r="C34" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D34" t="s">
         <v>12</v>
@@ -3362,7 +3470,7 @@
         <v>1.0</v>
       </c>
       <c r="F34" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G34" t="s">
         <v>12</v>
@@ -3371,18 +3479,18 @@
         <v>12</v>
       </c>
       <c r="I34" t="s">
-        <v>92</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B35" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C35" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D35" t="s">
         <v>12</v>
@@ -3391,7 +3499,7 @@
         <v>1.0</v>
       </c>
       <c r="F35" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G35" t="s">
         <v>12</v>
@@ -3400,18 +3508,18 @@
         <v>12</v>
       </c>
       <c r="I35" t="s">
-        <v>92</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B36" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C36" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D36" t="s">
         <v>12</v>
@@ -3420,7 +3528,7 @@
         <v>1.0</v>
       </c>
       <c r="F36" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G36" t="s">
         <v>12</v>
@@ -3429,18 +3537,18 @@
         <v>12</v>
       </c>
       <c r="I36" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B37" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C37" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D37" t="s">
         <v>12</v>
@@ -3449,7 +3557,7 @@
         <v>0.0</v>
       </c>
       <c r="F37" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G37" t="s">
         <v>12</v>
@@ -3458,18 +3566,18 @@
         <v>12</v>
       </c>
       <c r="I37" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B38" t="s">
         <v>12</v>
       </c>
       <c r="C38" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D38" t="s">
         <v>12</v>
@@ -3478,7 +3586,7 @@
         <v>1.0</v>
       </c>
       <c r="F38" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G38" t="s">
         <v>12</v>
@@ -3487,18 +3595,18 @@
         <v>12</v>
       </c>
       <c r="I38" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B39" t="s">
         <v>12</v>
       </c>
       <c r="C39" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D39" t="s">
         <v>12</v>
@@ -3507,7 +3615,7 @@
         <v>0.0</v>
       </c>
       <c r="F39" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G39" t="s">
         <v>12</v>
@@ -3516,18 +3624,18 @@
         <v>12</v>
       </c>
       <c r="I39" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B40" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C40" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D40" t="s">
         <v>12</v>
@@ -3536,7 +3644,7 @@
         <v>0.0</v>
       </c>
       <c r="F40" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G40" t="s">
         <v>12</v>
@@ -3545,18 +3653,18 @@
         <v>12</v>
       </c>
       <c r="I40" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B41" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C41" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D41" t="s">
         <v>12</v>
@@ -3565,7 +3673,7 @@
         <v>0.0</v>
       </c>
       <c r="F41" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G41" t="s">
         <v>12</v>
@@ -3574,15 +3682,15 @@
         <v>12</v>
       </c>
       <c r="I41" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B42" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C42" t="s">
         <v>12</v>
@@ -3594,7 +3702,7 @@
         <v>0.0</v>
       </c>
       <c r="F42" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G42" t="s">
         <v>12</v>
@@ -3603,27 +3711,27 @@
         <v>12</v>
       </c>
       <c r="I42" t="s">
-        <v>92</v>
+        <v>141</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B43" t="s">
         <v>12</v>
       </c>
       <c r="C43" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D43" t="s">
         <v>12</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F43" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G43" t="s">
         <v>12</v>
@@ -3632,18 +3740,18 @@
         <v>12</v>
       </c>
       <c r="I43" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B44" t="s">
         <v>12</v>
       </c>
       <c r="C44" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D44" t="s">
         <v>12</v>
@@ -3652,7 +3760,7 @@
         <v>0.0</v>
       </c>
       <c r="F44" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G44" t="s">
         <v>12</v>
@@ -3661,15 +3769,15 @@
         <v>12</v>
       </c>
       <c r="I44" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B45" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C45" t="s">
         <v>12</v>
@@ -3681,7 +3789,7 @@
         <v>0.0</v>
       </c>
       <c r="F45" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G45" t="s">
         <v>12</v>
@@ -3690,15 +3798,15 @@
         <v>12</v>
       </c>
       <c r="I45" t="s">
-        <v>92</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B46" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C46" t="s">
         <v>12</v>
@@ -3710,7 +3818,7 @@
         <v>0.0</v>
       </c>
       <c r="F46" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G46" t="s">
         <v>12</v>
@@ -3719,18 +3827,18 @@
         <v>12</v>
       </c>
       <c r="I46" t="s">
-        <v>92</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B47" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C47" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D47" t="s">
         <v>12</v>
@@ -3739,7 +3847,7 @@
         <v>1.0</v>
       </c>
       <c r="F47" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G47" t="s">
         <v>12</v>
@@ -3748,27 +3856,27 @@
         <v>12</v>
       </c>
       <c r="I47" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B48" t="s">
         <v>12</v>
       </c>
       <c r="C48" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D48" t="s">
         <v>12</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F48" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G48" t="s">
         <v>12</v>
@@ -3777,18 +3885,18 @@
         <v>12</v>
       </c>
       <c r="I48" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B49" t="s">
         <v>12</v>
       </c>
       <c r="C49" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D49" t="s">
         <v>12</v>
@@ -3797,7 +3905,7 @@
         <v>0.0</v>
       </c>
       <c r="F49" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G49" t="s">
         <v>12</v>
@@ -3806,15 +3914,15 @@
         <v>12</v>
       </c>
       <c r="I49" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B50" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C50" t="s">
         <v>12</v>
@@ -3826,7 +3934,7 @@
         <v>0.0</v>
       </c>
       <c r="F50" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G50" t="s">
         <v>12</v>
@@ -3835,18 +3943,18 @@
         <v>12</v>
       </c>
       <c r="I50" t="s">
-        <v>92</v>
+        <v>207</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B51" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C51" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D51" t="s">
         <v>12</v>
@@ -3855,7 +3963,7 @@
         <v>0.0</v>
       </c>
       <c r="F51" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G51" t="s">
         <v>12</v>
@@ -3864,18 +3972,18 @@
         <v>12</v>
       </c>
       <c r="I51" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B52" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C52" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D52" t="s">
         <v>12</v>
@@ -3884,7 +3992,7 @@
         <v>0.0</v>
       </c>
       <c r="F52" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="G52" t="s">
         <v>12</v>
@@ -3893,18 +4001,18 @@
         <v>12</v>
       </c>
       <c r="I52" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B53" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C53" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D53" t="s">
         <v>12</v>
@@ -3913,7 +4021,7 @@
         <v>1.0</v>
       </c>
       <c r="F53" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="G53" t="s">
         <v>12</v>
@@ -3922,15 +4030,15 @@
         <v>12</v>
       </c>
       <c r="I53" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B54" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C54" t="s">
         <v>12</v>
@@ -3942,7 +4050,7 @@
         <v>0.0</v>
       </c>
       <c r="F54" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="G54" t="s">
         <v>12</v>
@@ -3951,18 +4059,18 @@
         <v>12</v>
       </c>
       <c r="I54" t="s">
-        <v>92</v>
+        <v>207</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B55" t="s">
         <v>12</v>
       </c>
       <c r="C55" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D55" t="s">
         <v>12</v>
@@ -3971,7 +4079,7 @@
         <v>0.0</v>
       </c>
       <c r="F55" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G55" t="s">
         <v>12</v>
@@ -3980,15 +4088,15 @@
         <v>12</v>
       </c>
       <c r="I55" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B56" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C56" t="s">
         <v>12</v>
@@ -4000,7 +4108,7 @@
         <v>0.0</v>
       </c>
       <c r="F56" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G56" t="s">
         <v>12</v>
@@ -4009,18 +4117,18 @@
         <v>12</v>
       </c>
       <c r="I56" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B57" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C57" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D57" t="s">
         <v>12</v>
@@ -4029,7 +4137,7 @@
         <v>0.0</v>
       </c>
       <c r="F57" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="G57" t="s">
         <v>12</v>
@@ -4038,15 +4146,15 @@
         <v>12</v>
       </c>
       <c r="I57" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B58" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C58" t="s">
         <v>12</v>
@@ -4058,7 +4166,7 @@
         <v>0.0</v>
       </c>
       <c r="F58" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="G58" t="s">
         <v>12</v>
@@ -4067,18 +4175,18 @@
         <v>12</v>
       </c>
       <c r="I58" t="s">
-        <v>92</v>
+        <v>207</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B59" t="s">
         <v>12</v>
       </c>
       <c r="C59" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D59" t="s">
         <v>12</v>
@@ -4087,7 +4195,7 @@
         <v>0.0</v>
       </c>
       <c r="F59" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G59" t="s">
         <v>12</v>
@@ -4096,18 +4204,18 @@
         <v>12</v>
       </c>
       <c r="I59" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B60" t="s">
         <v>12</v>
       </c>
       <c r="C60" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D60" t="s">
         <v>12</v>
@@ -4116,7 +4224,7 @@
         <v>0.0</v>
       </c>
       <c r="F60" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="G60" t="s">
         <v>12</v>
@@ -4125,18 +4233,18 @@
         <v>12</v>
       </c>
       <c r="I60" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B61" t="s">
         <v>12</v>
       </c>
       <c r="C61" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D61" t="s">
         <v>12</v>
@@ -4145,7 +4253,7 @@
         <v>0.0</v>
       </c>
       <c r="F61" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="G61" t="s">
         <v>12</v>
@@ -4154,18 +4262,18 @@
         <v>12</v>
       </c>
       <c r="I61" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B62" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C62" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D62" t="s">
         <v>12</v>
@@ -4174,7 +4282,7 @@
         <v>1.0</v>
       </c>
       <c r="F62" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="G62" t="s">
         <v>12</v>
@@ -4183,18 +4291,18 @@
         <v>12</v>
       </c>
       <c r="I62" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B63" t="s">
         <v>12</v>
       </c>
       <c r="C63" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D63" t="s">
         <v>12</v>
@@ -4203,7 +4311,7 @@
         <v>0.0</v>
       </c>
       <c r="F63" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="G63" t="s">
         <v>12</v>
@@ -4212,18 +4320,18 @@
         <v>12</v>
       </c>
       <c r="I63" t="s">
-        <v>258</v>
+        <v>129</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B64" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C64" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D64" t="s">
         <v>12</v>
@@ -4232,7 +4340,7 @@
         <v>0.0</v>
       </c>
       <c r="F64" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G64" t="s">
         <v>12</v>
@@ -4241,18 +4349,18 @@
         <v>12</v>
       </c>
       <c r="I64" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B65" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C65" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D65" t="s">
         <v>12</v>
@@ -4261,7 +4369,7 @@
         <v>0.0</v>
       </c>
       <c r="F65" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G65" t="s">
         <v>12</v>
@@ -4270,18 +4378,18 @@
         <v>12</v>
       </c>
       <c r="I65" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B66" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C66" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D66" t="s">
         <v>12</v>
@@ -4290,7 +4398,7 @@
         <v>0.0</v>
       </c>
       <c r="F66" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G66" t="s">
         <v>12</v>
@@ -4299,15 +4407,15 @@
         <v>12</v>
       </c>
       <c r="I66" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B67" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C67" t="s">
         <v>12</v>
@@ -4319,7 +4427,7 @@
         <v>0.0</v>
       </c>
       <c r="F67" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G67" t="s">
         <v>12</v>
@@ -4328,18 +4436,18 @@
         <v>12</v>
       </c>
       <c r="I67" t="s">
-        <v>92</v>
+        <v>207</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B68" t="s">
         <v>12</v>
       </c>
       <c r="C68" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D68" t="s">
         <v>12</v>
@@ -4348,7 +4456,7 @@
         <v>1.0</v>
       </c>
       <c r="F68" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G68" t="s">
         <v>12</v>
@@ -4357,15 +4465,15 @@
         <v>12</v>
       </c>
       <c r="I68" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B69" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C69" t="s">
         <v>12</v>
@@ -4377,7 +4485,7 @@
         <v>0.0</v>
       </c>
       <c r="F69" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G69" t="s">
         <v>12</v>
@@ -4386,18 +4494,18 @@
         <v>12</v>
       </c>
       <c r="I69" t="s">
-        <v>92</v>
+        <v>207</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B70" t="s">
         <v>12</v>
       </c>
       <c r="C70" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D70" t="s">
         <v>12</v>
@@ -4406,7 +4514,7 @@
         <v>1.0</v>
       </c>
       <c r="F70" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G70" t="s">
         <v>12</v>
@@ -4415,18 +4523,18 @@
         <v>12</v>
       </c>
       <c r="I70" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B71" t="s">
         <v>12</v>
       </c>
       <c r="C71" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D71" t="s">
         <v>12</v>
@@ -4435,7 +4543,7 @@
         <v>1.0</v>
       </c>
       <c r="F71" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G71" t="s">
         <v>12</v>
@@ -4444,18 +4552,18 @@
         <v>12</v>
       </c>
       <c r="I71" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B72" t="s">
         <v>12</v>
       </c>
       <c r="C72" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D72" t="s">
         <v>12</v>
@@ -4464,7 +4572,7 @@
         <v>1.0</v>
       </c>
       <c r="F72" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G72" t="s">
         <v>12</v>
@@ -4473,18 +4581,18 @@
         <v>12</v>
       </c>
       <c r="I72" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B73" t="s">
         <v>12</v>
       </c>
       <c r="C73" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D73" t="s">
         <v>12</v>
@@ -4493,7 +4601,7 @@
         <v>0.0</v>
       </c>
       <c r="F73" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G73" t="s">
         <v>12</v>
@@ -4502,18 +4610,18 @@
         <v>12</v>
       </c>
       <c r="I73" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B74" t="s">
         <v>12</v>
       </c>
       <c r="C74" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D74" t="s">
         <v>12</v>
@@ -4522,7 +4630,7 @@
         <v>0.0</v>
       </c>
       <c r="F74" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G74" t="s">
         <v>12</v>
@@ -4531,18 +4639,18 @@
         <v>12</v>
       </c>
       <c r="I74" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B75" t="s">
         <v>12</v>
       </c>
       <c r="C75" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D75" t="s">
         <v>12</v>
@@ -4551,7 +4659,7 @@
         <v>0.0</v>
       </c>
       <c r="F75" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G75" t="s">
         <v>12</v>
@@ -4560,18 +4668,18 @@
         <v>12</v>
       </c>
       <c r="I75" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B76" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C76" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D76" t="s">
         <v>12</v>
@@ -4580,7 +4688,7 @@
         <v>0.0</v>
       </c>
       <c r="F76" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G76" t="s">
         <v>12</v>
@@ -4589,18 +4697,18 @@
         <v>12</v>
       </c>
       <c r="I76" t="s">
-        <v>312</v>
+        <v>129</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B77" t="s">
         <v>12</v>
       </c>
       <c r="C77" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D77" t="s">
         <v>12</v>
@@ -4609,7 +4717,7 @@
         <v>0.0</v>
       </c>
       <c r="F77" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G77" t="s">
         <v>12</v>
@@ -4618,18 +4726,18 @@
         <v>12</v>
       </c>
       <c r="I77" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B78" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C78" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D78" t="s">
         <v>12</v>
@@ -4638,7 +4746,7 @@
         <v>0.0</v>
       </c>
       <c r="F78" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G78" t="s">
         <v>12</v>
@@ -4647,18 +4755,18 @@
         <v>12</v>
       </c>
       <c r="I78" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B79" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C79" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D79" t="s">
         <v>12</v>
@@ -4667,7 +4775,7 @@
         <v>0.0</v>
       </c>
       <c r="F79" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G79" t="s">
         <v>12</v>
@@ -4676,18 +4784,18 @@
         <v>12</v>
       </c>
       <c r="I79" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B80" t="s">
         <v>12</v>
       </c>
       <c r="C80" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D80" t="s">
         <v>12</v>
@@ -4696,7 +4804,7 @@
         <v>0.0</v>
       </c>
       <c r="F80" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G80" t="s">
         <v>12</v>
@@ -4705,7 +4813,7 @@
         <v>12</v>
       </c>
       <c r="I80" t="s">
-        <v>330</v>
+        <v>129</v>
       </c>
     </row>
     <row r="81">
@@ -4734,7 +4842,7 @@
         <v>12</v>
       </c>
       <c r="I81" t="s">
-        <v>92</v>
+        <v>207</v>
       </c>
     </row>
     <row r="82">
@@ -4850,7 +4958,7 @@
         <v>12</v>
       </c>
       <c r="I85" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86">
@@ -4966,7 +5074,7 @@
         <v>12</v>
       </c>
       <c r="I89" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90">
@@ -5024,7 +5132,7 @@
         <v>12</v>
       </c>
       <c r="I91" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92">
@@ -5517,86 +5625,86 @@
         <v>12</v>
       </c>
       <c r="I108" t="s">
-        <v>451</v>
+        <v>129</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
+        <v>451</v>
+      </c>
+      <c r="B109" t="s">
+        <v>12</v>
+      </c>
+      <c r="C109" t="s">
         <v>452</v>
       </c>
-      <c r="B109" t="s">
-        <v>12</v>
-      </c>
-      <c r="C109" t="s">
+      <c r="D109" t="s">
+        <v>12</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F109" t="s">
         <v>453</v>
       </c>
-      <c r="D109" t="s">
-        <v>12</v>
-      </c>
-      <c r="E109" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F109" t="s">
+      <c r="G109" t="s">
+        <v>12</v>
+      </c>
+      <c r="H109" t="s">
+        <v>12</v>
+      </c>
+      <c r="I109" t="s">
         <v>454</v>
-      </c>
-      <c r="G109" t="s">
-        <v>12</v>
-      </c>
-      <c r="H109" t="s">
-        <v>12</v>
-      </c>
-      <c r="I109" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
+        <v>455</v>
+      </c>
+      <c r="B110" t="s">
         <v>456</v>
       </c>
-      <c r="B110" t="s">
+      <c r="C110" t="s">
         <v>457</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
+        <v>12</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F110" t="s">
         <v>458</v>
       </c>
-      <c r="D110" t="s">
-        <v>12</v>
-      </c>
-      <c r="E110" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F110" t="s">
+      <c r="G110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H110" t="s">
+        <v>12</v>
+      </c>
+      <c r="I110" t="s">
         <v>459</v>
-      </c>
-      <c r="G110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H110" t="s">
-        <v>12</v>
-      </c>
-      <c r="I110" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
+        <v>460</v>
+      </c>
+      <c r="B111" t="s">
         <v>461</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C111" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111" t="s">
+        <v>12</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F111" t="s">
         <v>462</v>
       </c>
-      <c r="C111" t="s">
-        <v>12</v>
-      </c>
-      <c r="D111" t="s">
-        <v>12</v>
-      </c>
-      <c r="E111" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F111" t="s">
-        <v>463</v>
-      </c>
       <c r="G111" t="s">
         <v>12</v>
       </c>
@@ -5604,221 +5712,221 @@
         <v>12</v>
       </c>
       <c r="I111" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
+        <v>463</v>
+      </c>
+      <c r="B112" t="s">
+        <v>12</v>
+      </c>
+      <c r="C112" t="s">
         <v>464</v>
       </c>
-      <c r="B112" t="s">
-        <v>12</v>
-      </c>
-      <c r="C112" t="s">
+      <c r="D112" t="s">
+        <v>12</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F112" t="s">
         <v>465</v>
       </c>
-      <c r="D112" t="s">
-        <v>12</v>
-      </c>
-      <c r="E112" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F112" t="s">
+      <c r="G112" t="s">
+        <v>12</v>
+      </c>
+      <c r="H112" t="s">
+        <v>12</v>
+      </c>
+      <c r="I112" t="s">
         <v>466</v>
-      </c>
-      <c r="G112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H112" t="s">
-        <v>12</v>
-      </c>
-      <c r="I112" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
+        <v>467</v>
+      </c>
+      <c r="B113" t="s">
+        <v>12</v>
+      </c>
+      <c r="C113" t="s">
         <v>468</v>
       </c>
-      <c r="B113" t="s">
-        <v>12</v>
-      </c>
-      <c r="C113" t="s">
+      <c r="D113" t="s">
+        <v>12</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F113" t="s">
         <v>469</v>
       </c>
-      <c r="D113" t="s">
-        <v>12</v>
-      </c>
-      <c r="E113" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F113" t="s">
+      <c r="G113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H113" t="s">
+        <v>12</v>
+      </c>
+      <c r="I113" t="s">
         <v>470</v>
-      </c>
-      <c r="G113" t="s">
-        <v>12</v>
-      </c>
-      <c r="H113" t="s">
-        <v>12</v>
-      </c>
-      <c r="I113" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
+        <v>471</v>
+      </c>
+      <c r="B114" t="s">
+        <v>12</v>
+      </c>
+      <c r="C114" t="s">
         <v>472</v>
       </c>
-      <c r="B114" t="s">
-        <v>12</v>
-      </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
+        <v>12</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F114" t="s">
         <v>473</v>
       </c>
-      <c r="D114" t="s">
-        <v>12</v>
-      </c>
-      <c r="E114" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F114" t="s">
+      <c r="G114" t="s">
+        <v>12</v>
+      </c>
+      <c r="H114" t="s">
+        <v>12</v>
+      </c>
+      <c r="I114" t="s">
         <v>474</v>
-      </c>
-      <c r="G114" t="s">
-        <v>12</v>
-      </c>
-      <c r="H114" t="s">
-        <v>12</v>
-      </c>
-      <c r="I114" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
+        <v>475</v>
+      </c>
+      <c r="B115" t="s">
         <v>476</v>
       </c>
-      <c r="B115" t="s">
+      <c r="C115" t="s">
         <v>477</v>
       </c>
-      <c r="C115" t="s">
+      <c r="D115" t="s">
+        <v>12</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F115" t="s">
         <v>478</v>
       </c>
-      <c r="D115" t="s">
-        <v>12</v>
-      </c>
-      <c r="E115" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F115" t="s">
+      <c r="G115" t="s">
+        <v>12</v>
+      </c>
+      <c r="H115" t="s">
+        <v>12</v>
+      </c>
+      <c r="I115" t="s">
         <v>479</v>
-      </c>
-      <c r="G115" t="s">
-        <v>12</v>
-      </c>
-      <c r="H115" t="s">
-        <v>12</v>
-      </c>
-      <c r="I115" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
+        <v>480</v>
+      </c>
+      <c r="B116" t="s">
+        <v>12</v>
+      </c>
+      <c r="C116" t="s">
         <v>481</v>
       </c>
-      <c r="B116" t="s">
-        <v>12</v>
-      </c>
-      <c r="C116" t="s">
+      <c r="D116" t="s">
+        <v>12</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F116" t="s">
         <v>482</v>
       </c>
-      <c r="D116" t="s">
-        <v>12</v>
-      </c>
-      <c r="E116" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F116" t="s">
+      <c r="G116" t="s">
+        <v>12</v>
+      </c>
+      <c r="H116" t="s">
+        <v>12</v>
+      </c>
+      <c r="I116" t="s">
         <v>483</v>
-      </c>
-      <c r="G116" t="s">
-        <v>12</v>
-      </c>
-      <c r="H116" t="s">
-        <v>12</v>
-      </c>
-      <c r="I116" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
+        <v>484</v>
+      </c>
+      <c r="B117" t="s">
         <v>485</v>
       </c>
-      <c r="B117" t="s">
+      <c r="C117" t="s">
         <v>486</v>
       </c>
-      <c r="C117" t="s">
+      <c r="D117" t="s">
+        <v>12</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F117" t="s">
         <v>487</v>
       </c>
-      <c r="D117" t="s">
-        <v>12</v>
-      </c>
-      <c r="E117" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F117" t="s">
+      <c r="G117" t="s">
+        <v>12</v>
+      </c>
+      <c r="H117" t="s">
+        <v>12</v>
+      </c>
+      <c r="I117" t="s">
         <v>488</v>
-      </c>
-      <c r="G117" t="s">
-        <v>12</v>
-      </c>
-      <c r="H117" t="s">
-        <v>12</v>
-      </c>
-      <c r="I117" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
+        <v>489</v>
+      </c>
+      <c r="B118" t="s">
+        <v>12</v>
+      </c>
+      <c r="C118" t="s">
         <v>490</v>
       </c>
-      <c r="B118" t="s">
-        <v>12</v>
-      </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
+        <v>12</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F118" t="s">
         <v>491</v>
       </c>
-      <c r="D118" t="s">
-        <v>12</v>
-      </c>
-      <c r="E118" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F118" t="s">
+      <c r="G118" t="s">
+        <v>12</v>
+      </c>
+      <c r="H118" t="s">
+        <v>12</v>
+      </c>
+      <c r="I118" t="s">
         <v>492</v>
-      </c>
-      <c r="G118" t="s">
-        <v>12</v>
-      </c>
-      <c r="H118" t="s">
-        <v>12</v>
-      </c>
-      <c r="I118" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
+        <v>493</v>
+      </c>
+      <c r="B119" t="s">
+        <v>12</v>
+      </c>
+      <c r="C119" t="s">
         <v>494</v>
-      </c>
-      <c r="B119" t="s">
-        <v>12</v>
-      </c>
-      <c r="C119" t="s">
-        <v>495</v>
       </c>
       <c r="D119" t="s">
         <v>12</v>
@@ -5827,56 +5935,56 @@
         <v>1.0</v>
       </c>
       <c r="F119" t="s">
+        <v>495</v>
+      </c>
+      <c r="G119" t="s">
+        <v>12</v>
+      </c>
+      <c r="H119" t="s">
+        <v>12</v>
+      </c>
+      <c r="I119" t="s">
         <v>496</v>
-      </c>
-      <c r="G119" t="s">
-        <v>12</v>
-      </c>
-      <c r="H119" t="s">
-        <v>12</v>
-      </c>
-      <c r="I119" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
+        <v>497</v>
+      </c>
+      <c r="B120" t="s">
+        <v>12</v>
+      </c>
+      <c r="C120" t="s">
         <v>498</v>
       </c>
-      <c r="B120" t="s">
-        <v>12</v>
-      </c>
-      <c r="C120" t="s">
+      <c r="D120" t="s">
+        <v>12</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F120" t="s">
         <v>499</v>
       </c>
-      <c r="D120" t="s">
-        <v>12</v>
-      </c>
-      <c r="E120" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F120" t="s">
+      <c r="G120" t="s">
+        <v>12</v>
+      </c>
+      <c r="H120" t="s">
+        <v>12</v>
+      </c>
+      <c r="I120" t="s">
         <v>500</v>
-      </c>
-      <c r="G120" t="s">
-        <v>12</v>
-      </c>
-      <c r="H120" t="s">
-        <v>12</v>
-      </c>
-      <c r="I120" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
+        <v>501</v>
+      </c>
+      <c r="B121" t="s">
+        <v>12</v>
+      </c>
+      <c r="C121" t="s">
         <v>502</v>
-      </c>
-      <c r="B121" t="s">
-        <v>12</v>
-      </c>
-      <c r="C121" t="s">
-        <v>503</v>
       </c>
       <c r="D121" t="s">
         <v>12</v>
@@ -5885,66 +5993,66 @@
         <v>1.0</v>
       </c>
       <c r="F121" t="s">
+        <v>503</v>
+      </c>
+      <c r="G121" t="s">
+        <v>12</v>
+      </c>
+      <c r="H121" t="s">
+        <v>12</v>
+      </c>
+      <c r="I121" t="s">
         <v>504</v>
-      </c>
-      <c r="G121" t="s">
-        <v>12</v>
-      </c>
-      <c r="H121" t="s">
-        <v>12</v>
-      </c>
-      <c r="I121" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
+        <v>505</v>
+      </c>
+      <c r="B122" t="s">
+        <v>12</v>
+      </c>
+      <c r="C122" t="s">
         <v>506</v>
       </c>
-      <c r="B122" t="s">
-        <v>12</v>
-      </c>
-      <c r="C122" t="s">
+      <c r="D122" t="s">
+        <v>12</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F122" t="s">
         <v>507</v>
       </c>
-      <c r="D122" t="s">
-        <v>12</v>
-      </c>
-      <c r="E122" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F122" t="s">
+      <c r="G122" t="s">
+        <v>12</v>
+      </c>
+      <c r="H122" t="s">
+        <v>12</v>
+      </c>
+      <c r="I122" t="s">
         <v>508</v>
-      </c>
-      <c r="G122" t="s">
-        <v>12</v>
-      </c>
-      <c r="H122" t="s">
-        <v>12</v>
-      </c>
-      <c r="I122" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
+        <v>509</v>
+      </c>
+      <c r="B123" t="s">
         <v>510</v>
       </c>
-      <c r="B123" t="s">
+      <c r="C123" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123" t="s">
+        <v>12</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F123" t="s">
         <v>511</v>
       </c>
-      <c r="C123" t="s">
-        <v>12</v>
-      </c>
-      <c r="D123" t="s">
-        <v>12</v>
-      </c>
-      <c r="E123" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F123" t="s">
-        <v>512</v>
-      </c>
       <c r="G123" t="s">
         <v>12</v>
       </c>
@@ -5952,326 +6060,326 @@
         <v>12</v>
       </c>
       <c r="I123" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
+        <v>512</v>
+      </c>
+      <c r="B124" t="s">
         <v>513</v>
       </c>
-      <c r="B124" t="s">
+      <c r="C124" t="s">
         <v>514</v>
       </c>
-      <c r="C124" t="s">
+      <c r="D124" t="s">
+        <v>12</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F124" t="s">
         <v>515</v>
       </c>
-      <c r="D124" t="s">
-        <v>12</v>
-      </c>
-      <c r="E124" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F124" t="s">
+      <c r="G124" t="s">
+        <v>12</v>
+      </c>
+      <c r="H124" t="s">
+        <v>12</v>
+      </c>
+      <c r="I124" t="s">
         <v>516</v>
-      </c>
-      <c r="G124" t="s">
-        <v>12</v>
-      </c>
-      <c r="H124" t="s">
-        <v>12</v>
-      </c>
-      <c r="I124" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
+        <v>517</v>
+      </c>
+      <c r="B125" t="s">
+        <v>12</v>
+      </c>
+      <c r="C125" t="s">
         <v>518</v>
       </c>
-      <c r="B125" t="s">
-        <v>12</v>
-      </c>
-      <c r="C125" t="s">
+      <c r="D125" t="s">
+        <v>12</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F125" t="s">
         <v>519</v>
       </c>
-      <c r="D125" t="s">
-        <v>12</v>
-      </c>
-      <c r="E125" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F125" t="s">
+      <c r="G125" t="s">
+        <v>12</v>
+      </c>
+      <c r="H125" t="s">
+        <v>12</v>
+      </c>
+      <c r="I125" t="s">
         <v>520</v>
-      </c>
-      <c r="G125" t="s">
-        <v>12</v>
-      </c>
-      <c r="H125" t="s">
-        <v>12</v>
-      </c>
-      <c r="I125" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
+        <v>521</v>
+      </c>
+      <c r="B126" t="s">
+        <v>12</v>
+      </c>
+      <c r="C126" t="s">
         <v>522</v>
       </c>
-      <c r="B126" t="s">
-        <v>12</v>
-      </c>
-      <c r="C126" t="s">
+      <c r="D126" t="s">
+        <v>12</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F126" t="s">
         <v>523</v>
       </c>
-      <c r="D126" t="s">
-        <v>12</v>
-      </c>
-      <c r="E126" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F126" t="s">
+      <c r="G126" t="s">
+        <v>12</v>
+      </c>
+      <c r="H126" t="s">
+        <v>12</v>
+      </c>
+      <c r="I126" t="s">
         <v>524</v>
-      </c>
-      <c r="G126" t="s">
-        <v>12</v>
-      </c>
-      <c r="H126" t="s">
-        <v>12</v>
-      </c>
-      <c r="I126" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
+        <v>525</v>
+      </c>
+      <c r="B127" t="s">
+        <v>12</v>
+      </c>
+      <c r="C127" t="s">
         <v>526</v>
       </c>
-      <c r="B127" t="s">
-        <v>12</v>
-      </c>
-      <c r="C127" t="s">
+      <c r="D127" t="s">
+        <v>12</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F127" t="s">
         <v>527</v>
       </c>
-      <c r="D127" t="s">
-        <v>12</v>
-      </c>
-      <c r="E127" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F127" t="s">
+      <c r="G127" t="s">
+        <v>12</v>
+      </c>
+      <c r="H127" t="s">
+        <v>12</v>
+      </c>
+      <c r="I127" t="s">
         <v>528</v>
-      </c>
-      <c r="G127" t="s">
-        <v>12</v>
-      </c>
-      <c r="H127" t="s">
-        <v>12</v>
-      </c>
-      <c r="I127" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
+        <v>529</v>
+      </c>
+      <c r="B128" t="s">
+        <v>12</v>
+      </c>
+      <c r="C128" t="s">
         <v>530</v>
       </c>
-      <c r="B128" t="s">
-        <v>12</v>
-      </c>
-      <c r="C128" t="s">
+      <c r="D128" t="s">
+        <v>12</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F128" t="s">
         <v>531</v>
       </c>
-      <c r="D128" t="s">
-        <v>12</v>
-      </c>
-      <c r="E128" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F128" t="s">
+      <c r="G128" t="s">
+        <v>12</v>
+      </c>
+      <c r="H128" t="s">
+        <v>12</v>
+      </c>
+      <c r="I128" t="s">
         <v>532</v>
-      </c>
-      <c r="G128" t="s">
-        <v>12</v>
-      </c>
-      <c r="H128" t="s">
-        <v>12</v>
-      </c>
-      <c r="I128" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
+        <v>533</v>
+      </c>
+      <c r="B129" t="s">
+        <v>12</v>
+      </c>
+      <c r="C129" t="s">
         <v>534</v>
       </c>
-      <c r="B129" t="s">
-        <v>12</v>
-      </c>
-      <c r="C129" t="s">
+      <c r="D129" t="s">
+        <v>12</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F129" t="s">
         <v>535</v>
       </c>
-      <c r="D129" t="s">
-        <v>12</v>
-      </c>
-      <c r="E129" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F129" t="s">
+      <c r="G129" t="s">
+        <v>12</v>
+      </c>
+      <c r="H129" t="s">
+        <v>12</v>
+      </c>
+      <c r="I129" t="s">
         <v>536</v>
-      </c>
-      <c r="G129" t="s">
-        <v>12</v>
-      </c>
-      <c r="H129" t="s">
-        <v>12</v>
-      </c>
-      <c r="I129" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
+        <v>537</v>
+      </c>
+      <c r="B130" t="s">
+        <v>12</v>
+      </c>
+      <c r="C130" t="s">
         <v>538</v>
       </c>
-      <c r="B130" t="s">
-        <v>12</v>
-      </c>
-      <c r="C130" t="s">
+      <c r="D130" t="s">
+        <v>12</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F130" t="s">
         <v>539</v>
       </c>
-      <c r="D130" t="s">
-        <v>12</v>
-      </c>
-      <c r="E130" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F130" t="s">
+      <c r="G130" t="s">
+        <v>12</v>
+      </c>
+      <c r="H130" t="s">
+        <v>12</v>
+      </c>
+      <c r="I130" t="s">
         <v>540</v>
-      </c>
-      <c r="G130" t="s">
-        <v>12</v>
-      </c>
-      <c r="H130" t="s">
-        <v>12</v>
-      </c>
-      <c r="I130" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
+        <v>541</v>
+      </c>
+      <c r="B131" t="s">
+        <v>12</v>
+      </c>
+      <c r="C131" t="s">
         <v>542</v>
       </c>
-      <c r="B131" t="s">
-        <v>12</v>
-      </c>
-      <c r="C131" t="s">
+      <c r="D131" t="s">
+        <v>12</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F131" t="s">
         <v>543</v>
       </c>
-      <c r="D131" t="s">
-        <v>12</v>
-      </c>
-      <c r="E131" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F131" t="s">
+      <c r="G131" t="s">
+        <v>12</v>
+      </c>
+      <c r="H131" t="s">
+        <v>12</v>
+      </c>
+      <c r="I131" t="s">
         <v>544</v>
-      </c>
-      <c r="G131" t="s">
-        <v>12</v>
-      </c>
-      <c r="H131" t="s">
-        <v>12</v>
-      </c>
-      <c r="I131" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
+        <v>545</v>
+      </c>
+      <c r="B132" t="s">
         <v>546</v>
       </c>
-      <c r="B132" t="s">
+      <c r="C132" t="s">
         <v>547</v>
       </c>
-      <c r="C132" t="s">
+      <c r="D132" t="s">
+        <v>12</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F132" t="s">
         <v>548</v>
       </c>
-      <c r="D132" t="s">
-        <v>12</v>
-      </c>
-      <c r="E132" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F132" t="s">
+      <c r="G132" t="s">
+        <v>12</v>
+      </c>
+      <c r="H132" t="s">
+        <v>12</v>
+      </c>
+      <c r="I132" t="s">
         <v>549</v>
-      </c>
-      <c r="G132" t="s">
-        <v>12</v>
-      </c>
-      <c r="H132" t="s">
-        <v>12</v>
-      </c>
-      <c r="I132" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
+        <v>550</v>
+      </c>
+      <c r="B133" t="s">
+        <v>12</v>
+      </c>
+      <c r="C133" t="s">
         <v>551</v>
       </c>
-      <c r="B133" t="s">
-        <v>12</v>
-      </c>
-      <c r="C133" t="s">
+      <c r="D133" t="s">
+        <v>12</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F133" t="s">
         <v>552</v>
       </c>
-      <c r="D133" t="s">
-        <v>12</v>
-      </c>
-      <c r="E133" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F133" t="s">
+      <c r="G133" t="s">
+        <v>12</v>
+      </c>
+      <c r="H133" t="s">
+        <v>12</v>
+      </c>
+      <c r="I133" t="s">
         <v>553</v>
-      </c>
-      <c r="G133" t="s">
-        <v>12</v>
-      </c>
-      <c r="H133" t="s">
-        <v>12</v>
-      </c>
-      <c r="I133" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
+        <v>554</v>
+      </c>
+      <c r="B134" t="s">
+        <v>12</v>
+      </c>
+      <c r="C134" t="s">
         <v>555</v>
       </c>
-      <c r="B134" t="s">
-        <v>12</v>
-      </c>
-      <c r="C134" t="s">
+      <c r="D134" t="s">
+        <v>12</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F134" t="s">
         <v>556</v>
       </c>
-      <c r="D134" t="s">
-        <v>12</v>
-      </c>
-      <c r="E134" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F134" t="s">
+      <c r="G134" t="s">
+        <v>12</v>
+      </c>
+      <c r="H134" t="s">
+        <v>12</v>
+      </c>
+      <c r="I134" t="s">
         <v>557</v>
-      </c>
-      <c r="G134" t="s">
-        <v>12</v>
-      </c>
-      <c r="H134" t="s">
-        <v>12</v>
-      </c>
-      <c r="I134" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="135">
@@ -6300,7 +6408,7 @@
         <v>12</v>
       </c>
       <c r="I135" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="136">
@@ -6329,18 +6437,18 @@
         <v>12</v>
       </c>
       <c r="I136" t="s">
-        <v>18</v>
+        <v>564</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B137" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C137" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D137" t="s">
         <v>12</v>
@@ -6349,7 +6457,7 @@
         <v>0.0</v>
       </c>
       <c r="F137" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="G137" t="s">
         <v>12</v>
@@ -6358,15 +6466,15 @@
         <v>12</v>
       </c>
       <c r="I137" t="s">
-        <v>18</v>
+        <v>569</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B138" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="C138" t="s">
         <v>12</v>
@@ -6378,7 +6486,7 @@
         <v>0.0</v>
       </c>
       <c r="F138" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="G138" t="s">
         <v>12</v>
@@ -6387,15 +6495,15 @@
         <v>12</v>
       </c>
       <c r="I138" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B139" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="C139" t="s">
         <v>12</v>
@@ -6407,7 +6515,7 @@
         <v>0.0</v>
       </c>
       <c r="F139" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="G139" t="s">
         <v>12</v>
@@ -6416,18 +6524,18 @@
         <v>12</v>
       </c>
       <c r="I139" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B140" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="C140" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="D140" t="s">
         <v>12</v>
@@ -6436,7 +6544,7 @@
         <v>0.0</v>
       </c>
       <c r="F140" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="G140" t="s">
         <v>12</v>
@@ -6445,18 +6553,18 @@
         <v>12</v>
       </c>
       <c r="I140" t="s">
-        <v>18</v>
+        <v>580</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="B141" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="C141" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="D141" t="s">
         <v>12</v>
@@ -6465,7 +6573,7 @@
         <v>0.0</v>
       </c>
       <c r="F141" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="G141" t="s">
         <v>12</v>
@@ -6474,18 +6582,18 @@
         <v>12</v>
       </c>
       <c r="I141" t="s">
-        <v>18</v>
+        <v>585</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="B142" t="s">
         <v>12</v>
       </c>
       <c r="C142" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="D142" t="s">
         <v>12</v>
@@ -6494,7 +6602,7 @@
         <v>0.0</v>
       </c>
       <c r="F142" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="G142" t="s">
         <v>12</v>
@@ -6503,18 +6611,18 @@
         <v>12</v>
       </c>
       <c r="I142" t="s">
-        <v>18</v>
+        <v>346</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="B143" t="s">
         <v>12</v>
       </c>
       <c r="C143" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="D143" t="s">
         <v>12</v>
@@ -6523,7 +6631,7 @@
         <v>0.0</v>
       </c>
       <c r="F143" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="G143" t="s">
         <v>12</v>
@@ -6532,18 +6640,18 @@
         <v>12</v>
       </c>
       <c r="I143" t="s">
-        <v>18</v>
+        <v>592</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="B144" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="C144" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="D144" t="s">
         <v>12</v>
@@ -6552,7 +6660,7 @@
         <v>0.0</v>
       </c>
       <c r="F144" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="G144" t="s">
         <v>12</v>
@@ -6561,15 +6669,15 @@
         <v>12</v>
       </c>
       <c r="I144" t="s">
-        <v>18</v>
+        <v>597</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="B145" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="C145" t="s">
         <v>12</v>
@@ -6581,7 +6689,7 @@
         <v>0.0</v>
       </c>
       <c r="F145" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="G145" t="s">
         <v>12</v>
@@ -6590,18 +6698,18 @@
         <v>12</v>
       </c>
       <c r="I145" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="B146" t="s">
         <v>12</v>
       </c>
       <c r="C146" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="D146" t="s">
         <v>12</v>
@@ -6610,7 +6718,7 @@
         <v>0.0</v>
       </c>
       <c r="F146" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="G146" t="s">
         <v>12</v>
@@ -6619,15 +6727,15 @@
         <v>12</v>
       </c>
       <c r="I146" t="s">
-        <v>18</v>
+        <v>604</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="B147" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="C147" t="s">
         <v>12</v>
@@ -6639,7 +6747,7 @@
         <v>0.0</v>
       </c>
       <c r="F147" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="G147" t="s">
         <v>12</v>
@@ -6648,18 +6756,18 @@
         <v>12</v>
       </c>
       <c r="I147" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="B148" t="s">
         <v>12</v>
       </c>
       <c r="C148" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
       <c r="D148" t="s">
         <v>12</v>
@@ -6668,7 +6776,7 @@
         <v>0.0</v>
       </c>
       <c r="F148" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="G148" t="s">
         <v>12</v>
@@ -6677,15 +6785,15 @@
         <v>12</v>
       </c>
       <c r="I148" t="s">
-        <v>18</v>
+        <v>611</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="B149" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="C149" t="s">
         <v>12</v>
@@ -6697,7 +6805,7 @@
         <v>0.0</v>
       </c>
       <c r="F149" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="G149" t="s">
         <v>12</v>
@@ -6706,18 +6814,18 @@
         <v>12</v>
       </c>
       <c r="I149" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="B150" t="s">
         <v>12</v>
       </c>
       <c r="C150" t="s">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="D150" t="s">
         <v>12</v>
@@ -6726,7 +6834,7 @@
         <v>0.0</v>
       </c>
       <c r="F150" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="G150" t="s">
         <v>12</v>
@@ -6735,18 +6843,18 @@
         <v>12</v>
       </c>
       <c r="I150" t="s">
-        <v>18</v>
+        <v>618</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
       <c r="B151" t="s">
         <v>12</v>
       </c>
       <c r="C151" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
       <c r="D151" t="s">
         <v>12</v>
@@ -6755,7 +6863,7 @@
         <v>0.0</v>
       </c>
       <c r="F151" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
       <c r="G151" t="s">
         <v>12</v>
@@ -6764,27 +6872,27 @@
         <v>12</v>
       </c>
       <c r="I151" t="s">
-        <v>18</v>
+        <v>622</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>613</v>
+        <v>623</v>
       </c>
       <c r="B152" t="s">
         <v>12</v>
       </c>
       <c r="C152" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="D152" t="s">
         <v>12</v>
       </c>
       <c r="E152" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F152" t="s">
-        <v>615</v>
+        <v>625</v>
       </c>
       <c r="G152" t="s">
         <v>12</v>
@@ -6793,27 +6901,27 @@
         <v>12</v>
       </c>
       <c r="I152" t="s">
-        <v>18</v>
+        <v>626</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>616</v>
+        <v>627</v>
       </c>
       <c r="B153" t="s">
         <v>12</v>
       </c>
       <c r="C153" t="s">
-        <v>617</v>
+        <v>628</v>
       </c>
       <c r="D153" t="s">
         <v>12</v>
       </c>
       <c r="E153" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F153" t="s">
-        <v>618</v>
+        <v>629</v>
       </c>
       <c r="G153" t="s">
         <v>12</v>
@@ -6822,18 +6930,18 @@
         <v>12</v>
       </c>
       <c r="I153" t="s">
-        <v>18</v>
+        <v>630</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>619</v>
+        <v>631</v>
       </c>
       <c r="B154" t="s">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="C154" t="s">
-        <v>621</v>
+        <v>633</v>
       </c>
       <c r="D154" t="s">
         <v>12</v>
@@ -6842,7 +6950,7 @@
         <v>0.0</v>
       </c>
       <c r="F154" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="G154" t="s">
         <v>12</v>
@@ -6851,18 +6959,18 @@
         <v>12</v>
       </c>
       <c r="I154" t="s">
-        <v>18</v>
+        <v>635</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>623</v>
+        <v>636</v>
       </c>
       <c r="B155" t="s">
         <v>12</v>
       </c>
       <c r="C155" t="s">
-        <v>624</v>
+        <v>637</v>
       </c>
       <c r="D155" t="s">
         <v>12</v>
@@ -6871,7 +6979,7 @@
         <v>0.0</v>
       </c>
       <c r="F155" t="s">
-        <v>625</v>
+        <v>638</v>
       </c>
       <c r="G155" t="s">
         <v>12</v>
@@ -6880,18 +6988,18 @@
         <v>12</v>
       </c>
       <c r="I155" t="s">
-        <v>18</v>
+        <v>639</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>626</v>
+        <v>640</v>
       </c>
       <c r="B156" t="s">
-        <v>627</v>
+        <v>641</v>
       </c>
       <c r="C156" t="s">
-        <v>628</v>
+        <v>642</v>
       </c>
       <c r="D156" t="s">
         <v>12</v>
@@ -6900,7 +7008,7 @@
         <v>0.0</v>
       </c>
       <c r="F156" t="s">
-        <v>629</v>
+        <v>643</v>
       </c>
       <c r="G156" t="s">
         <v>12</v>
@@ -6909,18 +7017,18 @@
         <v>12</v>
       </c>
       <c r="I156" t="s">
-        <v>18</v>
+        <v>644</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>630</v>
+        <v>645</v>
       </c>
       <c r="B157" t="s">
         <v>12</v>
       </c>
       <c r="C157" t="s">
-        <v>631</v>
+        <v>646</v>
       </c>
       <c r="D157" t="s">
         <v>12</v>
@@ -6929,7 +7037,7 @@
         <v>0.0</v>
       </c>
       <c r="F157" t="s">
-        <v>632</v>
+        <v>647</v>
       </c>
       <c r="G157" t="s">
         <v>12</v>
@@ -6938,18 +7046,18 @@
         <v>12</v>
       </c>
       <c r="I157" t="s">
-        <v>18</v>
+        <v>648</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>633</v>
+        <v>649</v>
       </c>
       <c r="B158" t="s">
-        <v>634</v>
+        <v>650</v>
       </c>
       <c r="C158" t="s">
-        <v>635</v>
+        <v>651</v>
       </c>
       <c r="D158" t="s">
         <v>12</v>
@@ -6958,7 +7066,7 @@
         <v>0.0</v>
       </c>
       <c r="F158" t="s">
-        <v>636</v>
+        <v>652</v>
       </c>
       <c r="G158" t="s">
         <v>12</v>
@@ -6967,15 +7075,15 @@
         <v>12</v>
       </c>
       <c r="I158" t="s">
-        <v>18</v>
+        <v>653</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>637</v>
+        <v>654</v>
       </c>
       <c r="B159" t="s">
-        <v>638</v>
+        <v>655</v>
       </c>
       <c r="C159" t="s">
         <v>12</v>
@@ -6987,7 +7095,7 @@
         <v>0.0</v>
       </c>
       <c r="F159" t="s">
-        <v>639</v>
+        <v>656</v>
       </c>
       <c r="G159" t="s">
         <v>12</v>
@@ -6996,18 +7104,18 @@
         <v>12</v>
       </c>
       <c r="I159" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>640</v>
+        <v>657</v>
       </c>
       <c r="B160" t="s">
         <v>12</v>
       </c>
       <c r="C160" t="s">
-        <v>641</v>
+        <v>658</v>
       </c>
       <c r="D160" t="s">
         <v>12</v>
@@ -7016,7 +7124,7 @@
         <v>0.0</v>
       </c>
       <c r="F160" t="s">
-        <v>642</v>
+        <v>659</v>
       </c>
       <c r="G160" t="s">
         <v>12</v>
@@ -7025,18 +7133,18 @@
         <v>12</v>
       </c>
       <c r="I160" t="s">
-        <v>18</v>
+        <v>660</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>643</v>
+        <v>661</v>
       </c>
       <c r="B161" t="s">
         <v>12</v>
       </c>
       <c r="C161" t="s">
-        <v>644</v>
+        <v>662</v>
       </c>
       <c r="D161" t="s">
         <v>12</v>
@@ -7045,7 +7153,7 @@
         <v>0.0</v>
       </c>
       <c r="F161" t="s">
-        <v>645</v>
+        <v>663</v>
       </c>
       <c r="G161" t="s">
         <v>12</v>
@@ -7054,18 +7162,18 @@
         <v>12</v>
       </c>
       <c r="I161" t="s">
-        <v>18</v>
+        <v>664</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>646</v>
+        <v>665</v>
       </c>
       <c r="B162" t="s">
         <v>12</v>
       </c>
       <c r="C162" t="s">
-        <v>647</v>
+        <v>666</v>
       </c>
       <c r="D162" t="s">
         <v>12</v>
@@ -7074,7 +7182,7 @@
         <v>0.0</v>
       </c>
       <c r="F162" t="s">
-        <v>648</v>
+        <v>667</v>
       </c>
       <c r="G162" t="s">
         <v>12</v>
@@ -7083,18 +7191,18 @@
         <v>12</v>
       </c>
       <c r="I162" t="s">
-        <v>18</v>
+        <v>668</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>649</v>
+        <v>669</v>
       </c>
       <c r="B163" t="s">
         <v>12</v>
       </c>
       <c r="C163" t="s">
-        <v>650</v>
+        <v>670</v>
       </c>
       <c r="D163" t="s">
         <v>12</v>
@@ -7103,7 +7211,7 @@
         <v>0.0</v>
       </c>
       <c r="F163" t="s">
-        <v>651</v>
+        <v>671</v>
       </c>
       <c r="G163" t="s">
         <v>12</v>
@@ -7112,18 +7220,18 @@
         <v>12</v>
       </c>
       <c r="I163" t="s">
-        <v>18</v>
+        <v>672</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>652</v>
+        <v>673</v>
       </c>
       <c r="B164" t="s">
         <v>12</v>
       </c>
       <c r="C164" t="s">
-        <v>653</v>
+        <v>674</v>
       </c>
       <c r="D164" t="s">
         <v>12</v>
@@ -7132,7 +7240,7 @@
         <v>0.0</v>
       </c>
       <c r="F164" t="s">
-        <v>654</v>
+        <v>675</v>
       </c>
       <c r="G164" t="s">
         <v>12</v>
@@ -7141,18 +7249,18 @@
         <v>12</v>
       </c>
       <c r="I164" t="s">
-        <v>18</v>
+        <v>676</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>655</v>
+        <v>677</v>
       </c>
       <c r="B165" t="s">
         <v>12</v>
       </c>
       <c r="C165" t="s">
-        <v>656</v>
+        <v>678</v>
       </c>
       <c r="D165" t="s">
         <v>12</v>
@@ -7161,7 +7269,7 @@
         <v>0.0</v>
       </c>
       <c r="F165" t="s">
-        <v>657</v>
+        <v>679</v>
       </c>
       <c r="G165" t="s">
         <v>12</v>
@@ -7170,18 +7278,18 @@
         <v>12</v>
       </c>
       <c r="I165" t="s">
-        <v>18</v>
+        <v>680</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>658</v>
+        <v>681</v>
       </c>
       <c r="B166" t="s">
         <v>12</v>
       </c>
       <c r="C166" t="s">
-        <v>659</v>
+        <v>682</v>
       </c>
       <c r="D166" t="s">
         <v>12</v>
@@ -7190,7 +7298,7 @@
         <v>0.0</v>
       </c>
       <c r="F166" t="s">
-        <v>660</v>
+        <v>683</v>
       </c>
       <c r="G166" t="s">
         <v>12</v>
@@ -7199,18 +7307,18 @@
         <v>12</v>
       </c>
       <c r="I166" t="s">
-        <v>18</v>
+        <v>684</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>661</v>
+        <v>685</v>
       </c>
       <c r="B167" t="s">
         <v>12</v>
       </c>
       <c r="C167" t="s">
-        <v>662</v>
+        <v>686</v>
       </c>
       <c r="D167" t="s">
         <v>12</v>
@@ -7219,7 +7327,7 @@
         <v>0.0</v>
       </c>
       <c r="F167" t="s">
-        <v>663</v>
+        <v>687</v>
       </c>
       <c r="G167" t="s">
         <v>12</v>
@@ -7228,18 +7336,18 @@
         <v>12</v>
       </c>
       <c r="I167" t="s">
-        <v>18</v>
+        <v>688</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>664</v>
+        <v>689</v>
       </c>
       <c r="B168" t="s">
         <v>12</v>
       </c>
       <c r="C168" t="s">
-        <v>665</v>
+        <v>690</v>
       </c>
       <c r="D168" t="s">
         <v>12</v>
@@ -7248,7 +7356,7 @@
         <v>0.0</v>
       </c>
       <c r="F168" t="s">
-        <v>666</v>
+        <v>691</v>
       </c>
       <c r="G168" t="s">
         <v>12</v>
@@ -7257,18 +7365,18 @@
         <v>12</v>
       </c>
       <c r="I168" t="s">
-        <v>18</v>
+        <v>692</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>667</v>
+        <v>693</v>
       </c>
       <c r="B169" t="s">
         <v>12</v>
       </c>
       <c r="C169" t="s">
-        <v>668</v>
+        <v>694</v>
       </c>
       <c r="D169" t="s">
         <v>12</v>
@@ -7277,7 +7385,7 @@
         <v>0.0</v>
       </c>
       <c r="F169" t="s">
-        <v>669</v>
+        <v>695</v>
       </c>
       <c r="G169" t="s">
         <v>12</v>
@@ -7286,15 +7394,15 @@
         <v>12</v>
       </c>
       <c r="I169" t="s">
-        <v>18</v>
+        <v>696</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>670</v>
+        <v>697</v>
       </c>
       <c r="B170" t="s">
-        <v>671</v>
+        <v>698</v>
       </c>
       <c r="C170" t="s">
         <v>12</v>
@@ -7306,7 +7414,7 @@
         <v>0.0</v>
       </c>
       <c r="F170" t="s">
-        <v>672</v>
+        <v>699</v>
       </c>
       <c r="G170" t="s">
         <v>12</v>
@@ -7315,18 +7423,18 @@
         <v>12</v>
       </c>
       <c r="I170" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>673</v>
+        <v>700</v>
       </c>
       <c r="B171" t="s">
         <v>12</v>
       </c>
       <c r="C171" t="s">
-        <v>674</v>
+        <v>701</v>
       </c>
       <c r="D171" t="s">
         <v>12</v>
@@ -7335,7 +7443,7 @@
         <v>0.0</v>
       </c>
       <c r="F171" t="s">
-        <v>675</v>
+        <v>702</v>
       </c>
       <c r="G171" t="s">
         <v>12</v>
@@ -7344,18 +7452,18 @@
         <v>12</v>
       </c>
       <c r="I171" t="s">
-        <v>18</v>
+        <v>703</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>676</v>
+        <v>704</v>
       </c>
       <c r="B172" t="s">
         <v>12</v>
       </c>
       <c r="C172" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D172" t="s">
         <v>12</v>
@@ -7364,7 +7472,7 @@
         <v>0.0</v>
       </c>
       <c r="F172" t="s">
-        <v>677</v>
+        <v>705</v>
       </c>
       <c r="G172" t="s">
         <v>12</v>
@@ -7373,18 +7481,18 @@
         <v>12</v>
       </c>
       <c r="I172" t="s">
-        <v>18</v>
+        <v>692</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>678</v>
+        <v>706</v>
       </c>
       <c r="B173" t="s">
         <v>12</v>
       </c>
       <c r="C173" t="s">
-        <v>679</v>
+        <v>707</v>
       </c>
       <c r="D173" t="s">
         <v>12</v>
@@ -7393,7 +7501,7 @@
         <v>0.0</v>
       </c>
       <c r="F173" t="s">
-        <v>680</v>
+        <v>708</v>
       </c>
       <c r="G173" t="s">
         <v>12</v>
@@ -7402,18 +7510,18 @@
         <v>12</v>
       </c>
       <c r="I173" t="s">
-        <v>18</v>
+        <v>709</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>681</v>
+        <v>710</v>
       </c>
       <c r="B174" t="s">
         <v>12</v>
       </c>
       <c r="C174" t="s">
-        <v>682</v>
+        <v>711</v>
       </c>
       <c r="D174" t="s">
         <v>12</v>
@@ -7422,7 +7530,7 @@
         <v>0.0</v>
       </c>
       <c r="F174" t="s">
-        <v>683</v>
+        <v>712</v>
       </c>
       <c r="G174" t="s">
         <v>12</v>
@@ -7431,18 +7539,18 @@
         <v>12</v>
       </c>
       <c r="I174" t="s">
-        <v>18</v>
+        <v>713</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>684</v>
+        <v>714</v>
       </c>
       <c r="B175" t="s">
         <v>12</v>
       </c>
       <c r="C175" t="s">
-        <v>685</v>
+        <v>715</v>
       </c>
       <c r="D175" t="s">
         <v>12</v>
@@ -7451,7 +7559,7 @@
         <v>0.0</v>
       </c>
       <c r="F175" t="s">
-        <v>686</v>
+        <v>716</v>
       </c>
       <c r="G175" t="s">
         <v>12</v>
@@ -7460,18 +7568,18 @@
         <v>12</v>
       </c>
       <c r="I175" t="s">
-        <v>18</v>
+        <v>692</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>687</v>
+        <v>717</v>
       </c>
       <c r="B176" t="s">
         <v>12</v>
       </c>
       <c r="C176" t="s">
-        <v>688</v>
+        <v>718</v>
       </c>
       <c r="D176" t="s">
         <v>12</v>
@@ -7480,7 +7588,7 @@
         <v>0.0</v>
       </c>
       <c r="F176" t="s">
-        <v>689</v>
+        <v>719</v>
       </c>
       <c r="G176" t="s">
         <v>12</v>
@@ -7489,18 +7597,18 @@
         <v>12</v>
       </c>
       <c r="I176" t="s">
-        <v>18</v>
+        <v>720</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>690</v>
+        <v>721</v>
       </c>
       <c r="B177" t="s">
         <v>12</v>
       </c>
       <c r="C177" t="s">
-        <v>691</v>
+        <v>722</v>
       </c>
       <c r="D177" t="s">
         <v>12</v>
@@ -7509,27 +7617,27 @@
         <v>0.0</v>
       </c>
       <c r="F177" t="s">
+        <v>723</v>
+      </c>
+      <c r="G177" t="s">
+        <v>12</v>
+      </c>
+      <c r="H177" t="s">
+        <v>12</v>
+      </c>
+      <c r="I177" t="s">
         <v>692</v>
-      </c>
-      <c r="G177" t="s">
-        <v>12</v>
-      </c>
-      <c r="H177" t="s">
-        <v>12</v>
-      </c>
-      <c r="I177" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>693</v>
+        <v>724</v>
       </c>
       <c r="B178" t="s">
-        <v>694</v>
+        <v>725</v>
       </c>
       <c r="C178" t="s">
-        <v>695</v>
+        <v>726</v>
       </c>
       <c r="D178" t="s">
         <v>12</v>
@@ -7538,7 +7646,7 @@
         <v>0.0</v>
       </c>
       <c r="F178" t="s">
-        <v>696</v>
+        <v>727</v>
       </c>
       <c r="G178" t="s">
         <v>12</v>
@@ -7547,18 +7655,18 @@
         <v>12</v>
       </c>
       <c r="I178" t="s">
-        <v>18</v>
+        <v>728</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>697</v>
+        <v>729</v>
       </c>
       <c r="B179" t="s">
-        <v>698</v>
+        <v>730</v>
       </c>
       <c r="C179" t="s">
-        <v>699</v>
+        <v>731</v>
       </c>
       <c r="D179" t="s">
         <v>12</v>
@@ -7567,7 +7675,7 @@
         <v>0.0</v>
       </c>
       <c r="F179" t="s">
-        <v>700</v>
+        <v>732</v>
       </c>
       <c r="G179" t="s">
         <v>12</v>
@@ -7576,18 +7684,18 @@
         <v>12</v>
       </c>
       <c r="I179" t="s">
-        <v>18</v>
+        <v>733</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>701</v>
+        <v>734</v>
       </c>
       <c r="B180" t="s">
         <v>12</v>
       </c>
       <c r="C180" t="s">
-        <v>702</v>
+        <v>735</v>
       </c>
       <c r="D180" t="s">
         <v>12</v>
@@ -7596,7 +7704,7 @@
         <v>0.0</v>
       </c>
       <c r="F180" t="s">
-        <v>703</v>
+        <v>736</v>
       </c>
       <c r="G180" t="s">
         <v>12</v>
@@ -7605,18 +7713,18 @@
         <v>12</v>
       </c>
       <c r="I180" t="s">
-        <v>18</v>
+        <v>692</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>704</v>
+        <v>737</v>
       </c>
       <c r="B181" t="s">
         <v>12</v>
       </c>
       <c r="C181" t="s">
-        <v>705</v>
+        <v>738</v>
       </c>
       <c r="D181" t="s">
         <v>12</v>
@@ -7625,7 +7733,7 @@
         <v>0.0</v>
       </c>
       <c r="F181" t="s">
-        <v>706</v>
+        <v>739</v>
       </c>
       <c r="G181" t="s">
         <v>12</v>
@@ -7634,18 +7742,18 @@
         <v>12</v>
       </c>
       <c r="I181" t="s">
-        <v>18</v>
+        <v>740</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>707</v>
+        <v>741</v>
       </c>
       <c r="B182" t="s">
         <v>12</v>
       </c>
       <c r="C182" t="s">
-        <v>708</v>
+        <v>742</v>
       </c>
       <c r="D182" t="s">
         <v>12</v>
@@ -7654,7 +7762,7 @@
         <v>0.0</v>
       </c>
       <c r="F182" t="s">
-        <v>709</v>
+        <v>743</v>
       </c>
       <c r="G182" t="s">
         <v>12</v>
@@ -7663,15 +7771,15 @@
         <v>12</v>
       </c>
       <c r="I182" t="s">
-        <v>18</v>
+        <v>744</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>710</v>
+        <v>745</v>
       </c>
       <c r="B183" t="s">
-        <v>711</v>
+        <v>746</v>
       </c>
       <c r="C183" t="s">
         <v>12</v>
@@ -7683,7 +7791,7 @@
         <v>0.0</v>
       </c>
       <c r="F183" t="s">
-        <v>712</v>
+        <v>747</v>
       </c>
       <c r="G183" t="s">
         <v>12</v>
@@ -7692,18 +7800,18 @@
         <v>12</v>
       </c>
       <c r="I183" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>713</v>
+        <v>748</v>
       </c>
       <c r="B184" t="s">
         <v>12</v>
       </c>
       <c r="C184" t="s">
-        <v>714</v>
+        <v>749</v>
       </c>
       <c r="D184" t="s">
         <v>12</v>
@@ -7712,7 +7820,7 @@
         <v>0.0</v>
       </c>
       <c r="F184" t="s">
-        <v>715</v>
+        <v>750</v>
       </c>
       <c r="G184" t="s">
         <v>12</v>
@@ -7721,7 +7829,7 @@
         <v>12</v>
       </c>
       <c r="I184" t="s">
-        <v>18</v>
+        <v>751</v>
       </c>
     </row>
   </sheetData>
@@ -7739,7 +7847,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>716</v>
+        <v>752</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
@@ -7747,7 +7855,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>717</v>
+        <v>753</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
@@ -7755,7 +7863,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>718</v>
+        <v>754</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -7763,7 +7871,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>719</v>
+        <v>755</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -7771,7 +7879,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>720</v>
+        <v>756</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -7779,7 +7887,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>721</v>
+        <v>757</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -7787,7 +7895,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>722</v>
+        <v>758</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -7795,7 +7903,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>723</v>
+        <v>759</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -7803,7 +7911,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>724</v>
+        <v>760</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -7811,7 +7919,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>725</v>
+        <v>761</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
@@ -7819,7 +7927,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>726</v>
+        <v>762</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -7827,7 +7935,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>727</v>
+        <v>763</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -7835,7 +7943,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>728</v>
+        <v>764</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
@@ -7843,7 +7951,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>729</v>
+        <v>765</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
@@ -7851,7 +7959,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>730</v>
+        <v>766</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
@@ -7859,7 +7967,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>731</v>
+        <v>767</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
@@ -7867,7 +7975,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>732</v>
+        <v>768</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
@@ -7875,7 +7983,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>733</v>
+        <v>769</v>
       </c>
       <c r="B18" t="s">
         <v>12</v>
@@ -7883,7 +7991,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>734</v>
+        <v>770</v>
       </c>
       <c r="B19" t="s">
         <v>12</v>
@@ -7891,7 +7999,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>735</v>
+        <v>771</v>
       </c>
       <c r="B20" t="s">
         <v>12</v>
@@ -7899,7 +8007,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>736</v>
+        <v>772</v>
       </c>
       <c r="B21" t="s">
         <v>12</v>
@@ -7907,7 +8015,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>737</v>
+        <v>773</v>
       </c>
       <c r="B22" t="s">
         <v>12</v>
@@ -7915,7 +8023,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>738</v>
+        <v>774</v>
       </c>
       <c r="B23" t="s">
         <v>12</v>
@@ -7923,7 +8031,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>739</v>
+        <v>775</v>
       </c>
       <c r="B24" t="s">
         <v>12</v>
@@ -7931,55 +8039,55 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>740</v>
+        <v>776</v>
       </c>
       <c r="B25" t="s">
-        <v>741</v>
+        <v>777</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>742</v>
+        <v>778</v>
       </c>
       <c r="B26" t="s">
-        <v>741</v>
+        <v>777</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>743</v>
+        <v>779</v>
       </c>
       <c r="B27" t="s">
-        <v>741</v>
+        <v>777</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>744</v>
+        <v>780</v>
       </c>
       <c r="B28" t="s">
-        <v>741</v>
+        <v>777</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>745</v>
+        <v>781</v>
       </c>
       <c r="B29" t="s">
-        <v>741</v>
+        <v>777</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>746</v>
+        <v>782</v>
       </c>
       <c r="B30" t="s">
-        <v>741</v>
+        <v>777</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>747</v>
+        <v>783</v>
       </c>
       <c r="B31" t="s">
         <v>12</v>
@@ -7987,7 +8095,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>748</v>
+        <v>784</v>
       </c>
       <c r="B32" t="s">
         <v>12</v>
@@ -7995,7 +8103,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>749</v>
+        <v>785</v>
       </c>
       <c r="B33" t="s">
         <v>12</v>
@@ -8003,7 +8111,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>750</v>
+        <v>786</v>
       </c>
       <c r="B34" t="s">
         <v>12</v>
@@ -8011,7 +8119,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>751</v>
+        <v>787</v>
       </c>
       <c r="B35" t="s">
         <v>12</v>
@@ -8019,7 +8127,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>752</v>
+        <v>788</v>
       </c>
       <c r="B36" t="s">
         <v>12</v>
@@ -8027,7 +8135,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>753</v>
+        <v>789</v>
       </c>
       <c r="B37" t="s">
         <v>12</v>
@@ -8035,7 +8143,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>754</v>
+        <v>790</v>
       </c>
       <c r="B38" t="s">
         <v>12</v>
@@ -8043,7 +8151,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>755</v>
+        <v>791</v>
       </c>
       <c r="B39" t="s">
         <v>12</v>
@@ -8051,7 +8159,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>756</v>
+        <v>792</v>
       </c>
       <c r="B40" t="s">
         <v>12</v>
@@ -8059,15 +8167,15 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>757</v>
+        <v>793</v>
       </c>
       <c r="B41" t="s">
-        <v>741</v>
+        <v>777</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>758</v>
+        <v>794</v>
       </c>
       <c r="B42" t="s">
         <v>12</v>
@@ -8075,15 +8183,15 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>759</v>
+        <v>795</v>
       </c>
       <c r="B43" t="s">
-        <v>741</v>
+        <v>777</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>760</v>
+        <v>796</v>
       </c>
       <c r="B44" t="s">
         <v>12</v>
@@ -8091,15 +8199,15 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>761</v>
+        <v>797</v>
       </c>
       <c r="B45" t="s">
-        <v>741</v>
+        <v>777</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>762</v>
+        <v>798</v>
       </c>
       <c r="B46" t="s">
         <v>12</v>
@@ -8107,7 +8215,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>763</v>
+        <v>799</v>
       </c>
       <c r="B47" t="s">
         <v>12</v>
@@ -8115,7 +8223,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>764</v>
+        <v>800</v>
       </c>
       <c r="B48" t="s">
         <v>12</v>
@@ -8123,31 +8231,31 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>765</v>
+        <v>801</v>
       </c>
       <c r="B49" t="s">
-        <v>766</v>
+        <v>802</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>767</v>
+        <v>803</v>
       </c>
       <c r="B50" t="s">
-        <v>766</v>
+        <v>802</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>768</v>
+        <v>804</v>
       </c>
       <c r="B51" t="s">
-        <v>766</v>
+        <v>802</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>769</v>
+        <v>805</v>
       </c>
       <c r="B52" t="s">
         <v>12</v>
@@ -8155,7 +8263,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>770</v>
+        <v>806</v>
       </c>
       <c r="B53" t="s">
         <v>12</v>
@@ -8163,23 +8271,23 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>771</v>
+        <v>807</v>
       </c>
       <c r="B54" t="s">
-        <v>766</v>
+        <v>802</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>772</v>
+        <v>808</v>
       </c>
       <c r="B55" t="s">
-        <v>766</v>
+        <v>802</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>773</v>
+        <v>809</v>
       </c>
       <c r="B56" t="s">
         <v>12</v>
@@ -8187,7 +8295,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>774</v>
+        <v>810</v>
       </c>
       <c r="B57" t="s">
         <v>12</v>
